--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -461,114 +461,114 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NextBusGroup</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>BusNo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>BusStopCode</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Destination Description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Operator</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>EstimatedTimeOfArrival</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DestinationCode</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>WheelchairAccessible</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Monitored</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>OriginCode</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>TypeOfBus</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Right_BusStopCode</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>SAT_FirstBus</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>SAT_LastBus</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>SUN_FirstBus</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>SUN_LastBus</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>WD_FirstBus</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>WD_LastBus</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Right_Right_BusStopCode</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bus Stop Description</t>
         </is>
@@ -580,15 +580,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53009</t>
-        </is>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -600,13 +596,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>45683.9718287037</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>53009</t>
-        </is>
+      <c r="F2" s="5" t="n">
+        <v>45684.38576388889</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53009</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -618,60 +612,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>28009</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28009</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0612</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0015</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0613</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0016</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0619</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0015</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="n">
+        <v>612</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>613</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>16</v>
+      </c>
+      <c r="R2" t="n">
+        <v>619</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12101</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -685,15 +659,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -705,13 +675,11 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>45683.96837962963</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="F3" s="5" t="n">
+        <v>45684.38296296296</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -723,60 +691,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0622</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2331</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0621</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2331</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0602</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2327</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="n">
+        <v>622</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2331</v>
+      </c>
+      <c r="P3" t="n">
+        <v>621</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2331</v>
+      </c>
+      <c r="R3" t="n">
+        <v>602</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2327</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12109</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -790,15 +738,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,13 +754,11 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>45683.97491898148</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="F4" s="5" t="n">
+        <v>45684.3840625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -828,60 +770,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>10009</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10009</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0640</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0032</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0704</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0030</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0633</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0031</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="n">
+        <v>640</v>
+      </c>
+      <c r="O4" t="n">
+        <v>32</v>
+      </c>
+      <c r="P4" t="n">
+        <v>704</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30</v>
+      </c>
+      <c r="R4" t="n">
+        <v>633</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12101</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -895,15 +817,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="B5" t="n">
+        <v>184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,13 +833,11 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>45683.96752314815</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="F5" s="5" t="n">
+        <v>45684.390625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -933,60 +849,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44989</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0638</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2347</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0634</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2345</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0612</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="n">
+        <v>638</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2347</v>
+      </c>
+      <c r="P5" t="n">
+        <v>634</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2345</v>
+      </c>
+      <c r="R5" t="n">
+        <v>612</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2350</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12101</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1000,15 +896,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>11379</t>
-        </is>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,13 +912,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>45683.97078703704</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>11379</t>
-        </is>
+      <c r="F6" s="5" t="n">
+        <v>45684.38430555556</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1038,60 +928,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>64009</t>
-        </is>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0605</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0030</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0559</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0024</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0609</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0027</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="n">
+        <v>605</v>
+      </c>
+      <c r="O6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P6" t="n">
+        <v>559</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>609</v>
+      </c>
+      <c r="S6" t="n">
+        <v>27</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12109</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1105,15 +975,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>82009</t>
-        </is>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,13 +991,11 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>45683.971875</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>82009</t>
-        </is>
+      <c r="F7" s="5" t="n">
+        <v>45684.38376157408</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1143,60 +1007,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>43009</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0538</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2349</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0538</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2349</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0538</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2349</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="n">
+        <v>538</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2349</v>
+      </c>
+      <c r="P7" t="n">
+        <v>538</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2349</v>
+      </c>
+      <c r="R7" t="n">
+        <v>538</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2349</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12109</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1210,15 +1054,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>82009</t>
-        </is>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,13 +1070,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>45683.96949074074</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>82009</t>
-        </is>
+      <c r="F8" s="5" t="n">
+        <v>45684.38396990741</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1248,60 +1086,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>22009</t>
-        </is>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0601</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0057</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0637</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0055</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0604</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0053</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="n">
+        <v>601</v>
+      </c>
+      <c r="O8" t="n">
+        <v>57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>637</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>55</v>
+      </c>
+      <c r="R8" t="n">
+        <v>604</v>
+      </c>
+      <c r="S8" t="n">
+        <v>53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12101</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1315,15 +1133,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22009</t>
-        </is>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,13 +1149,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>45683.97039351852</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>22009</t>
-        </is>
+      <c r="F9" s="5" t="n">
+        <v>45684.38815972222</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1353,60 +1165,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>82009</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0546</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0016</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0616</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0015</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0547</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0015</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="n">
+        <v>546</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>616</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>547</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12109</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1420,15 +1212,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>43009</t>
-        </is>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,13 +1228,11 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>45683.96637731481</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>43009</t>
-        </is>
+      <c r="F10" s="5" t="n">
+        <v>45684.38703703704</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1458,60 +1244,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>82009</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0645</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0108</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0652</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0110</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0642</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0109</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="n">
+        <v>645</v>
+      </c>
+      <c r="O10" t="n">
+        <v>108</v>
+      </c>
+      <c r="P10" t="n">
+        <v>652</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>110</v>
+      </c>
+      <c r="R10" t="n">
+        <v>642</v>
+      </c>
+      <c r="S10" t="n">
+        <v>109</v>
+      </c>
+      <c r="T10" t="n">
+        <v>12101</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1525,15 +1291,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>64009</t>
-        </is>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,13 +1307,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>45683.96896990741</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>64009</t>
-        </is>
+      <c r="F11" s="5" t="n">
+        <v>45684.38572916666</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1563,60 +1323,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>11379</t>
-        </is>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11379</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0602</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2343</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0623</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2340</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0549</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>2343</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="n">
+        <v>602</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="P11" t="n">
+        <v>623</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="R11" t="n">
+        <v>549</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12101</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1630,15 +1370,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>64009</t>
-        </is>
+      <c r="B12" t="n">
+        <v>151</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,13 +1386,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>45683.96962962963</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>64009</t>
-        </is>
+      <c r="F12" s="5" t="n">
+        <v>45684.38391203704</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1668,60 +1402,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>16009</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16009</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0642</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0642</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2315</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0611</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>12101</t>
-        </is>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="n">
+        <v>642</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="P12" t="n">
+        <v>642</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2315</v>
+      </c>
+      <c r="R12" t="n">
+        <v>611</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="T12" t="n">
+        <v>12101</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1735,15 +1449,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>28009</t>
-        </is>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1755,13 +1465,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>45683.96574074074</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>28009</t>
-        </is>
+      <c r="F13" s="5" t="n">
+        <v>45684.38292824074</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1773,60 +1481,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>53009</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0623</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0023</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0625</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0021</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0627</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0022</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="n">
+        <v>623</v>
+      </c>
+      <c r="O13" t="n">
+        <v>23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>21</v>
+      </c>
+      <c r="R13" t="n">
+        <v>627</v>
+      </c>
+      <c r="S13" t="n">
+        <v>22</v>
+      </c>
+      <c r="T13" t="n">
+        <v>12109</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1840,15 +1528,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16009</t>
-        </is>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,13 +1544,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>45683.97291666667</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>16009</t>
-        </is>
+      <c r="F14" s="5" t="n">
+        <v>45684.3856712963</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1875,63 +1557,43 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>64009</t>
-        </is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0635</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2347</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0634</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2351</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0639</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="n">
+        <v>635</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2347</v>
+      </c>
+      <c r="P14" t="n">
+        <v>634</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2351</v>
+      </c>
+      <c r="R14" t="n">
+        <v>639</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2354</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12109</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1945,15 +1607,11 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10009</t>
-        </is>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1965,13 +1623,11 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>45683.96820601852</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10009</t>
-        </is>
+      <c r="F15" s="5" t="n">
+        <v>45684.38269675926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1983,60 +1639,40 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>44989</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0548</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0546</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0552</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>2351</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>12109</t>
-        </is>
+      <c r="M15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" t="n">
+        <v>548</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2350</v>
+      </c>
+      <c r="P15" t="n">
+        <v>546</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2350</v>
+      </c>
+      <c r="R15" t="n">
+        <v>552</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2351</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12109</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -2045,7 +1681,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2055,7 +1691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,7 +1829,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45683.98672453704</v>
+        <v>45684.39681712963</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2209,7 +1845,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>28009</v>
@@ -2272,7 +1908,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45683.9796875</v>
+        <v>45684.39141203704</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2295,7 +1931,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -2351,7 +1987,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45683.99150462963</v>
+        <v>45684.3915625</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2367,7 +2003,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>10009</v>
@@ -2430,7 +2066,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45683.97895833333</v>
+        <v>45684.39751157408</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2453,7 +2089,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -2509,7 +2145,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45683.97811342592</v>
+        <v>45684.39380787037</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2588,7 +2224,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45683.98077546297</v>
+        <v>45684.39166666667</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2604,7 +2240,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>43009</v>
@@ -2667,7 +2303,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45683.98350694445</v>
+        <v>45684.38679398148</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2746,7 +2382,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45683.98182870371</v>
+        <v>45684.39206018519</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2769,7 +2405,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -2825,7 +2461,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45683.97913194444</v>
+        <v>45684.39449074074</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2904,7 +2540,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45683.98072916667</v>
+        <v>45684.39015046296</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2920,14 +2556,14 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>11379</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -2967,14 +2603,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n">
-        <v>28009</v>
+        <v>64009</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Hougang Ctrl Int</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2983,10 +2619,10 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45683.97232638889</v>
+        <v>45684.39284722223</v>
       </c>
       <c r="G12" t="n">
-        <v>28009</v>
+        <v>64009</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3002,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>53009</v>
+        <v>16009</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -3010,32 +2646,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N12" t="n">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="O12" t="n">
-        <v>23</v>
+        <v>2317</v>
       </c>
       <c r="P12" t="n">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="Q12" t="n">
-        <v>21</v>
+        <v>2315</v>
       </c>
       <c r="R12" t="n">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="S12" t="n">
-        <v>22</v>
+        <v>2317</v>
       </c>
       <c r="T12" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3046,14 +2682,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
-        <v>16009</v>
+        <v>28009</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kent Ridge Ter</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3062,10 +2698,10 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45683.98357638889</v>
+        <v>45684.38995370371</v>
       </c>
       <c r="G13" t="n">
-        <v>16009</v>
+        <v>28009</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3081,33 +2717,33 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>64009</v>
+        <v>53009</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>12109</v>
       </c>
       <c r="N13" t="n">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="O13" t="n">
-        <v>2347</v>
+        <v>23</v>
       </c>
       <c r="P13" t="n">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="Q13" t="n">
-        <v>2351</v>
+        <v>21</v>
       </c>
       <c r="R13" t="n">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="S13" t="n">
-        <v>2354</v>
+        <v>22</v>
       </c>
       <c r="T13" t="n">
         <v>12109</v>
@@ -3125,26 +2761,26 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n">
-        <v>10009</v>
+        <v>16009</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bt Merah Int</t>
+          <t>Kent Ridge Ter</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45683.9805324074</v>
+        <v>45684.38582175926</v>
       </c>
       <c r="G14" t="n">
-        <v>10009</v>
+        <v>16009</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3160,38 +2796,117 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="n">
+        <v>635</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2347</v>
+      </c>
+      <c r="P14" t="n">
+        <v>634</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2351</v>
+      </c>
+      <c r="R14" t="n">
+        <v>639</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2354</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45684.39032407408</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" t="n">
         <v>548</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>2350</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>546</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2350</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R15" t="n">
         <v>552</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>2351</v>
       </c>
-      <c r="T14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U14" t="inlineStr">
+      <c r="T15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -2923,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,26 +3045,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>44989</v>
+        <v>53009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Bishan Int</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45683.98972222222</v>
+        <v>45684.40243055556</v>
       </c>
       <c r="G2" t="n">
-        <v>44989</v>
+        <v>53009</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>44989</v>
+        <v>28009</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -3091,22 +3091,22 @@
         <v>12101</v>
       </c>
       <c r="N2" t="n">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="O2" t="n">
-        <v>2347</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="Q2" t="n">
-        <v>2345</v>
+        <v>16</v>
       </c>
       <c r="R2" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="S2" t="n">
-        <v>2350</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
         <v>12101</v>
@@ -3124,26 +3124,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="C3" t="n">
-        <v>11379</v>
+        <v>44989</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Buona Vista Ter</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45683.99422453704</v>
+        <v>45684.39763888889</v>
       </c>
       <c r="G3" t="n">
-        <v>11379</v>
+        <v>44989</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>64009</v>
+        <v>44989</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -3170,22 +3170,22 @@
         <v>12109</v>
       </c>
       <c r="N3" t="n">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="O3" t="n">
-        <v>30</v>
+        <v>2331</v>
       </c>
       <c r="P3" t="n">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="Q3" t="n">
-        <v>24</v>
+        <v>2331</v>
       </c>
       <c r="R3" t="n">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="S3" t="n">
-        <v>27</v>
+        <v>2327</v>
       </c>
       <c r="T3" t="n">
         <v>12109</v>
@@ -3203,14 +3203,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45683.99049768518</v>
+        <v>45684.39942129629</v>
       </c>
       <c r="G4" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>43009</v>
+        <v>10009</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -3246,32 +3246,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N4" t="n">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="O4" t="n">
-        <v>2349</v>
+        <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="Q4" t="n">
-        <v>2349</v>
+        <v>30</v>
       </c>
       <c r="R4" t="n">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="S4" t="n">
-        <v>2349</v>
+        <v>31</v>
       </c>
       <c r="T4" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3282,26 +3282,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>22009</v>
+        <v>44989</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boon Lay Int</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45683.99180555555</v>
+        <v>45684.40603009259</v>
       </c>
       <c r="G5" t="n">
-        <v>22009</v>
+        <v>44989</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3317,40 +3317,40 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N5" t="n">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>2347</v>
       </c>
       <c r="P5" t="n">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>2345</v>
       </c>
       <c r="R5" t="n">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>2350</v>
       </c>
       <c r="T5" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3361,26 +3361,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45683.98107638889</v>
+        <v>45684.399375</v>
       </c>
       <c r="G6" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3396,40 +3396,40 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N6" t="n">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="O6" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="P6" t="n">
-        <v>652</v>
+        <v>559</v>
       </c>
       <c r="Q6" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="R6" t="n">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="S6" t="n">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="T6" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3440,26 +3440,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45683.9890625</v>
+        <v>45684.39452546297</v>
       </c>
       <c r="G7" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3475,40 +3475,40 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11379</v>
+        <v>43009</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N7" t="n">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="O7" t="n">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="P7" t="n">
-        <v>623</v>
+        <v>538</v>
       </c>
       <c r="Q7" t="n">
-        <v>2340</v>
+        <v>2349</v>
       </c>
       <c r="R7" t="n">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="S7" t="n">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="T7" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3519,14 +3519,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
-        <v>28009</v>
+        <v>82009</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45683.98107638889</v>
+        <v>45684.39274305556</v>
       </c>
       <c r="G8" t="n">
-        <v>28009</v>
+        <v>82009</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3547,14 +3547,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>53009</v>
+        <v>22009</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -3562,32 +3562,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N8" t="n">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="P8" t="n">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="Q8" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="R8" t="n">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="S8" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="T8" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3598,14 +3598,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C9" t="n">
-        <v>16009</v>
+        <v>22009</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kent Ridge Ter</t>
+          <t>Boon Lay Int</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3614,10 +3614,10 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45683.99387731482</v>
+        <v>45684.3990162037</v>
       </c>
       <c r="G9" t="n">
-        <v>16009</v>
+        <v>22009</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -3644,27 +3644,501 @@
         <v>12109</v>
       </c>
       <c r="N9" t="n">
-        <v>635</v>
+        <v>546</v>
       </c>
       <c r="O9" t="n">
-        <v>2347</v>
+        <v>16</v>
       </c>
       <c r="P9" t="n">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="Q9" t="n">
-        <v>2351</v>
+        <v>15</v>
       </c>
       <c r="R9" t="n">
-        <v>639</v>
+        <v>547</v>
       </c>
       <c r="S9" t="n">
-        <v>2354</v>
+        <v>15</v>
       </c>
       <c r="T9" t="n">
         <v>12109</v>
       </c>
       <c r="U9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45684.40625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="n">
+        <v>645</v>
+      </c>
+      <c r="O10" t="n">
+        <v>108</v>
+      </c>
+      <c r="P10" t="n">
+        <v>652</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>110</v>
+      </c>
+      <c r="R10" t="n">
+        <v>642</v>
+      </c>
+      <c r="S10" t="n">
+        <v>109</v>
+      </c>
+      <c r="T10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45684.39164351852</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="n">
+        <v>602</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="P11" t="n">
+        <v>623</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="R11" t="n">
+        <v>549</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>151</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45684.40273148148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="n">
+        <v>642</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="P12" t="n">
+        <v>642</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2315</v>
+      </c>
+      <c r="R12" t="n">
+        <v>611</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="T12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45684.39863425926</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="n">
+        <v>623</v>
+      </c>
+      <c r="O13" t="n">
+        <v>23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>21</v>
+      </c>
+      <c r="R13" t="n">
+        <v>627</v>
+      </c>
+      <c r="S13" t="n">
+        <v>22</v>
+      </c>
+      <c r="T13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45684.38590277778</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="n">
+        <v>635</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2347</v>
+      </c>
+      <c r="P14" t="n">
+        <v>634</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2351</v>
+      </c>
+      <c r="R14" t="n">
+        <v>639</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2354</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45684.3955324074</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" t="n">
+        <v>548</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2350</v>
+      </c>
+      <c r="P15" t="n">
+        <v>546</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2350</v>
+      </c>
+      <c r="R15" t="n">
+        <v>552</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2351</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.38576388889</v>
+        <v>45684.39715277778</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -620,7 +620,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.38296296296</v>
+        <v>45684.39863425926</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.3840625</v>
+        <v>45684.39075231482</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.390625</v>
+        <v>45684.39130787037</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.38430555556</v>
+        <v>45684.39362268519</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.38376157408</v>
+        <v>45684.39303240741</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.38396990741</v>
+        <v>45684.39328703703</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.38815972222</v>
+        <v>45684.39333333333</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.38703703704</v>
+        <v>45684.39392361111</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.38572916666</v>
+        <v>45684.39194444445</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.38391203704</v>
+        <v>45684.39387731482</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.38292824074</v>
+        <v>45684.39438657407</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.3856712963</v>
+        <v>45684.39318287037</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -1557,18 +1557,18 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>64009</v>
+        <v>41011</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45684.38269675926</v>
+        <v>45684.39292824074</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.39681712963</v>
+        <v>45684.40355324074</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.39141203704</v>
+        <v>45684.40421296296</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.3915625</v>
+        <v>45684.39903935185</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.39751157408</v>
+        <v>45684.39681712963</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.39380787037</v>
+        <v>45684.39819444445</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.39166666667</v>
+        <v>45684.40039351852</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.38679398148</v>
+        <v>45684.3962962963</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.39206018519</v>
+        <v>45684.39949074074</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.39449074074</v>
+        <v>45684.40387731481</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.39015046296</v>
+        <v>45684.39221064815</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.39284722223</v>
+        <v>45684.40273148148</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>16009</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.38995370371</v>
+        <v>45684.40793981482</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.38582175926</v>
+        <v>45684.3934375</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45684.39032407408</v>
+        <v>45684.40432870371</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.40243055556</v>
+        <v>45684.41082175926</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.39763888889</v>
+        <v>45684.40878472223</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.39942129629</v>
+        <v>45684.4047337963</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.40603009259</v>
+        <v>45684.40400462963</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.399375</v>
+        <v>45684.40660879629</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.39452546297</v>
+        <v>45684.40424768518</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.39274305556</v>
+        <v>45684.39987268519</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.3990162037</v>
+        <v>45684.40621527778</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.40625</v>
+        <v>45684.41209490741</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.39164351852</v>
+        <v>45684.39475694444</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.40273148148</v>
+        <v>45684.41314814815</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.39863425926</v>
+        <v>45684.41668981482</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.38590277778</v>
+        <v>45684.39988425926</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45684.3955324074</v>
+        <v>45684.41159722222</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>44989</v>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.39715277778</v>
+        <v>45684.47931712963</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.39863425926</v>
+        <v>45684.48091435185</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.39075231482</v>
+        <v>45684.48255787037</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.39130787037</v>
+        <v>45684.4858912037</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.39362268519</v>
+        <v>45684.48063657407</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.39303240741</v>
+        <v>45684.48263888889</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.39328703703</v>
+        <v>45684.48466435185</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.39333333333</v>
+        <v>45684.48015046296</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.39392361111</v>
+        <v>45684.48305555555</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.39194444445</v>
+        <v>45684.48041666667</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.39387731482</v>
+        <v>45684.481875</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.39438657407</v>
+        <v>45684.47857638889</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.39318287037</v>
+        <v>45684.48174768518</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -1564,11 +1564,11 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>41011</v>
+        <v>64009</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45684.39292824074</v>
+        <v>45684.48219907407</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.40355324074</v>
+        <v>45684.4896875</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.40421296296</v>
+        <v>45684.48743055556</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.39903935185</v>
+        <v>45684.49230324074</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.39681712963</v>
+        <v>45684.48950231481</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.39819444445</v>
+        <v>45684.48627314815</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.40039351852</v>
+        <v>45684.49072916667</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.3962962963</v>
+        <v>45684.49001157407</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.39949074074</v>
+        <v>45684.48607638889</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.40387731481</v>
+        <v>45684.48752314815</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.39221064815</v>
+        <v>45684.49145833333</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.40273148148</v>
+        <v>45684.49046296296</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.40793981482</v>
+        <v>45684.49385416666</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.3934375</v>
+        <v>45684.49023148148</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45684.40432870371</v>
+        <v>45684.48811342593</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.41082175926</v>
+        <v>45684.4943287037</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.40878472223</v>
+        <v>45684.49075231481</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.4047337963</v>
+        <v>45684.49751157407</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.40400462963</v>
+        <v>45684.49659722222</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.40660879629</v>
+        <v>45684.490625</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.40424768518</v>
+        <v>45684.49383101852</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.39987268519</v>
+        <v>45684.49275462963</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.40621527778</v>
+        <v>45684.49032407408</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.41209490741</v>
+        <v>45684.49840277778</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.39475694444</v>
+        <v>45684.49473379629</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -3788,14 +3788,14 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>11379</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.41314814815</v>
+        <v>45684.49717592593</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.41668981482</v>
+        <v>45684.50087962963</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.39988425926</v>
+        <v>45684.49947916667</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45684.41159722222</v>
+        <v>45684.49621527778</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>44989</v>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,45 +530,40 @@
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>Right_BusStopCode</t>
+          <t>SAT_FirstBus</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>SAT_FirstBus</t>
+          <t>SAT_LastBus</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>SAT_LastBus</t>
+          <t>SUN_FirstBus</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>SUN_FirstBus</t>
+          <t>SUN_LastBus</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>SUN_LastBus</t>
+          <t>WD_FirstBus</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>WD_FirstBus</t>
+          <t>WD_LastBus</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>WD_LastBus</t>
+          <t>Right_Right_BusStopCode</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>Right_Right_BusStopCode</t>
-        </is>
-      </c>
-      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bus Stop Description</t>
         </is>
@@ -597,7 +592,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.47931712963</v>
+        <v>45684.97577546296</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -609,7 +604,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -620,34 +615,31 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M2" t="n">
+        <v>612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>613</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>619</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="n">
-        <v>612</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>619</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -676,7 +668,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.48091435185</v>
+        <v>45684.98092592593</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -703,30 +695,27 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>622</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2331</v>
+      </c>
+      <c r="O3" t="n">
+        <v>621</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2331</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>602</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2327</v>
+      </c>
+      <c r="S3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="n">
-        <v>622</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2331</v>
-      </c>
-      <c r="P3" t="n">
-        <v>621</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2331</v>
-      </c>
-      <c r="R3" t="n">
-        <v>602</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2327</v>
-      </c>
-      <c r="T3" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -755,7 +744,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.48255787037</v>
+        <v>45684.97905092593</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -782,30 +771,27 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>640</v>
+      </c>
+      <c r="N4" t="n">
+        <v>32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>704</v>
+      </c>
+      <c r="P4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>633</v>
+      </c>
+      <c r="R4" t="n">
+        <v>31</v>
+      </c>
+      <c r="S4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="n">
-        <v>640</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>704</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>30</v>
-      </c>
-      <c r="R4" t="n">
-        <v>633</v>
-      </c>
-      <c r="S4" t="n">
-        <v>31</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -834,7 +820,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.4858912037</v>
+        <v>45684.9722337963</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -857,34 +843,31 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M5" t="n">
+        <v>638</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2347</v>
+      </c>
+      <c r="O5" t="n">
+        <v>634</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2345</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>612</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2350</v>
+      </c>
+      <c r="S5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="n">
-        <v>638</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2347</v>
-      </c>
-      <c r="P5" t="n">
-        <v>634</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2345</v>
-      </c>
-      <c r="R5" t="n">
-        <v>612</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2350</v>
-      </c>
-      <c r="T5" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -913,7 +896,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.48063657407</v>
+        <v>45684.97383101852</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -936,34 +919,31 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" t="n">
+        <v>605</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O6" t="n">
+        <v>559</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>609</v>
+      </c>
+      <c r="R6" t="n">
+        <v>27</v>
+      </c>
+      <c r="S6" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="n">
-        <v>605</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30</v>
-      </c>
-      <c r="P6" t="n">
-        <v>559</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>609</v>
-      </c>
-      <c r="S6" t="n">
-        <v>27</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -992,7 +972,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.48263888889</v>
+        <v>45684.98118055556</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -1004,7 +984,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -1019,30 +999,27 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>538</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2349</v>
+      </c>
+      <c r="O7" t="n">
+        <v>538</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2349</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>538</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2349</v>
+      </c>
+      <c r="S7" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="n">
-        <v>538</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2349</v>
-      </c>
-      <c r="P7" t="n">
-        <v>538</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2349</v>
-      </c>
-      <c r="R7" t="n">
-        <v>538</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2349</v>
-      </c>
-      <c r="T7" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1071,7 +1048,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.48466435185</v>
+        <v>45684.97813657407</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -1083,7 +1060,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1098,30 +1075,27 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>601</v>
+      </c>
+      <c r="N8" t="n">
+        <v>57</v>
+      </c>
+      <c r="O8" t="n">
+        <v>637</v>
+      </c>
+      <c r="P8" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>604</v>
+      </c>
+      <c r="R8" t="n">
+        <v>53</v>
+      </c>
+      <c r="S8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="n">
-        <v>601</v>
-      </c>
-      <c r="O8" t="n">
-        <v>57</v>
-      </c>
-      <c r="P8" t="n">
-        <v>637</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>55</v>
-      </c>
-      <c r="R8" t="n">
-        <v>604</v>
-      </c>
-      <c r="S8" t="n">
-        <v>53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1150,7 +1124,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.48015046296</v>
+        <v>45684.97627314815</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -1162,7 +1136,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1173,34 +1147,31 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" t="n">
+        <v>546</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O9" t="n">
+        <v>616</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>547</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15</v>
+      </c>
+      <c r="S9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="n">
-        <v>546</v>
-      </c>
-      <c r="O9" t="n">
-        <v>16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>616</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>547</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1229,7 +1200,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.48305555555</v>
+        <v>45684.9716550926</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -1256,30 +1227,27 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>645</v>
+      </c>
+      <c r="N10" t="n">
+        <v>108</v>
+      </c>
+      <c r="O10" t="n">
+        <v>652</v>
+      </c>
+      <c r="P10" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>642</v>
+      </c>
+      <c r="R10" t="n">
+        <v>109</v>
+      </c>
+      <c r="S10" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="n">
-        <v>645</v>
-      </c>
-      <c r="O10" t="n">
-        <v>108</v>
-      </c>
-      <c r="P10" t="n">
-        <v>652</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>110</v>
-      </c>
-      <c r="R10" t="n">
-        <v>642</v>
-      </c>
-      <c r="S10" t="n">
-        <v>109</v>
-      </c>
-      <c r="T10" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1308,7 +1276,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.48041666667</v>
+        <v>45684.97909722223</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -1335,30 +1303,27 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>602</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="O11" t="n">
+        <v>623</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>549</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="S11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="n">
-        <v>602</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2343</v>
-      </c>
-      <c r="P11" t="n">
-        <v>623</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2340</v>
-      </c>
-      <c r="R11" t="n">
-        <v>549</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2343</v>
-      </c>
-      <c r="T11" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1371,14 +1336,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
-        <v>64009</v>
+        <v>28009</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1387,10 +1352,10 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.481875</v>
+        <v>45684.97390046297</v>
       </c>
       <c r="G12" t="n">
-        <v>64009</v>
+        <v>28009</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1406,40 +1371,37 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>16009</v>
+        <v>53009</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12101</v>
+        <v>623</v>
       </c>
       <c r="N12" t="n">
-        <v>642</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>2317</v>
+        <v>625</v>
       </c>
       <c r="P12" t="n">
-        <v>642</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="n">
-        <v>2315</v>
+        <v>627</v>
       </c>
       <c r="R12" t="n">
-        <v>611</v>
+        <v>22</v>
       </c>
       <c r="S12" t="n">
-        <v>2317</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1412,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n">
-        <v>28009</v>
+        <v>16009</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Kent Ridge Ter</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1466,10 +1428,10 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.47857638889</v>
+        <v>45684.9768287037</v>
       </c>
       <c r="G13" t="n">
-        <v>28009</v>
+        <v>16009</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1485,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>53009</v>
+        <v>64009</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1493,30 +1455,27 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>635</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2347</v>
+      </c>
+      <c r="O13" t="n">
+        <v>634</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2351</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>639</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2354</v>
+      </c>
+      <c r="S13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="n">
-        <v>623</v>
-      </c>
-      <c r="O13" t="n">
-        <v>23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>625</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>21</v>
-      </c>
-      <c r="R13" t="n">
-        <v>627</v>
-      </c>
-      <c r="S13" t="n">
-        <v>22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1529,26 +1488,26 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>16009</v>
+        <v>10009</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kent Ridge Ter</t>
+          <t>Bt Merah Int</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.48174768518</v>
+        <v>45684.97788194445</v>
       </c>
       <c r="G14" t="n">
-        <v>16009</v>
+        <v>10009</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1564,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>64009</v>
+        <v>44989</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1572,109 +1531,27 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>548</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2350</v>
+      </c>
+      <c r="O14" t="n">
+        <v>546</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2350</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>552</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2351</v>
+      </c>
+      <c r="S14" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="n">
-        <v>635</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2347</v>
-      </c>
-      <c r="P14" t="n">
-        <v>634</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2351</v>
-      </c>
-      <c r="R14" t="n">
-        <v>639</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2354</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45684.48219907407</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" t="n">
-        <v>548</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2350</v>
-      </c>
-      <c r="P15" t="n">
-        <v>546</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2350</v>
-      </c>
-      <c r="R15" t="n">
-        <v>552</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2351</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1691,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1762,45 +1639,40 @@
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>Right_BusStopCode</t>
+          <t>SAT_FirstBus</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>SAT_FirstBus</t>
+          <t>SAT_LastBus</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>SAT_LastBus</t>
+          <t>SUN_FirstBus</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>SUN_FirstBus</t>
+          <t>SUN_LastBus</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>SUN_LastBus</t>
+          <t>WD_FirstBus</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>WD_FirstBus</t>
+          <t>WD_LastBus</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>WD_LastBus</t>
+          <t>Right_Right_BusStopCode</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>Right_Right_BusStopCode</t>
-        </is>
-      </c>
-      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bus Stop Description</t>
         </is>
@@ -1829,7 +1701,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.4896875</v>
+        <v>45684.98706018519</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -1852,34 +1724,31 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" t="n">
+        <v>612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>613</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>619</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="n">
-        <v>612</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>619</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1892,7 +1761,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
         <v>44989</v>
@@ -1908,7 +1777,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.48743055556</v>
+        <v>45684.98871527778</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1927,40 +1796,37 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>44989</v>
+        <v>10009</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12109</v>
+        <v>640</v>
       </c>
       <c r="N3" t="n">
-        <v>622</v>
+        <v>32</v>
       </c>
       <c r="O3" t="n">
-        <v>2331</v>
+        <v>704</v>
       </c>
       <c r="P3" t="n">
-        <v>621</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="n">
-        <v>2331</v>
+        <v>633</v>
       </c>
       <c r="R3" t="n">
-        <v>602</v>
+        <v>31</v>
       </c>
       <c r="S3" t="n">
-        <v>2327</v>
-      </c>
-      <c r="T3" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
+        <v>12101</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1837,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
         <v>44989</v>
@@ -1987,7 +1853,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.49230324074</v>
+        <v>45684.9808449074</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2006,38 +1872,35 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>10009</v>
+        <v>44989</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M4" t="n">
+        <v>638</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2347</v>
+      </c>
+      <c r="O4" t="n">
+        <v>634</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2345</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>612</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2350</v>
+      </c>
+      <c r="S4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="n">
-        <v>640</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>704</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>30</v>
-      </c>
-      <c r="R4" t="n">
-        <v>633</v>
-      </c>
-      <c r="S4" t="n">
-        <v>31</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2050,26 +1913,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.48950231481</v>
+        <v>45684.98059027778</v>
       </c>
       <c r="G5" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2085,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>44989</v>
+        <v>64009</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -2093,32 +1956,29 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>12101</v>
+        <v>605</v>
       </c>
       <c r="N5" t="n">
-        <v>638</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>2347</v>
+        <v>559</v>
       </c>
       <c r="P5" t="n">
-        <v>634</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2345</v>
+        <v>609</v>
       </c>
       <c r="R5" t="n">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
-        <v>2350</v>
-      </c>
-      <c r="T5" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2129,26 +1989,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>11379</v>
+        <v>82009</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buona Vista Ter</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.48627314815</v>
+        <v>45684.9889699074</v>
       </c>
       <c r="G6" t="n">
-        <v>11379</v>
+        <v>82009</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2161,41 +2021,38 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" t="n">
+        <v>538</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2349</v>
+      </c>
+      <c r="O6" t="n">
+        <v>538</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2349</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>538</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2349</v>
+      </c>
+      <c r="S6" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="n">
-        <v>605</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30</v>
-      </c>
-      <c r="P6" t="n">
-        <v>559</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>609</v>
-      </c>
-      <c r="S6" t="n">
-        <v>27</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2208,7 +2065,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="C7" t="n">
         <v>82009</v>
@@ -2220,11 +2077,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.49072916667</v>
+        <v>45684.98041666667</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2243,40 +2100,37 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>43009</v>
+        <v>22009</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>12109</v>
+        <v>601</v>
       </c>
       <c r="N7" t="n">
-        <v>538</v>
+        <v>57</v>
       </c>
       <c r="O7" t="n">
-        <v>2349</v>
+        <v>637</v>
       </c>
       <c r="P7" t="n">
-        <v>538</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2349</v>
+        <v>604</v>
       </c>
       <c r="R7" t="n">
-        <v>538</v>
+        <v>53</v>
       </c>
       <c r="S7" t="n">
-        <v>2349</v>
-      </c>
-      <c r="T7" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
+        <v>12101</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2290,11 +2144,11 @@
         <v>154</v>
       </c>
       <c r="C8" t="n">
-        <v>82009</v>
+        <v>22009</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Boon Lay Int</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2303,10 +2157,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.49001157407</v>
+        <v>45684.98450231482</v>
       </c>
       <c r="G8" t="n">
-        <v>82009</v>
+        <v>22009</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2322,40 +2176,37 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>22009</v>
+        <v>82009</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>12101</v>
+        <v>546</v>
       </c>
       <c r="N8" t="n">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="O8" t="n">
-        <v>57</v>
+        <v>616</v>
       </c>
       <c r="P8" t="n">
-        <v>637</v>
+        <v>15</v>
       </c>
       <c r="Q8" t="n">
-        <v>55</v>
+        <v>547</v>
       </c>
       <c r="R8" t="n">
-        <v>604</v>
+        <v>15</v>
       </c>
       <c r="S8" t="n">
-        <v>53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2366,26 +2217,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boon Lay Int</t>
+          <t>Bt Batok Int</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.48607638889</v>
+        <v>45684.98008101852</v>
       </c>
       <c r="G9" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2405,36 +2256,33 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>12109</v>
+        <v>645</v>
       </c>
       <c r="N9" t="n">
-        <v>546</v>
+        <v>108</v>
       </c>
       <c r="O9" t="n">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="P9" t="n">
-        <v>616</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>642</v>
       </c>
       <c r="R9" t="n">
-        <v>547</v>
+        <v>109</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
+        <v>12101</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2445,26 +2293,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Hougang Ctrl Int</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.48752314815</v>
+        <v>45684.98778935185</v>
       </c>
       <c r="G10" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2477,41 +2325,38 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>82009</v>
+        <v>11379</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M10" t="n">
+        <v>602</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2343</v>
+      </c>
+      <c r="O10" t="n">
+        <v>623</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2340</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>549</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2343</v>
+      </c>
+      <c r="S10" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="n">
-        <v>645</v>
-      </c>
-      <c r="O10" t="n">
-        <v>108</v>
-      </c>
-      <c r="P10" t="n">
-        <v>652</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>110</v>
-      </c>
-      <c r="R10" t="n">
-        <v>642</v>
-      </c>
-      <c r="S10" t="n">
-        <v>109</v>
-      </c>
-      <c r="T10" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2524,14 +2369,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>64009</v>
+        <v>28009</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2540,10 +2385,10 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.49145833333</v>
+        <v>45684.98476851852</v>
       </c>
       <c r="G11" t="n">
-        <v>64009</v>
+        <v>28009</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2559,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>11379</v>
+        <v>53009</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -2567,32 +2412,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>12101</v>
+        <v>623</v>
       </c>
       <c r="N11" t="n">
-        <v>602</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>2343</v>
+        <v>625</v>
       </c>
       <c r="P11" t="n">
-        <v>623</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>2340</v>
+        <v>627</v>
       </c>
       <c r="R11" t="n">
-        <v>549</v>
+        <v>22</v>
       </c>
       <c r="S11" t="n">
-        <v>2343</v>
-      </c>
-      <c r="T11" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2606,72 +2448,69 @@
         <v>151</v>
       </c>
       <c r="C12" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45684.98123842593</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45684.49046296296</v>
-      </c>
-      <c r="G12" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16009</v>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12101</v>
+        <v>635</v>
       </c>
       <c r="N12" t="n">
-        <v>642</v>
+        <v>2347</v>
       </c>
       <c r="O12" t="n">
-        <v>2317</v>
+        <v>634</v>
       </c>
       <c r="P12" t="n">
-        <v>642</v>
+        <v>2351</v>
       </c>
       <c r="Q12" t="n">
-        <v>2315</v>
+        <v>639</v>
       </c>
       <c r="R12" t="n">
-        <v>611</v>
+        <v>2354</v>
       </c>
       <c r="S12" t="n">
-        <v>2317</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2682,26 +2521,26 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C13" t="n">
-        <v>28009</v>
+        <v>10009</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Bt Merah Int</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.49385416666</v>
+        <v>45684.98662037037</v>
       </c>
       <c r="G13" t="n">
-        <v>28009</v>
+        <v>10009</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2710,14 +2549,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>53009</v>
+        <v>44989</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2725,188 +2564,27 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>548</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2350</v>
+      </c>
+      <c r="O13" t="n">
+        <v>546</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2350</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>552</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2351</v>
+      </c>
+      <c r="S13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="n">
-        <v>623</v>
-      </c>
-      <c r="O13" t="n">
-        <v>23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>625</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>21</v>
-      </c>
-      <c r="R13" t="n">
-        <v>627</v>
-      </c>
-      <c r="S13" t="n">
-        <v>22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45684.49023148148</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" t="n">
-        <v>635</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2347</v>
-      </c>
-      <c r="P14" t="n">
-        <v>634</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2351</v>
-      </c>
-      <c r="R14" t="n">
-        <v>639</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2354</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45684.48811342593</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" t="n">
-        <v>548</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2350</v>
-      </c>
-      <c r="P15" t="n">
-        <v>546</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2350</v>
-      </c>
-      <c r="R15" t="n">
-        <v>552</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2351</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -2601,7 +2601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2672,45 +2672,40 @@
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>Right_BusStopCode</t>
+          <t>SAT_FirstBus</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>SAT_FirstBus</t>
+          <t>SAT_LastBus</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>SAT_LastBus</t>
+          <t>SUN_FirstBus</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>SUN_FirstBus</t>
+          <t>SUN_LastBus</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>SUN_LastBus</t>
+          <t>WD_FirstBus</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>WD_FirstBus</t>
+          <t>WD_LastBus</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>WD_LastBus</t>
+          <t>Right_Right_BusStopCode</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>Right_Right_BusStopCode</t>
-        </is>
-      </c>
-      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bus Stop Description</t>
         </is>
@@ -2739,7 +2734,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.4943287037</v>
+        <v>45685.00008101852</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2755,7 +2750,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>28009</v>
@@ -2766,30 +2761,27 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>613</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>619</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="n">
-        <v>612</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>619</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2818,7 +2810,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.49075231481</v>
+        <v>45684.99182870371</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2841,36 +2833,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12109</v>
+        <v>638</v>
       </c>
       <c r="N3" t="n">
-        <v>622</v>
+        <v>2347</v>
       </c>
       <c r="O3" t="n">
-        <v>2331</v>
+        <v>634</v>
       </c>
       <c r="P3" t="n">
-        <v>621</v>
+        <v>2345</v>
       </c>
       <c r="Q3" t="n">
-        <v>2331</v>
+        <v>612</v>
       </c>
       <c r="R3" t="n">
-        <v>602</v>
+        <v>2350</v>
       </c>
       <c r="S3" t="n">
-        <v>2327</v>
-      </c>
-      <c r="T3" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
+        <v>12101</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2881,26 +2870,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.49751157407</v>
+        <v>45684.98525462963</v>
       </c>
       <c r="G4" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2916,40 +2905,37 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>10009</v>
+        <v>64009</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12101</v>
+        <v>605</v>
       </c>
       <c r="N4" t="n">
-        <v>640</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>32</v>
+        <v>559</v>
       </c>
       <c r="P4" t="n">
-        <v>704</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>609</v>
       </c>
       <c r="R4" t="n">
-        <v>633</v>
+        <v>27</v>
       </c>
       <c r="S4" t="n">
-        <v>31</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -2960,26 +2946,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.49659722222</v>
+        <v>45684.98541666667</v>
       </c>
       <c r="G5" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2995,38 +2981,35 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>44989</v>
+        <v>22009</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" t="n">
+        <v>601</v>
+      </c>
+      <c r="N5" t="n">
+        <v>57</v>
+      </c>
+      <c r="O5" t="n">
+        <v>637</v>
+      </c>
+      <c r="P5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>604</v>
+      </c>
+      <c r="R5" t="n">
+        <v>53</v>
+      </c>
+      <c r="S5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="n">
-        <v>638</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2347</v>
-      </c>
-      <c r="P5" t="n">
-        <v>634</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2345</v>
-      </c>
-      <c r="R5" t="n">
-        <v>612</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2350</v>
-      </c>
-      <c r="T5" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -3039,14 +3022,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buona Vista Ter</t>
+          <t>Boon Lay Int</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3055,10 +3038,10 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.490625</v>
+        <v>45684.99453703704</v>
       </c>
       <c r="G6" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3074,38 +3057,35 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" t="n">
+        <v>546</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>616</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>547</v>
+      </c>
+      <c r="R6" t="n">
+        <v>15</v>
+      </c>
+      <c r="S6" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="n">
-        <v>605</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30</v>
-      </c>
-      <c r="P6" t="n">
-        <v>559</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>609</v>
-      </c>
-      <c r="S6" t="n">
-        <v>27</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -3121,72 +3101,69 @@
         <v>61</v>
       </c>
       <c r="C7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45684.98640046296</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45684.49383101852</v>
-      </c>
-      <c r="G7" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>43009</v>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>12109</v>
+        <v>645</v>
       </c>
       <c r="N7" t="n">
-        <v>538</v>
+        <v>108</v>
       </c>
       <c r="O7" t="n">
-        <v>2349</v>
+        <v>652</v>
       </c>
       <c r="P7" t="n">
-        <v>538</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="n">
-        <v>2349</v>
+        <v>642</v>
       </c>
       <c r="R7" t="n">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="S7" t="n">
-        <v>2349</v>
-      </c>
-      <c r="T7" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
+        <v>12101</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3197,14 +3174,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
-        <v>82009</v>
+        <v>28009</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3213,10 +3190,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.49275462963</v>
+        <v>45684.99422453704</v>
       </c>
       <c r="G8" t="n">
-        <v>82009</v>
+        <v>28009</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3232,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>22009</v>
+        <v>53009</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -3240,32 +3217,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>12101</v>
+        <v>623</v>
       </c>
       <c r="N8" t="n">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="O8" t="n">
-        <v>57</v>
+        <v>625</v>
       </c>
       <c r="P8" t="n">
-        <v>637</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>55</v>
+        <v>627</v>
       </c>
       <c r="R8" t="n">
-        <v>604</v>
+        <v>22</v>
       </c>
       <c r="S8" t="n">
-        <v>53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
+        <v>12109</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
     </row>
@@ -3276,14 +3250,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
-        <v>22009</v>
+        <v>16009</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boon Lay Int</t>
+          <t>Kent Ridge Ter</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3292,10 +3266,10 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.49032407408</v>
+        <v>45684.99447916666</v>
       </c>
       <c r="G9" t="n">
-        <v>22009</v>
+        <v>16009</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3311,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -3319,30 +3293,27 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>635</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2347</v>
+      </c>
+      <c r="O9" t="n">
+        <v>634</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2351</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>639</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2354</v>
+      </c>
+      <c r="S9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="n">
-        <v>546</v>
-      </c>
-      <c r="O9" t="n">
-        <v>16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>616</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>547</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -3355,14 +3326,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
-        <v>43009</v>
+        <v>10009</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Bt Merah Int</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3371,10 +3342,10 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.49840277778</v>
+        <v>45684.99631944444</v>
       </c>
       <c r="G10" t="n">
-        <v>43009</v>
+        <v>10009</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3387,10 +3358,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -3398,425 +3369,27 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>12101</v>
+        <v>548</v>
       </c>
       <c r="N10" t="n">
-        <v>645</v>
+        <v>2350</v>
       </c>
       <c r="O10" t="n">
-        <v>108</v>
+        <v>546</v>
       </c>
       <c r="P10" t="n">
-        <v>652</v>
+        <v>2350</v>
       </c>
       <c r="Q10" t="n">
-        <v>110</v>
+        <v>552</v>
       </c>
       <c r="R10" t="n">
-        <v>642</v>
+        <v>2351</v>
       </c>
       <c r="S10" t="n">
-        <v>109</v>
-      </c>
-      <c r="T10" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>74</v>
-      </c>
-      <c r="C11" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45684.49473379629</v>
-      </c>
-      <c r="G11" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" t="n">
-        <v>602</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2343</v>
-      </c>
-      <c r="P11" t="n">
-        <v>623</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2340</v>
-      </c>
-      <c r="R11" t="n">
-        <v>549</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2343</v>
-      </c>
-      <c r="T11" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>151</v>
-      </c>
-      <c r="C12" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45684.49717592593</v>
-      </c>
-      <c r="G12" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" t="n">
-        <v>642</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2317</v>
-      </c>
-      <c r="P12" t="n">
-        <v>642</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2315</v>
-      </c>
-      <c r="R12" t="n">
-        <v>611</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2317</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12101</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45684.50087962963</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="n">
-        <v>623</v>
-      </c>
-      <c r="O13" t="n">
-        <v>23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>625</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>21</v>
-      </c>
-      <c r="R13" t="n">
-        <v>627</v>
-      </c>
-      <c r="S13" t="n">
-        <v>22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45684.49947916667</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" t="n">
-        <v>635</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2347</v>
-      </c>
-      <c r="P14" t="n">
-        <v>634</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2351</v>
-      </c>
-      <c r="R14" t="n">
-        <v>639</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2354</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45684.49621527778</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" t="n">
-        <v>548</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2350</v>
-      </c>
-      <c r="P15" t="n">
-        <v>546</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2350</v>
-      </c>
-      <c r="R15" t="n">
-        <v>552</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2351</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12109</v>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,11 +560,6 @@
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Right_Right_BusStopCode</t>
-        </is>
-      </c>
-      <c r="T1" s="3" t="inlineStr">
-        <is>
           <t>Bus Stop Description</t>
         </is>
       </c>
@@ -592,7 +587,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.97577546296</v>
+        <v>45684.97600694445</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -636,10 +631,7 @@
       <c r="R2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -668,7 +660,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.98092592593</v>
+        <v>45684.9807175926</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -712,10 +704,7 @@
       <c r="R3" t="n">
         <v>2327</v>
       </c>
-      <c r="S3" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -744,7 +733,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.97905092593</v>
+        <v>45684.97912037037</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -788,10 +777,7 @@
       <c r="R4" t="n">
         <v>31</v>
       </c>
-      <c r="S4" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -820,7 +806,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.9722337963</v>
+        <v>45684.97212962963</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -864,10 +850,7 @@
       <c r="R5" t="n">
         <v>2350</v>
       </c>
-      <c r="S5" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -896,7 +879,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.97383101852</v>
+        <v>45684.97432870371</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -940,10 +923,7 @@
       <c r="R6" t="n">
         <v>27</v>
       </c>
-      <c r="S6" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -972,7 +952,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.98118055556</v>
+        <v>45684.98070601852</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -1016,10 +996,7 @@
       <c r="R7" t="n">
         <v>2349</v>
       </c>
-      <c r="S7" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1048,7 +1025,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.97813657407</v>
+        <v>45684.97855324074</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -1092,10 +1069,7 @@
       <c r="R8" t="n">
         <v>53</v>
       </c>
-      <c r="S8" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1124,7 +1098,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.97627314815</v>
+        <v>45684.97578703704</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -1168,10 +1142,7 @@
       <c r="R9" t="n">
         <v>15</v>
       </c>
-      <c r="S9" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1200,7 +1171,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.9716550926</v>
+        <v>45684.9794675926</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -1244,10 +1215,7 @@
       <c r="R10" t="n">
         <v>109</v>
       </c>
-      <c r="S10" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1276,7 +1244,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.97909722223</v>
+        <v>45684.97868055556</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -1320,10 +1288,7 @@
       <c r="R11" t="n">
         <v>2343</v>
       </c>
-      <c r="S11" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1396,10 +1361,7 @@
       <c r="R12" t="n">
         <v>22</v>
       </c>
-      <c r="S12" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1428,7 +1390,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.9768287037</v>
+        <v>45684.97733796296</v>
       </c>
       <c r="G13" t="n">
         <v>16009</v>
@@ -1472,10 +1434,7 @@
       <c r="R13" t="n">
         <v>2354</v>
       </c>
-      <c r="S13" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1504,7 +1463,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45684.97788194445</v>
+        <v>45684.97723379629</v>
       </c>
       <c r="G14" t="n">
         <v>10009</v>
@@ -1548,10 +1507,7 @@
       <c r="R14" t="n">
         <v>2351</v>
       </c>
-      <c r="S14" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -1568,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,11 +1625,6 @@
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Right_Right_BusStopCode</t>
-        </is>
-      </c>
-      <c r="T1" s="3" t="inlineStr">
-        <is>
           <t>Bus Stop Description</t>
         </is>
       </c>
@@ -1701,7 +1652,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.98706018519</v>
+        <v>45684.98638888889</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -1745,10 +1696,7 @@
       <c r="R2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1777,7 +1725,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.98871527778</v>
+        <v>45684.9887962963</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1821,10 +1769,7 @@
       <c r="R3" t="n">
         <v>31</v>
       </c>
-      <c r="S3" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1853,7 +1798,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.9808449074</v>
+        <v>45684.98086805556</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -1897,10 +1842,7 @@
       <c r="R4" t="n">
         <v>2350</v>
       </c>
-      <c r="S4" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -1929,7 +1871,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.98059027778</v>
+        <v>45684.98016203703</v>
       </c>
       <c r="G5" t="n">
         <v>11379</v>
@@ -1973,10 +1915,7 @@
       <c r="R5" t="n">
         <v>27</v>
       </c>
-      <c r="S5" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2049,10 +1988,7 @@
       <c r="R6" t="n">
         <v>2349</v>
       </c>
-      <c r="S6" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2081,7 +2017,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.98041666667</v>
+        <v>45684.98082175926</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2125,10 +2061,7 @@
       <c r="R7" t="n">
         <v>53</v>
       </c>
-      <c r="S7" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2157,7 +2090,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.98450231482</v>
+        <v>45684.98466435185</v>
       </c>
       <c r="G8" t="n">
         <v>22009</v>
@@ -2201,10 +2134,7 @@
       <c r="R8" t="n">
         <v>15</v>
       </c>
-      <c r="S8" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2233,7 +2163,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.98008101852</v>
+        <v>45684.98666666666</v>
       </c>
       <c r="G9" t="n">
         <v>43009</v>
@@ -2256,7 +2186,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -2277,10 +2207,7 @@
       <c r="R9" t="n">
         <v>109</v>
       </c>
-      <c r="S9" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2353,10 +2280,7 @@
       <c r="R10" t="n">
         <v>2343</v>
       </c>
-      <c r="S10" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2385,7 +2309,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.98476851852</v>
+        <v>45684.98451388889</v>
       </c>
       <c r="G11" t="n">
         <v>28009</v>
@@ -2429,10 +2353,7 @@
       <c r="R11" t="n">
         <v>22</v>
       </c>
-      <c r="S11" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2461,7 +2382,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.98123842593</v>
+        <v>45684.98135416667</v>
       </c>
       <c r="G12" t="n">
         <v>16009</v>
@@ -2505,10 +2426,7 @@
       <c r="R12" t="n">
         <v>2354</v>
       </c>
-      <c r="S12" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2537,7 +2455,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.98662037037</v>
+        <v>45684.98634259259</v>
       </c>
       <c r="G13" t="n">
         <v>10009</v>
@@ -2581,10 +2499,7 @@
       <c r="R13" t="n">
         <v>2351</v>
       </c>
-      <c r="S13" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2601,7 +2516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2702,11 +2617,6 @@
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Right_Right_BusStopCode</t>
-        </is>
-      </c>
-      <c r="T1" s="3" t="inlineStr">
-        <is>
           <t>Bus Stop Description</t>
         </is>
       </c>
@@ -2778,10 +2688,7 @@
       <c r="R2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2810,7 +2717,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.99182870371</v>
+        <v>45684.99162037037</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2854,10 +2761,7 @@
       <c r="R3" t="n">
         <v>2350</v>
       </c>
-      <c r="S3" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -2886,7 +2790,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.98525462963</v>
+        <v>45684.98528935185</v>
       </c>
       <c r="G4" t="n">
         <v>11379</v>
@@ -2930,10 +2834,7 @@
       <c r="R4" t="n">
         <v>27</v>
       </c>
-      <c r="S4" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -2962,7 +2863,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.98541666667</v>
+        <v>45684.98553240741</v>
       </c>
       <c r="G5" t="n">
         <v>82009</v>
@@ -3006,10 +2907,7 @@
       <c r="R5" t="n">
         <v>53</v>
       </c>
-      <c r="S5" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -3038,7 +2936,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.99453703704</v>
+        <v>45684.99459490741</v>
       </c>
       <c r="G6" t="n">
         <v>22009</v>
@@ -3082,10 +2980,7 @@
       <c r="R6" t="n">
         <v>15</v>
       </c>
-      <c r="S6" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -3114,7 +3009,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.98640046296</v>
+        <v>45684.99128472222</v>
       </c>
       <c r="G7" t="n">
         <v>43009</v>
@@ -3158,10 +3053,7 @@
       <c r="R7" t="n">
         <v>109</v>
       </c>
-      <c r="S7" t="n">
-        <v>12101</v>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
@@ -3190,7 +3082,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.99422453704</v>
+        <v>45684.99364583333</v>
       </c>
       <c r="G8" t="n">
         <v>28009</v>
@@ -3234,10 +3126,7 @@
       <c r="R8" t="n">
         <v>22</v>
       </c>
-      <c r="S8" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -3266,7 +3155,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.99447916666</v>
+        <v>45684.99446759259</v>
       </c>
       <c r="G9" t="n">
         <v>16009</v>
@@ -3310,10 +3199,7 @@
       <c r="R9" t="n">
         <v>2354</v>
       </c>
-      <c r="S9" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
@@ -3386,10 +3272,7 @@
       <c r="R10" t="n">
         <v>2351</v>
       </c>
-      <c r="S10" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.98599537037</v>
+        <v>45684.985</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="U2" s="0" t="n">
-        <v>488</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>44989</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.98072916667</v>
+        <v>45684.98740740741</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -604,41 +604,41 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>44989</v>
+        <v>10009</v>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>2331</v>
+        <v>32</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>2331</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2327</v>
+        <v>31</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="T3" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U3" s="0" t="n">
-        <v>480</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.97956018519</v>
+        <v>45684.99232638889</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -683,30 +683,30 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10009</v>
+        <v>44989</v>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>32</v>
+        <v>2347</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>30</v>
+        <v>2345</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>31</v>
+        <v>2350</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>12101</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="U4" s="0" t="n">
-        <v>478</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="5">
@@ -727,26 +727,26 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.9803587963</v>
+        <v>45684.98738425926</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -762,41 +762,41 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>44989</v>
+        <v>64009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>2347</v>
+        <v>30</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>634</v>
+        <v>559</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>2345</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>2350</v>
+        <v>27</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="T5" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U5" s="0" t="n">
-        <v>480</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6">
@@ -806,26 +806,26 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>11379</v>
+        <v>82009</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Buona Vista Ter</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.98092592593</v>
+        <v>45684.99116898148</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>11379</v>
+        <v>82009</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -841,30 +841,30 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>30</v>
+        <v>2349</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>24</v>
+        <v>2349</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>609</v>
+        <v>538</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>27</v>
+        <v>2349</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>12109</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="U6" s="0" t="n">
-        <v>480</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="7">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>82009</v>
@@ -897,11 +897,11 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.98943287037</v>
+        <v>45684.9828587963</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -917,44 +917,44 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>601</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>637</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>604</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="U7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>538</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2349</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>538</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>2349</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>538</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>2349</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>493</v>
       </c>
     </row>
     <row r="8">
@@ -967,11 +967,11 @@
         <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>82009</v>
+        <v>22009</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Boon Lay Int</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.98023148148</v>
+        <v>45684.9855787037</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>82009</v>
+        <v>22009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -999,41 +999,41 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>22009</v>
+        <v>82009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U8" s="0" t="n">
-        <v>479</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -1043,26 +1043,26 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Boon Lay Int</t>
+          <t>Bt Batok Int</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.98541666667</v>
+        <v>45684.9874537037</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -1086,33 +1086,33 @@
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>547</v>
+        <v>642</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U9" s="0" t="n">
-        <v>487</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10">
@@ -1122,26 +1122,26 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Hougang Ctrl Int</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.98826388889</v>
+        <v>45684.98846064815</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>82009</v>
+        <v>11379</v>
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
@@ -1165,22 +1165,22 @@
         </is>
       </c>
       <c r="M10" s="0" t="n">
-        <v>645</v>
+        <v>602</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>108</v>
+        <v>2343</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>110</v>
+        <v>2340</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>642</v>
+        <v>549</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>109</v>
+        <v>2343</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>12101</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="U10" s="0" t="n">
-        <v>491</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="11">
@@ -1201,14 +1201,14 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>64009</v>
+        <v>28009</v>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.9880787037</v>
+        <v>45684.9825462963</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>64009</v>
+        <v>28009</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>11379</v>
+        <v>53009</v>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
@@ -1244,33 +1244,33 @@
         </is>
       </c>
       <c r="M11" s="0" t="n">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>2343</v>
+        <v>23</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>2340</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>2343</v>
+        <v>22</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U11" s="0" t="n">
-        <v>491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1280,14 +1280,14 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>28009</v>
+        <v>16009</v>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Kent Ridge Ter</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.98353009259</v>
+        <v>45684.99473379629</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>28009</v>
+        <v>16009</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
@@ -1315,30 +1315,30 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>53009</v>
+        <v>64009</v>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>23</v>
+        <v>2347</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>21</v>
+        <v>2351</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>22</v>
+        <v>2354</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>12109</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="U12" s="0" t="n">
-        <v>484</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="13">
@@ -1359,26 +1359,26 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>16009</v>
+        <v>10009</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Kent Ridge Ter</t>
+          <t>Bt Merah Int</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.97979166666</v>
+        <v>45684.98513888889</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>16009</v>
+        <v>10009</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>64009</v>
+        <v>44989</v>
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="M13" s="0" t="n">
-        <v>635</v>
+        <v>548</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>634</v>
+        <v>546</v>
       </c>
       <c r="P13" s="0" t="n">
+        <v>2350</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="R13" s="0" t="n">
         <v>2351</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>639</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>2354</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>12109</v>
@@ -1428,86 +1428,7 @@
         </is>
       </c>
       <c r="U13" s="0" t="n">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45684.98555555556</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>548</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>2350</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>546</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>2350</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>552</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>2351</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>487</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,7 +1580,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.00123842592</v>
+        <v>45684.99857638889</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1675,7 +1596,7 @@
         </is>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>28009</v>
@@ -1712,7 +1633,7 @@
         </is>
       </c>
       <c r="U2" s="0" t="n">
-        <v>510</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="3">
@@ -1738,7 +1659,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.9875925926</v>
+        <v>45685.00023148148</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1791,7 +1712,7 @@
         </is>
       </c>
       <c r="U3" s="0" t="n">
-        <v>490</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="4">
@@ -1801,26 +1722,26 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.9916087963</v>
+        <v>45684.99258101852</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
@@ -1836,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>44989</v>
+        <v>64009</v>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
@@ -1844,33 +1765,33 @@
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2347</v>
+        <v>30</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>634</v>
+        <v>559</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>2345</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>2350</v>
+        <v>27</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="T4" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U4" s="0" t="n">
-        <v>496</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="5">
@@ -1880,14 +1801,14 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11379</v>
+        <v>82009</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Buona Vista Ter</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -1896,10 +1817,10 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.98652777778</v>
+        <v>45684.98659722223</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>11379</v>
+        <v>82009</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -1915,41 +1836,41 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>64009</v>
+        <v>22009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="T5" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U5" s="0" t="n">
-        <v>488</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6">
@@ -1962,11 +1883,11 @@
         <v>154</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>82009</v>
+        <v>22009</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Boon Lay Int</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -1975,10 +1896,10 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.98237268518</v>
+        <v>45684.99528935185</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>82009</v>
+        <v>22009</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1994,41 +1915,41 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>22009</v>
+        <v>82009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="T6" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U6" s="0" t="n">
-        <v>483</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="7">
@@ -2038,26 +1959,26 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Boon Lay Int</t>
+          <t>Bt Batok Int</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.99555555556</v>
+        <v>45684.99390046296</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -2077,37 +1998,37 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>547</v>
+        <v>642</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="T7" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
+          <t>Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U7" s="0" t="n">
-        <v>501</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="8">
@@ -2117,26 +2038,26 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>43009</v>
+        <v>28009</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.99353009259</v>
+        <v>45684.99424768519</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>43009</v>
+        <v>28009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -2152,41 +2073,41 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>82009</v>
+        <v>53009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="U8" s="0" t="n">
-        <v>499</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="9">
@@ -2196,26 +2117,26 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>28009</v>
+        <v>10009</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Bt Merah Int</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.99371527778</v>
+        <v>45684.99502314815</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>28009</v>
+        <v>10009</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -2231,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>53009</v>
+        <v>44989</v>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
@@ -2239,22 +2160,22 @@
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>623</v>
+        <v>548</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>23</v>
+        <v>2350</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>625</v>
+        <v>546</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>21</v>
+        <v>2350</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>22</v>
+        <v>2351</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>12109</v>
@@ -2265,165 +2186,7 @@
         </is>
       </c>
       <c r="U9" s="0" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45684.99460648148</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>635</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>2347</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>2351</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>639</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>2354</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T10" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45684.99608796297</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>548</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>2350</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>546</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>2350</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>552</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>2351</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T11" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>502</v>
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
@@ -2559,26 +2322,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>44989</v>
+        <v>53009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gali Batu Ter</t>
+          <t>Bishan Int</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.99997685185</v>
+        <v>45685.01119212963</v>
       </c>
       <c r="G2" t="n">
-        <v>44989</v>
+        <v>53009</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2591,10 +2354,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10009</v>
+        <v>28009</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -2602,22 +2365,22 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>704</v>
+        <v>613</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="R2" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
         <v>12101</v>
@@ -2628,7 +2391,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>508</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="3">
@@ -2654,7 +2417,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.99232638889</v>
+        <v>45684.9991087963</v>
       </c>
       <c r="G3" t="n">
         <v>11379</v>
@@ -2677,7 +2440,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -2707,7 +2470,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>497</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="4">
@@ -2733,7 +2496,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.98653935185</v>
+        <v>45684.99518518519</v>
       </c>
       <c r="G4" t="n">
         <v>82009</v>
@@ -2786,7 +2549,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>489</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="5">
@@ -2812,7 +2575,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.00230324074</v>
+        <v>45685.00236111111</v>
       </c>
       <c r="G5" t="n">
         <v>22009</v>
@@ -2865,7 +2628,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>511</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="6">
@@ -2891,7 +2654,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.00670138889</v>
+        <v>45685.00688657408</v>
       </c>
       <c r="G6" t="n">
         <v>43009</v>
@@ -2944,7 +2707,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>518</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="7">
@@ -2970,7 +2733,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.0072337963</v>
+        <v>45685.00416666667</v>
       </c>
       <c r="G7" t="n">
         <v>28009</v>
@@ -2986,7 +2749,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>53009</v>
@@ -3023,7 +2786,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>518</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -484,951 +484,951 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.985</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45684.98508101852</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>612</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" t="n">
         <v>15</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" t="n">
         <v>613</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" t="n">
         <v>619</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" t="n">
         <v>12101</v>
       </c>
-      <c r="T2" s="0" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>-3</v>
+      <c r="U2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>75</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.98740740741</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45684.98773148148</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>10009</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>640</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" t="n">
         <v>32</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" t="n">
         <v>704</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" t="n">
         <v>30</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" t="n">
         <v>633</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" t="n">
         <v>31</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" t="n">
         <v>12101</v>
       </c>
-      <c r="T3" s="0" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U3" s="0" t="n">
-        <v>-6</v>
+      <c r="U3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>184</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.99232638889</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45684.99252314815</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>638</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" t="n">
         <v>2347</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" t="n">
         <v>634</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" t="n">
         <v>2345</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" t="n">
         <v>612</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" t="n">
         <v>2350</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" t="n">
         <v>12101</v>
       </c>
-      <c r="T4" s="0" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U4" s="0" t="n">
-        <v>-13</v>
+      <c r="U4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>74</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>11379</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.98738425926</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45684.98704861111</v>
+      </c>
+      <c r="G5" t="n">
         <v>11379</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" t="n">
         <v>64009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>605</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" t="n">
         <v>30</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" t="n">
         <v>559</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" t="n">
         <v>24</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" t="n">
         <v>609</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" t="n">
         <v>27</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" t="n">
         <v>12109</v>
       </c>
-      <c r="T5" s="0" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>-6</v>
+      <c r="U5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" t="n">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>82009</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.99116898148</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45684.99150462963</v>
+      </c>
+      <c r="G6" t="n">
         <v>82009</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" t="n">
         <v>43009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>538</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" t="n">
         <v>2349</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" t="n">
         <v>538</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" t="n">
         <v>2349</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" t="n">
         <v>538</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" t="n">
         <v>2349</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" t="n">
         <v>12109</v>
       </c>
-      <c r="T6" s="0" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>-12</v>
+      <c r="U6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" t="n">
         <v>154</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.9828587963</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>45684.98303240741</v>
+      </c>
+      <c r="G7" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>22009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>601</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" t="n">
         <v>57</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" t="n">
         <v>637</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" t="n">
         <v>55</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" t="n">
         <v>604</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" t="n">
         <v>53</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" t="n">
         <v>12101</v>
       </c>
-      <c r="T7" s="0" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U7" s="0" t="n">
-        <v>0</v>
+      <c r="U7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>22009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.9855787037</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45684.98582175926</v>
+      </c>
+      <c r="G8" t="n">
         <v>22009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" t="n">
         <v>82009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>546</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" t="n">
         <v>16</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" t="n">
         <v>616</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" t="n">
         <v>15</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" t="n">
         <v>547</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" t="n">
         <v>15</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" t="n">
         <v>12109</v>
       </c>
-      <c r="T8" s="0" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U8" s="0" t="n">
-        <v>-3</v>
+      <c r="U8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" t="n">
         <v>61</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>43009</v>
       </c>
-      <c r="D9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.9874537037</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45684.98793981481</v>
+      </c>
+      <c r="G9" t="n">
         <v>43009</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I9" s="0" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" t="n">
         <v>645</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" t="n">
         <v>108</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" t="n">
         <v>652</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" t="n">
         <v>110</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" t="n">
         <v>642</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" t="n">
         <v>109</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" t="n">
         <v>12101</v>
       </c>
-      <c r="T9" s="0" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U9" s="0" t="n">
-        <v>-6</v>
+      <c r="U9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" t="n">
         <v>74</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>64009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45684.98846064815</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>45684.9884375</v>
+      </c>
+      <c r="G10" t="n">
         <v>64009</v>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I10" s="0" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" t="n">
         <v>11379</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" t="n">
         <v>602</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" t="n">
         <v>2343</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" t="n">
         <v>623</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" t="n">
         <v>2340</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" t="n">
         <v>549</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" t="n">
         <v>2343</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" t="n">
         <v>12101</v>
       </c>
-      <c r="T10" s="0" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U10" s="0" t="n">
-        <v>-8</v>
+      <c r="U10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" t="n">
         <v>52</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>28009</v>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45684.9825462963</v>
-      </c>
-      <c r="G11" s="0" t="n">
+        <v>45684.99438657407</v>
+      </c>
+      <c r="G11" t="n">
         <v>28009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" t="n">
         <v>53009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>623</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" t="n">
         <v>23</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" t="n">
         <v>625</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" t="n">
         <v>21</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" t="n">
         <v>627</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" t="n">
         <v>22</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" t="n">
         <v>12109</v>
       </c>
-      <c r="T11" s="0" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U11" s="0" t="n">
-        <v>0</v>
+      <c r="U11" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" t="n">
         <v>151</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>16009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45684.99473379629</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>45684.9946875</v>
+      </c>
+      <c r="G12" t="n">
         <v>16009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" t="n">
         <v>64009</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>635</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" t="n">
         <v>2347</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" t="n">
         <v>634</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" t="n">
         <v>2351</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" t="n">
         <v>639</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" t="n">
         <v>2354</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" t="n">
         <v>12109</v>
       </c>
-      <c r="T12" s="0" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U12" s="0" t="n">
-        <v>-17</v>
+      <c r="U12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" t="n">
         <v>75</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>10009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45684.98513888889</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45684.98508101852</v>
+      </c>
+      <c r="G13" t="n">
         <v>10009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I13" s="0" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" t="n">
         <v>44989</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>548</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" t="n">
         <v>2350</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" t="n">
         <v>546</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" t="n">
         <v>2350</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" t="n">
         <v>552</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" t="n">
         <v>2351</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" t="n">
         <v>12109</v>
       </c>
-      <c r="T13" s="0" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U13" s="0" t="n">
-        <v>-3</v>
+      <c r="U13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2316,23 +2316,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2340,78 +2340,78 @@
       <c r="F2" s="5" t="n">
         <v>45685.01119212963</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>612</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>613</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="0" t="n">
         <v>619</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="0" t="n">
         <v>-40</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2419,78 +2419,78 @@
       <c r="F3" s="5" t="n">
         <v>45684.9991087963</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>605</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>559</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="0" t="n">
         <v>609</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="0" t="n">
         <v>-23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2498,78 +2498,78 @@
       <c r="F4" s="5" t="n">
         <v>45684.99518518519</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>601</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>637</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="0" t="n">
         <v>604</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="0" t="n">
         <v>-17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2577,78 +2577,78 @@
       <c r="F5" s="5" t="n">
         <v>45685.00236111111</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>546</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>616</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="0" t="n">
         <v>547</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="0" t="n">
         <v>-28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2656,78 +2656,78 @@
       <c r="F6" s="5" t="n">
         <v>45685.00688657408</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>652</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="0" t="n">
         <v>642</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="0" t="n">
         <v>-34</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2735,57 +2735,57 @@
       <c r="F7" s="5" t="n">
         <v>45685.00416666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>623</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>625</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="0" t="n">
         <v>627</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="0" t="n">
         <v>-30</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -484,23 +484,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -508,78 +508,78 @@
       <c r="F2" s="5" t="n">
         <v>45684.98508101852</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>612</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>613</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="0" t="n">
         <v>619</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -587,78 +587,78 @@
       <c r="F3" s="5" t="n">
         <v>45684.98773148148</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>704</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="0" t="n">
         <v>633</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -666,78 +666,78 @@
       <c r="F4" s="5" t="n">
         <v>45684.99252314815</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>638</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="0" t="n">
         <v>2347</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>634</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="0" t="n">
         <v>2345</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="0" t="n">
         <v>612</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="0" t="n">
         <v>2350</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -745,78 +745,78 @@
       <c r="F5" s="5" t="n">
         <v>45684.98704861111</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>605</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>559</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="0" t="n">
         <v>609</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -824,78 +824,78 @@
       <c r="F6" s="5" t="n">
         <v>45684.99150462963</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>538</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="0" t="n">
         <v>2349</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>538</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="0" t="n">
         <v>2349</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="0" t="n">
         <v>538</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="0" t="n">
         <v>2349</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -903,78 +903,78 @@
       <c r="F7" s="5" t="n">
         <v>45684.98303240741</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>601</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>637</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="0" t="n">
         <v>604</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -982,78 +982,78 @@
       <c r="F8" s="5" t="n">
         <v>45684.98582175926</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>546</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>616</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="0" t="n">
         <v>547</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1061,78 +1061,78 @@
       <c r="F9" s="5" t="n">
         <v>45684.98793981481</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>652</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="0" t="n">
         <v>642</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1140,78 +1140,78 @@
       <c r="F10" s="5" t="n">
         <v>45684.9884375</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>602</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="0" t="n">
         <v>2343</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>623</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="0" t="n">
         <v>2340</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="0" t="n">
         <v>549</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="0" t="n">
         <v>2343</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1219,78 +1219,78 @@
       <c r="F11" s="5" t="n">
         <v>45684.99438657407</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>623</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>625</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="0" t="n">
         <v>627</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1298,78 +1298,78 @@
       <c r="F12" s="5" t="n">
         <v>45684.9946875</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>635</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="0" t="n">
         <v>2347</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>634</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="0" t="n">
         <v>2351</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="0" t="n">
         <v>639</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="0" t="n">
         <v>2354</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1377,57 +1377,57 @@
       <c r="F13" s="5" t="n">
         <v>45684.98508101852</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>548</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="0" t="n">
         <v>2350</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>546</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="0" t="n">
         <v>2350</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="0" t="n">
         <v>552</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="0" t="n">
         <v>2351</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45684.99857638889</v>
+        <v>45684.99931712963</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.00023148148</v>
+        <v>45685.00045138889</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.99258101852</v>
+        <v>45684.99222222222</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>11379</v>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="U4" s="0" t="n">
-        <v>-14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45684.98659722223</v>
+        <v>45684.98709490741</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="U5" s="0" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45684.99528935185</v>
+        <v>45684.99552083333</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>22009</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45684.99390046296</v>
+        <v>45684.99410879629</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>43009</v>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="U7" s="0" t="n">
-        <v>-15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45684.99424768519</v>
+        <v>45685.0044212963</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>28009</v>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="U8" s="0" t="n">
-        <v>-16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45684.99502314815</v>
+        <v>45684.99491898148</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>10009</v>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="U9" s="0" t="n">
-        <v>-17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2316,23 +2316,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2340,453 +2340,374 @@
       <c r="F2" s="5" t="n">
         <v>45685.01119212963</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>612</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" t="n">
         <v>15</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" t="n">
         <v>613</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" t="n">
         <v>619</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" t="n">
         <v>12101</v>
       </c>
-      <c r="T2" s="0" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>-40</v>
+      <c r="U2" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>74</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>11379</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45684.9991087963</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45684.99917824074</v>
+      </c>
+      <c r="G3" t="n">
         <v>11379</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>64009</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>605</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" t="n">
         <v>30</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" t="n">
         <v>559</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" t="n">
         <v>24</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" t="n">
         <v>609</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" t="n">
         <v>27</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" t="n">
         <v>12109</v>
       </c>
-      <c r="T3" s="0" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U3" s="0" t="n">
-        <v>-23</v>
+      <c r="U3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>154</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>82009</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45684.99518518519</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45684.99488425926</v>
+      </c>
+      <c r="G4" t="n">
         <v>82009</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" t="n">
         <v>22009</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>601</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" t="n">
         <v>57</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" t="n">
         <v>637</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" t="n">
         <v>55</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" t="n">
         <v>604</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" t="n">
         <v>53</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" t="n">
         <v>12101</v>
       </c>
-      <c r="T4" s="0" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U4" s="0" t="n">
-        <v>-17</v>
+      <c r="U4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>22009</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.00236111111</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45685.00247685185</v>
+      </c>
+      <c r="G5" t="n">
         <v>22009</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" t="n">
         <v>82009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>546</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" t="n">
         <v>16</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" t="n">
         <v>616</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" t="n">
         <v>15</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" t="n">
         <v>547</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" t="n">
         <v>15</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" t="n">
         <v>12109</v>
       </c>
-      <c r="T5" s="0" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>-28</v>
+      <c r="U5" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" t="n">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.00688657408</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45685.00664351852</v>
+      </c>
+      <c r="G6" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>645</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" t="n">
         <v>108</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" t="n">
         <v>652</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" t="n">
         <v>110</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" t="n">
         <v>642</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" t="n">
         <v>109</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" t="n">
         <v>12101</v>
       </c>
-      <c r="T6" s="0" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45685.00416666667</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>623</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>625</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>627</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>-30</v>
+      <c r="U6" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -445,7 +445,9 @@
     <col customWidth="1" min="5" max="5" width="21.0"/>
     <col customWidth="1" min="6" max="6" width="30.0"/>
     <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col customWidth="1" min="8" max="18" width="8.71"/>
+    <col customWidth="1" min="19" max="19" width="26.14"/>
+    <col customWidth="1" min="20" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -2293,7 +2293,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="18" width="8.71"/>
+    <col customWidth="1" min="19" max="19" width="21.14"/>
+    <col customWidth="1" min="20" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -2295,7 +2295,9 @@
   <cols>
     <col customWidth="1" min="1" max="18" width="8.71"/>
     <col customWidth="1" min="19" max="19" width="21.14"/>
-    <col customWidth="1" min="20" max="26" width="8.71"/>
+    <col customWidth="1" min="20" max="20" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="20.29"/>
+    <col customWidth="1" min="22" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -4398,7 +4398,9 @@
   <cols>
     <col customWidth="1" min="1" max="18" width="8.71"/>
     <col customWidth="1" min="19" max="19" width="15.86"/>
-    <col customWidth="1" min="20" max="26" width="8.71"/>
+    <col customWidth="1" min="20" max="20" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="31.71"/>
+    <col customWidth="1" min="22" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -4398,7 +4398,7 @@
   <cols>
     <col customWidth="1" min="1" max="18" width="8.71"/>
     <col customWidth="1" min="19" max="19" width="15.86"/>
-    <col customWidth="1" min="20" max="20" width="8.71"/>
+    <col customWidth="1" min="20" max="20" width="19.29"/>
     <col customWidth="1" min="21" max="21" width="31.71"/>
     <col customWidth="1" min="22" max="26" width="8.71"/>
   </cols>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -444,7 +444,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="20" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="21.43"/>
+    <col customWidth="1" min="22" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -444,7 +444,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="20" width="8.71"/>
+    <col customWidth="1" min="1" max="2" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="18.57"/>
+    <col customWidth="1" min="4" max="18" width="8.71"/>
+    <col customWidth="1" min="19" max="19" width="18.43"/>
+    <col customWidth="1" min="20" max="20" width="8.71"/>
     <col customWidth="1" min="21" max="21" width="21.43"/>
     <col customWidth="1" min="22" max="26" width="8.71"/>
   </cols>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -446,7 +446,9 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
     <col customWidth="1" min="3" max="3" width="18.57"/>
-    <col customWidth="1" min="4" max="18" width="8.71"/>
+    <col customWidth="1" min="4" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="10.29"/>
+    <col customWidth="1" min="13" max="18" width="8.71"/>
     <col customWidth="1" min="19" max="19" width="18.43"/>
     <col customWidth="1" min="20" max="20" width="8.71"/>
     <col customWidth="1" min="21" max="21" width="21.43"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -448,7 +448,8 @@
     <col customWidth="1" min="3" max="3" width="18.57"/>
     <col customWidth="1" min="4" max="11" width="8.71"/>
     <col customWidth="1" min="12" max="12" width="10.29"/>
-    <col customWidth="1" min="13" max="18" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="10.43"/>
+    <col customWidth="1" min="14" max="18" width="8.71"/>
     <col customWidth="1" min="19" max="19" width="18.43"/>
     <col customWidth="1" min="20" max="20" width="8.71"/>
     <col customWidth="1" min="21" max="21" width="21.43"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -446,7 +446,11 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
     <col customWidth="1" min="3" max="3" width="18.57"/>
-    <col customWidth="1" min="4" max="11" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="23.71"/>
+    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="15.43"/>
+    <col customWidth="1" min="7" max="7" width="18.29"/>
+    <col customWidth="1" min="8" max="11" width="8.71"/>
     <col customWidth="1" min="12" max="12" width="10.29"/>
     <col customWidth="1" min="13" max="13" width="10.43"/>
     <col customWidth="1" min="14" max="18" width="8.71"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -446,7 +446,9 @@
   <cols>
     <col customWidth="1" min="1" max="5" width="8.71"/>
     <col customWidth="1" min="6" max="6" width="19.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="12.29"/>
+    <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -444,11 +444,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="8.71"/>
+    <col customWidth="1" min="1" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="38.43"/>
+    <col customWidth="1" min="5" max="5" width="24.57"/>
     <col customWidth="1" min="6" max="6" width="19.86"/>
     <col customWidth="1" min="7" max="7" width="8.71"/>
     <col customWidth="1" min="8" max="8" width="12.29"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col customWidth="1" min="9" max="19" width="8.71"/>
+    <col customWidth="1" min="20" max="20" width="20.71"/>
+    <col customWidth="1" min="21" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -452,7 +452,8 @@
     <col customWidth="1" min="8" max="8" width="12.29"/>
     <col customWidth="1" min="9" max="19" width="8.71"/>
     <col customWidth="1" min="20" max="20" width="20.71"/>
-    <col customWidth="1" min="21" max="26" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="32.29"/>
+    <col customWidth="1" min="22" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -440,7 +440,9 @@
   <cols>
     <col customWidth="1" min="1" max="12" width="8.71"/>
     <col customWidth="1" min="13" max="13" width="11.57"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col customWidth="1" min="14" max="14" width="12.0"/>
+    <col customWidth="1" min="15" max="15" width="14.57"/>
+    <col customWidth="1" min="16" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -442,7 +442,9 @@
     <col customWidth="1" min="13" max="13" width="11.57"/>
     <col customWidth="1" min="14" max="14" width="12.0"/>
     <col customWidth="1" min="15" max="15" width="14.57"/>
-    <col customWidth="1" min="16" max="26" width="8.71"/>
+    <col customWidth="1" min="16" max="16" width="8.71"/>
+    <col customWidth="1" min="17" max="17" width="44.0"/>
+    <col customWidth="1" min="18" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -443,7 +443,7 @@
     <col customWidth="1" min="14" max="14" width="12.0"/>
     <col customWidth="1" min="15" max="15" width="14.57"/>
     <col customWidth="1" min="16" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="44.0"/>
+    <col customWidth="1" min="17" max="17" width="36.0"/>
     <col customWidth="1" min="18" max="26" width="8.71"/>
   </cols>
   <sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -444,7 +444,9 @@
     <col customWidth="1" min="15" max="15" width="14.57"/>
     <col customWidth="1" min="16" max="16" width="8.71"/>
     <col customWidth="1" min="17" max="17" width="36.0"/>
-    <col customWidth="1" min="18" max="26" width="8.71"/>
+    <col customWidth="1" min="18" max="18" width="8.71"/>
+    <col customWidth="1" min="19" max="19" width="17.0"/>
+    <col customWidth="1" min="20" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -444,7 +444,7 @@
     <col customWidth="1" min="15" max="15" width="14.57"/>
     <col customWidth="1" min="16" max="16" width="8.71"/>
     <col customWidth="1" min="17" max="17" width="36.0"/>
-    <col customWidth="1" min="18" max="18" width="8.71"/>
+    <col customWidth="1" min="18" max="18" width="12.57"/>
     <col customWidth="1" min="19" max="19" width="17.0"/>
     <col customWidth="1" min="20" max="26" width="8.71"/>
   </cols>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -426,7 +426,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="53.0"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -428,7 +428,9 @@
   <cols>
     <col customWidth="1" min="1" max="5" width="8.71"/>
     <col customWidth="1" min="6" max="6" width="53.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="7" max="13" width="8.71"/>
+    <col customWidth="1" min="14" max="14" width="22.29"/>
+    <col customWidth="1" min="15" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.59107638889</v>
+        <v>45685.59071759259</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.59100694444</v>
+        <v>45685.59165509259</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.58759259259</v>
+        <v>45685.59210648148</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.59133101852</v>
+        <v>45685.59135416667</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.59240740741</v>
+        <v>45685.59237268518</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.59113425926</v>
+        <v>45685.5909375</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.59263888889</v>
+        <v>45685.59287037037</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.59039351852</v>
+        <v>45685.59145833334</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.58768518519</v>
+        <v>45685.59339120371</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.59082175926</v>
+        <v>45685.59097222222</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="O12" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.59797453704</v>
+        <v>45685.59820601852</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.58795138889</v>
+        <v>45685.59876157407</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.6037037037</v>
+        <v>45685.60305555556</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.59486111111</v>
+        <v>45685.59506944445</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.5984375</v>
+        <v>45685.59914351852</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.59212962963</v>
+        <v>45685.59560185186</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.59305555555</v>
+        <v>45685.59314814815</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.60023148148</v>
+        <v>45685.60008101852</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.59726851852</v>
+        <v>45685.59729166667</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.59932870371</v>
+        <v>45685.59929398148</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.59744212963</v>
+        <v>45685.59737268519</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="O10" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.59358796296</v>
+        <v>45685.60056712963</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.60069444445</v>
+        <v>45685.60162037037</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.60177083333</v>
+        <v>45685.60217592592</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.60487268519</v>
+        <v>45685.6047800926</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.59898148148</v>
+        <v>45685.60505787037</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="O15" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.6072337963</v>
+        <v>45685.60755787037</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.5987037037</v>
+        <v>45685.59855324074</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.60600694444</v>
+        <v>45685.60621527778</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.59560185186</v>
+        <v>45685.60087962963</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.60196759259</v>
+        <v>45685.60180555555</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.6055324074</v>
+        <v>45685.60627314815</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.60393518519</v>
+        <v>45685.60402777778</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.60344907407</v>
+        <v>45685.60359953704</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.60099537037</v>
+        <v>45685.60436342593</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.61063657407</v>
+        <v>45685.61067129629</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.61324074074</v>
+        <v>45685.6133912037</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.60498842593</v>
+        <v>45685.61273148148</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>44989</v>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,84 +454,84 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.59071759259</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45685.59064814815</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>2</v>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -539,772 +539,772 @@
       <c r="F3" s="5" t="n">
         <v>45685.59049768518</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45685.59091435185</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45685.59239583334</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45685.59108796297</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45685.59340277778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45685.59074074074</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45685.59310185185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45685.59086805556</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45685.59283564815</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B12" t="n">
+        <v>151</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45685.59136574074</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45685.5905787037</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45685.59862268518</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45685.5980787037</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45685.59165509259</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45685.59210648148</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45685.59135416667</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45685.59237268518</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45685.5909375</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45685.59287037037</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45685.59145833334</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45685.59339120371</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45685.59097222222</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45685.59083333334</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45685.59820601852</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45685.59876157407</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>13</v>
+      <c r="O15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2354,23 +2354,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2378,60 +2378,60 @@
       <c r="F2" s="5" t="n">
         <v>45685.60755787037</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2439,60 +2439,60 @@
       <c r="F3" s="5" t="n">
         <v>45685.59855324074</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2500,60 +2500,60 @@
       <c r="F4" s="5" t="n">
         <v>45685.60621527778</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2561,60 +2561,60 @@
       <c r="F5" s="5" t="n">
         <v>45685.60087962963</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2622,60 +2622,60 @@
       <c r="F6" s="5" t="n">
         <v>45685.60180555555</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2683,60 +2683,60 @@
       <c r="F7" s="5" t="n">
         <v>45685.60579861111</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2744,60 +2744,60 @@
       <c r="F8" s="5" t="n">
         <v>45685.60627314815</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2805,60 +2805,60 @@
       <c r="F9" s="5" t="n">
         <v>45685.60402777778</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2866,60 +2866,60 @@
       <c r="F10" s="5" t="n">
         <v>45685.60359953704</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2927,60 +2927,60 @@
       <c r="F11" s="5" t="n">
         <v>45685.60436342593</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2988,60 +2988,60 @@
       <c r="F12" s="5" t="n">
         <v>45685.61018518519</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3049,60 +3049,60 @@
       <c r="F13" s="5" t="n">
         <v>45685.61067129629</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3110,60 +3110,60 @@
       <c r="F14" s="5" t="n">
         <v>45685.6133912037</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -3171,39 +3171,39 @@
       <c r="F15" s="5" t="n">
         <v>45685.61273148148</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="0" t="n">
         <v>34</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,23 +454,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -478,60 +478,60 @@
       <c r="F2" s="5" t="n">
         <v>45685.59064814815</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -539,60 +539,60 @@
       <c r="F3" s="5" t="n">
         <v>45685.59049768518</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -600,60 +600,60 @@
       <c r="F4" s="5" t="n">
         <v>45685.59091435185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -661,60 +661,60 @@
       <c r="F5" s="5" t="n">
         <v>45685.59239583334</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -722,60 +722,60 @@
       <c r="F6" s="5" t="n">
         <v>45685.59108796297</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -783,60 +783,60 @@
       <c r="F7" s="5" t="n">
         <v>45685.59340277778</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -844,60 +844,60 @@
       <c r="F8" s="5" t="n">
         <v>45685.59074074074</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -905,60 +905,60 @@
       <c r="F9" s="5" t="n">
         <v>45685.59310185185</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -966,60 +966,60 @@
       <c r="F10" s="5" t="n">
         <v>45685.59086805556</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1027,60 +1027,60 @@
       <c r="F11" s="5" t="n">
         <v>45685.59283564815</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1088,60 +1088,60 @@
       <c r="F12" s="5" t="n">
         <v>45685.59136574074</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1149,60 +1149,60 @@
       <c r="F13" s="5" t="n">
         <v>45685.5905787037</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1210,60 +1210,60 @@
       <c r="F14" s="5" t="n">
         <v>45685.59862268518</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1271,39 +1271,39 @@
       <c r="F15" s="5" t="n">
         <v>45685.5980787037</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.60305555556</v>
+        <v>45685.60292824074</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.59506944445</v>
+        <v>45685.5953125</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.59914351852</v>
+        <v>45685.59859953704</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.59560185186</v>
+        <v>45685.59538194445</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.59314814815</v>
+        <v>45685.59372685185</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.60008101852</v>
+        <v>45685.60034722222</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.59729166667</v>
+        <v>45685.5972337963</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.59929398148</v>
+        <v>45685.59901620371</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.59737268519</v>
+        <v>45685.59804398148</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="O10" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.60056712963</v>
+        <v>45685.59988425926</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.60162037037</v>
+        <v>45685.60017361111</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>16009</v>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="O12" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.60217592592</v>
+        <v>45685.60226851852</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.6047800926</v>
+        <v>45685.6046875</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.60505787037</v>
+        <v>45685.60548611111</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="O15" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2354,328 +2354,328 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.60755787037</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45685.60731481481</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>26</v>
+      <c r="O2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.59855324074</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45685.59849537037</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45685.60644675926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45685.60046296296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45685.60621527778</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45685.60232638889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45685.60087962963</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45685.60180555555</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" t="n">
         <v>61</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2683,304 +2683,304 @@
       <c r="F7" s="5" t="n">
         <v>45685.60579861111</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>24</v>
+      <c r="O7" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.60627314815</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45685.60612268518</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>24</v>
+      <c r="O8" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" t="n">
         <v>154</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.60402777778</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45685.60444444444</v>
+      </c>
+      <c r="G9" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" s="0" t="n">
-        <v>21</v>
+      <c r="O9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" t="n">
         <v>61</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.60359953704</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>45685.60310185186</v>
+      </c>
+      <c r="G10" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" s="0" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>20</v>
+      <c r="O10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" t="n">
         <v>74</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.60436342593</v>
-      </c>
-      <c r="G11" s="0" t="n">
+        <v>45685.60467592593</v>
+      </c>
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>11379</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>22</v>
+      <c r="O11" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" t="n">
         <v>151</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2988,223 +2988,223 @@
       <c r="F12" s="5" t="n">
         <v>45685.61018518519</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" t="n">
         <v>16009</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>30</v>
+      <c r="O12" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" t="n">
         <v>52</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.61067129629</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45685.61103009259</v>
+      </c>
+      <c r="G13" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45685.61325231481</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45685.61313657407</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45685.6133912037</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45685.61273148148</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.59064814815</v>
+        <v>45685.60255787037</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -499,7 +499,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" s="0" t="n">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.59049768518</v>
+        <v>45685.59535879629</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.59091435185</v>
+        <v>45685.59855324074</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.59239583334</v>
+        <v>45685.59276620371</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.59108796297</v>
+        <v>45685.59403935185</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.59340277778</v>
+        <v>45685.59466435185</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.59074074074</v>
+        <v>45685.5975</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.59310185185</v>
+        <v>45685.59313657408</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.59086805556</v>
+        <v>45685.59788194444</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M10" s="0" t="n">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.59283564815</v>
+        <v>45685.59325231481</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.59136574074</v>
+        <v>45685.600625</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.5905787037</v>
+        <v>45685.601875</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.59862268518</v>
+        <v>45685.59815972222</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.5980787037</v>
+        <v>45685.59827546297</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="O15" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.60292824074</v>
+        <v>45685.60777777778</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M2" s="0" t="n">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.5953125</v>
+        <v>45685.59921296296</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.59859953704</v>
+        <v>45685.6055324074</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.59538194445</v>
+        <v>45685.59501157407</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.59372685185</v>
+        <v>45685.60196759259</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.60034722222</v>
+        <v>45685.60040509259</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.5972337963</v>
+        <v>45685.60643518518</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.59901620371</v>
+        <v>45685.59864583334</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.59804398148</v>
+        <v>45685.60280092592</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M10" s="0" t="n">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="O10" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.59988425926</v>
+        <v>45685.59997685185</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.60017361111</v>
+        <v>45685.61018518519</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>16009</v>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="O12" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.60226851852</v>
+        <v>45685.61020833333</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.6046875</v>
+        <v>45685.60461805556</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.60548611111</v>
+        <v>45685.60622685185</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="O15" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.60731481481</v>
+        <v>45685.61422453704</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>28009</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.59849537037</v>
+        <v>45685.60741898148</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.60644675926</v>
+        <v>45685.6131712963</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.60046296296</v>
+        <v>45685.60120370371</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.60232638889</v>
+        <v>45685.6055324074</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.60612268518</v>
+        <v>45685.61542824074</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.60444444444</v>
+        <v>45685.60469907407</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.60310185186</v>
+        <v>45685.60837962963</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.60467592593</v>
+        <v>45685.60335648148</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.61018518519</v>
+        <v>45685.62255787037</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.61103009259</v>
+        <v>45685.61799768519</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.61325231481</v>
+        <v>45685.61204861111</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.61313657407</v>
+        <v>45685.6128587963</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.63681712963</v>
+        <v>45685.6375</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.62755787037</v>
+        <v>45685.6291550926</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N3" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O3" s="0" t="n">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.62902777778</v>
+        <v>45685.63138888889</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10009</v>
+        <v>44989</v>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -643,26 +643,26 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.63293981482</v>
+        <v>45685.62905092593</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -678,11 +678,11 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>22009</v>
+        <v>10009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -704,26 +704,26 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.63337962963</v>
+        <v>45685.62935185185</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -765,26 +765,26 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.62828703703</v>
+        <v>45685.63890046296</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>16009</v>
+        <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
@@ -808,15 +808,15 @@
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -826,14 +826,14 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.62869212963</v>
+        <v>45685.63298611111</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
@@ -877,7 +877,434 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45685.65079861111</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45685.63348379629</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45685.62835648148</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45685.62916666667</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45685.63671296297</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45685.62818287037</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45685.62844907407</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +1318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +1426,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.64491898148</v>
+        <v>45685.64508101852</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1034,7 +1461,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -1060,7 +1487,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.63091435185</v>
+        <v>45685.6396875</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1087,15 +1514,15 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N3" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1105,7 +1532,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
@@ -1121,7 +1548,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.64077546296</v>
+        <v>45685.63394675926</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1140,11 +1567,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10009</v>
+        <v>44989</v>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -1156,7 +1583,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1166,26 +1593,26 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.63731481481</v>
+        <v>45685.64056712963</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -1201,11 +1628,11 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>22009</v>
+        <v>10009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
@@ -1217,7 +1644,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1227,26 +1654,26 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.63997685185</v>
+        <v>45685.63940972222</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1262,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
@@ -1270,15 +1697,15 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1288,26 +1715,26 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.63716435185</v>
+        <v>45685.64399305556</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -1320,10 +1747,10 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>16009</v>
+        <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
@@ -1331,15 +1758,15 @@
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1349,14 +1776,14 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1365,10 +1792,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.63425925926</v>
+        <v>45685.63778935185</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -1384,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
@@ -1400,7 +1827,434 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45685.65553240741</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45685.63993055555</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45685.63738425926</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45685.6340625</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45685.64311342593</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45685.63768518518</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45685.64034722222</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +2411,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1583,7 +2437,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.63424768519</v>
+        <v>45685.64378472222</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1610,15 +2464,15 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1628,7 +2482,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
         <v>44989</v>
@@ -1644,7 +2498,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.64734953704</v>
+        <v>45685.63872685185</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -1663,11 +2517,11 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>10009</v>
+        <v>44989</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -1679,7 +2533,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1689,26 +2543,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.64046296296</v>
+        <v>45685.64711805555</v>
       </c>
       <c r="G5" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1724,11 +2578,11 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>22009</v>
+        <v>10009</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1740,7 +2594,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1750,26 +2604,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.64857638889</v>
+        <v>45685.64288194444</v>
       </c>
       <c r="G6" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1785,23 +2639,23 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1811,26 +2665,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.64991898148</v>
+        <v>45685.65302083334</v>
       </c>
       <c r="G7" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1846,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>16009</v>
+        <v>43009</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1854,15 +2708,15 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
+          <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1872,14 +2726,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1888,10 +2742,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.64346064815</v>
+        <v>45685.64046296296</v>
       </c>
       <c r="G8" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1904,10 +2758,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1923,7 +2777,373 @@
         </is>
       </c>
       <c r="O8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45685.64864583333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45685.64991898148</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45685.64365740741</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45685.65283564815</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>151</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45685.64509259259</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45685.64726851852</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.6375</v>
+        <v>45685.68798611111</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -488,7 +488,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J2" s="0" t="n">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45685.6291550926</v>
+        <v>45685.68576388889</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45685.63138888889</v>
+        <v>45685.68358796297</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45685.62905092593</v>
+        <v>45685.6834375</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45685.62935185185</v>
+        <v>45685.68361111111</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45685.63890046296</v>
+        <v>45685.68045138889</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -797,14 +797,14 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45685.63298611111</v>
+        <v>45685.68212962963</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45685.65079861111</v>
+        <v>45685.68482638889</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45685.63348379629</v>
+        <v>45685.68761574074</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="O10" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45685.62835648148</v>
+        <v>45685.68412037037</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45685.62916666667</v>
+        <v>45685.68341435185</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45685.63671296297</v>
+        <v>45685.6805787037</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45685.62818287037</v>
+        <v>45685.6832175926</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M14" s="0" t="n">
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45685.62844907407</v>
+        <v>45685.68309027778</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1404,857 +1404,857 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45685.64508101852</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45685.69318287037</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45685.69545138889</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45685.70106481481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45685.69460648148</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45685.69136574074</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45685.69300925926</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45685.69096064815</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45685.69121527778</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45685.6975</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B11" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45685.68784722222</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45685.69155092593</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45685.68721064815</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45685.6902662037</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45685.69430555555</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>45685.6396875</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45685.63394675926</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45685.64056712963</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45685.63940972222</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45685.64399305556</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45685.63778935185</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45685.65553240741</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45685.63993055555</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45685.63738425926</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45685.6340625</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45685.64311342593</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45685.63768518518</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45685.64034722222</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>16</v>
+      <c r="O15" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2354,23 +2354,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2378,60 +2378,60 @@
       <c r="F2" s="5" t="n">
         <v>45685.65172453703</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2439,60 +2439,60 @@
       <c r="F3" s="5" t="n">
         <v>45685.64378472222</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2500,60 +2500,60 @@
       <c r="F4" s="5" t="n">
         <v>45685.63872685185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2561,60 +2561,60 @@
       <c r="F5" s="5" t="n">
         <v>45685.64711805555</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2622,60 +2622,60 @@
       <c r="F6" s="5" t="n">
         <v>45685.64288194444</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2683,60 +2683,60 @@
       <c r="F7" s="5" t="n">
         <v>45685.65302083334</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2744,60 +2744,60 @@
       <c r="F8" s="5" t="n">
         <v>45685.64046296296</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2805,60 +2805,60 @@
       <c r="F9" s="5" t="n">
         <v>45685.64864583333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2866,60 +2866,60 @@
       <c r="F10" s="5" t="n">
         <v>45685.64991898148</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2927,60 +2927,60 @@
       <c r="F11" s="5" t="n">
         <v>45685.64365740741</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2988,60 +2988,60 @@
       <c r="F12" s="5" t="n">
         <v>45685.65283564815</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3049,60 +3049,60 @@
       <c r="F13" s="5" t="n">
         <v>45685.64509259259</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -3110,39 +3110,39 @@
       <c r="F14" s="5" t="n">
         <v>45685.64726851852</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0" t="n">
         <v>26</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -3835,9 +3835,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="9" width="8.71"/>
+    <col customWidth="1" min="1" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="21.29"/>
+    <col customWidth="1" min="5" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="12.86"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="20.29"/>
+    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="66UY1JPEQMwTbTnQgqgNx1p/rzfGZbXELYjZFSBKgB4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="fPiMvBIQmNfsQHr0m3RUc43RTK4g/QTJfOYnuCrB9I0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="37">
   <si>
     <t>NextBusGroup</t>
   </si>
@@ -92,13 +92,10 @@
     <t>SMRT</t>
   </si>
   <si>
-    <t>Opp Ngee Ann Poly</t>
+    <t>SD</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>SD</t>
+    <t>Opp Ngee Ann Poly</t>
   </si>
   <si>
     <t>Buona Vista Ter</t>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>NextBus3</t>
+  </si>
+  <si>
+    <t>SDA</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="21.57"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="3">
-        <v>45685.9025</v>
+        <v>45686.43349537037</v>
       </c>
       <c r="G2" s="2">
         <v>53009.0</v>
@@ -517,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="O2" s="2">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +539,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="3">
-        <v>45685.90537037037</v>
+        <v>45686.42459490741</v>
       </c>
       <c r="G3" s="2">
         <v>44989.0</v>
@@ -555,16 +557,16 @@
         <v>44989.0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>12109.0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +586,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="3">
-        <v>45685.90453703704</v>
+        <v>45686.4290625</v>
       </c>
       <c r="G4" s="2">
         <v>44989.0</v>
@@ -602,7 +604,7 @@
         <v>44989.0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>12101.0</v>
@@ -611,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="O4" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -631,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="3">
-        <v>45685.90342592593</v>
+        <v>45686.42831018518</v>
       </c>
       <c r="G5" s="2">
         <v>44989.0</v>
@@ -649,7 +651,7 @@
         <v>10009.0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>12101.0</v>
@@ -658,7 +660,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -672,13 +674,13 @@
         <v>11379.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3">
-        <v>45685.9028587963</v>
+        <v>45686.4247800926</v>
       </c>
       <c r="G6" s="2">
         <v>11379.0</v>
@@ -696,16 +698,16 @@
         <v>64009.0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>12109.0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -719,13 +721,13 @@
         <v>82009.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3">
-        <v>45685.90549768518</v>
+        <v>45686.4261574074</v>
       </c>
       <c r="G7" s="2">
         <v>82009.0</v>
@@ -743,16 +745,16 @@
         <v>43009.0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2">
         <v>12109.0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -766,13 +768,13 @@
         <v>82009.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3">
-        <v>45685.90247685185</v>
+        <v>45686.42783564814</v>
       </c>
       <c r="G8" s="2">
         <v>82009.0</v>
@@ -799,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="O8" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -813,13 +815,13 @@
         <v>22009.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>45685.91055555556</v>
+        <v>45686.43045138889</v>
       </c>
       <c r="G9" s="2">
         <v>22009.0</v>
@@ -837,16 +839,16 @@
         <v>82009.0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2">
         <v>12109.0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -860,13 +862,13 @@
         <v>43009.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>45685.90693287037</v>
+        <v>45686.42451388889</v>
       </c>
       <c r="G10" s="2">
         <v>43009.0</v>
@@ -884,7 +886,7 @@
         <v>82009.0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" s="2">
         <v>12101.0</v>
@@ -893,7 +895,7 @@
         <v>21</v>
       </c>
       <c r="O10" s="2">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -907,13 +909,13 @@
         <v>64009.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3">
-        <v>45685.90510416667</v>
+        <v>45686.42877314815</v>
       </c>
       <c r="G11" s="2">
         <v>64009.0</v>
@@ -931,7 +933,7 @@
         <v>16009.0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2">
         <v>12101.0</v>
@@ -940,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -954,13 +956,13 @@
         <v>64009.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="3">
-        <v>45685.90734953704</v>
+        <v>45686.42988425926</v>
       </c>
       <c r="G12" s="2">
         <v>64009.0</v>
@@ -987,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="O12" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -1001,13 +1003,13 @@
         <v>28009.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3">
-        <v>45685.90614583333</v>
+        <v>45686.4219212963</v>
       </c>
       <c r="G13" s="2">
         <v>28009.0</v>
@@ -1025,16 +1027,16 @@
         <v>53009.0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2">
         <v>12109.0</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1048,13 +1050,13 @@
         <v>16009.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="3">
-        <v>45685.9109375</v>
+        <v>45686.4308912037</v>
       </c>
       <c r="G14" s="2">
         <v>16009.0</v>
@@ -1072,16 +1074,16 @@
         <v>64009.0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2">
         <v>12109.0</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" s="2">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -1095,13 +1097,13 @@
         <v>10009.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="3">
-        <v>45685.90075231482</v>
+        <v>45686.42806712963</v>
       </c>
       <c r="G15" s="2">
         <v>10009.0</v>
@@ -1119,16 +1121,16 @@
         <v>44989.0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M15" s="2">
         <v>12109.0</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2181,7 +2183,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>52.0</v>
@@ -2196,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="3">
-        <v>45685.91556712963</v>
+        <v>45686.44232638889</v>
       </c>
       <c r="G2" s="2">
         <v>53009.0</v>
@@ -2208,13 +2210,13 @@
         <v>19</v>
       </c>
       <c r="J2" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" s="2">
         <v>28009.0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>12101.0</v>
@@ -2223,12 +2225,12 @@
         <v>21</v>
       </c>
       <c r="O2" s="2">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>184.0</v>
@@ -2243,7 +2245,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="3">
-        <v>45685.91739583333</v>
+        <v>45686.43782407408</v>
       </c>
       <c r="G3" s="2">
         <v>44989.0</v>
@@ -2261,21 +2263,21 @@
         <v>44989.0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>12109.0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="2">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>184.0</v>
@@ -2290,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="3">
-        <v>45685.9094675926</v>
+        <v>45686.43912037037</v>
       </c>
       <c r="G4" s="2">
         <v>44989.0</v>
@@ -2308,7 +2310,7 @@
         <v>44989.0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>12101.0</v>
@@ -2317,12 +2319,12 @@
         <v>21</v>
       </c>
       <c r="O4" s="2">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>75.0</v>
@@ -2337,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="3">
-        <v>45685.91707175926</v>
+        <v>45686.44052083333</v>
       </c>
       <c r="G5" s="2">
         <v>44989.0</v>
@@ -2355,7 +2357,7 @@
         <v>10009.0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>12101.0</v>
@@ -2364,12 +2366,12 @@
         <v>21</v>
       </c>
       <c r="O5" s="2">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>74.0</v>
@@ -2378,13 +2380,13 @@
         <v>11379.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3">
-        <v>45685.91200231481</v>
+        <v>45686.43041666667</v>
       </c>
       <c r="G6" s="2">
         <v>11379.0</v>
@@ -2408,15 +2410,15 @@
         <v>12109.0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" s="2">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>61.0</v>
@@ -2425,13 +2427,13 @@
         <v>82009.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3">
-        <v>45685.91482638889</v>
+        <v>45686.43274305556</v>
       </c>
       <c r="G7" s="2">
         <v>82009.0</v>
@@ -2449,21 +2451,21 @@
         <v>43009.0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2">
         <v>12109.0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" s="2">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>154.0</v>
@@ -2472,13 +2474,13 @@
         <v>82009.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3">
-        <v>45685.91565972222</v>
+        <v>45686.43855324074</v>
       </c>
       <c r="G8" s="2">
         <v>82009.0</v>
@@ -2496,7 +2498,7 @@
         <v>22009.0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M8" s="2">
         <v>12101.0</v>
@@ -2505,12 +2507,12 @@
         <v>21</v>
       </c>
       <c r="O8" s="2">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
         <v>154.0</v>
@@ -2519,13 +2521,13 @@
         <v>22009.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>45685.92364583333</v>
+        <v>45686.44298611111</v>
       </c>
       <c r="G9" s="2">
         <v>22009.0</v>
@@ -2549,15 +2551,15 @@
         <v>12109.0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="2">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>61.0</v>
@@ -2566,13 +2568,13 @@
         <v>43009.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>45685.91480324074</v>
+        <v>45686.43619212963</v>
       </c>
       <c r="G10" s="2">
         <v>43009.0</v>
@@ -2590,7 +2592,7 @@
         <v>82009.0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" s="2">
         <v>12101.0</v>
@@ -2599,12 +2601,12 @@
         <v>21</v>
       </c>
       <c r="O10" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>151.0</v>
@@ -2613,13 +2615,13 @@
         <v>64009.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3">
-        <v>45685.92422453704</v>
+        <v>45686.43682870371</v>
       </c>
       <c r="G11" s="2">
         <v>64009.0</v>
@@ -2637,7 +2639,7 @@
         <v>16009.0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2">
         <v>12101.0</v>
@@ -2646,12 +2648,12 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>74.0</v>
@@ -2660,13 +2662,13 @@
         <v>64009.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="3">
-        <v>45685.91417824074</v>
+        <v>45686.43638888889</v>
       </c>
       <c r="G12" s="2">
         <v>64009.0</v>
@@ -2684,7 +2686,7 @@
         <v>11379.0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2">
         <v>12101.0</v>
@@ -2698,7 +2700,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>52.0</v>
@@ -2707,13 +2709,13 @@
         <v>28009.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3">
-        <v>45685.91646990741</v>
+        <v>45686.43422453704</v>
       </c>
       <c r="G13" s="2">
         <v>28009.0</v>
@@ -2737,33 +2739,33 @@
         <v>12109.0</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" s="2">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
-        <v>151.0</v>
+        <v>75.0</v>
       </c>
       <c r="C14" s="2">
-        <v>16009.0</v>
+        <v>10009.0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3">
-        <v>45685.93114583333</v>
+        <v>45686.44079861111</v>
       </c>
       <c r="G14" s="2">
-        <v>16009.0</v>
+        <v>10009.0</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
@@ -2775,66 +2777,19 @@
         <v>1.0</v>
       </c>
       <c r="K14" s="2">
-        <v>64009.0</v>
+        <v>44989.0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2">
         <v>12109.0</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10009.0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45685.91315972222</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10009.0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>44989.0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="2">
-        <v>12109.0</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="2">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3835,12 +3790,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="21.29"/>
-    <col customWidth="1" min="5" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="12.86"/>
-    <col customWidth="1" min="11" max="11" width="20.29"/>
-    <col customWidth="1" min="12" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3892,25 +3842,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
-        <v>52.0</v>
+        <v>184.0</v>
       </c>
       <c r="C2" s="2">
-        <v>53009.0</v>
+        <v>44989.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3">
-        <v>45685.92255787037</v>
+        <v>45686.44401620371</v>
       </c>
       <c r="G2" s="2">
-        <v>53009.0</v>
+        <v>44989.0</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
@@ -3919,27 +3869,27 @@
         <v>19</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" s="2">
-        <v>28009.0</v>
+        <v>44989.0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
-        <v>12101.0</v>
+        <v>12109.0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>184.0</v>
@@ -3954,7 +3904,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="3">
-        <v>45685.92444444444</v>
+        <v>45686.45243055555</v>
       </c>
       <c r="G3" s="2">
         <v>44989.0</v>
@@ -3966,30 +3916,30 @@
         <v>19</v>
       </c>
       <c r="J3" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" s="2">
         <v>44989.0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
-        <v>12109.0</v>
+        <v>12101.0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O3" s="2">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
-        <v>184.0</v>
+        <v>75.0</v>
       </c>
       <c r="C4" s="2">
         <v>44989.0</v>
@@ -4001,7 +3951,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="3">
-        <v>45685.91858796297</v>
+        <v>45686.4481712963</v>
       </c>
       <c r="G4" s="2">
         <v>44989.0</v>
@@ -4013,13 +3963,13 @@
         <v>19</v>
       </c>
       <c r="J4" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" s="2">
-        <v>44989.0</v>
+        <v>10009.0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>12101.0</v>
@@ -4028,30 +3978,30 @@
         <v>21</v>
       </c>
       <c r="O4" s="2">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="C5" s="2">
-        <v>44989.0</v>
+        <v>11379.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
-        <v>45685.9296412037</v>
+        <v>45686.43537037037</v>
       </c>
       <c r="G5" s="2">
-        <v>44989.0</v>
+        <v>11379.0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -4060,45 +4010,45 @@
         <v>19</v>
       </c>
       <c r="J5" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" s="2">
-        <v>10009.0</v>
+        <v>64009.0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2">
-        <v>12101.0</v>
+        <v>12109.0</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O5" s="2">
-        <v>41.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
       <c r="C6" s="2">
-        <v>11379.0</v>
+        <v>82009.0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>45685.91642361111</v>
+        <v>45686.44246527777</v>
       </c>
       <c r="G6" s="2">
-        <v>11379.0</v>
+        <v>82009.0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -4107,42 +4057,42 @@
         <v>19</v>
       </c>
       <c r="J6" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" s="2">
-        <v>64009.0</v>
+        <v>43009.0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>12109.0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" s="2">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>61.0</v>
+        <v>154.0</v>
       </c>
       <c r="C7" s="2">
         <v>82009.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3">
-        <v>45685.92732638889</v>
+        <v>45686.45108796296</v>
       </c>
       <c r="G7" s="2">
         <v>82009.0</v>
@@ -4151,48 +4101,48 @@
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7" s="2">
-        <v>43009.0</v>
+        <v>22009.0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2">
-        <v>12109.0</v>
+        <v>12101.0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O7" s="2">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>154.0</v>
+        <v>61.0</v>
       </c>
       <c r="C8" s="2">
-        <v>82009.0</v>
+        <v>43009.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3">
-        <v>45685.92237268519</v>
+        <v>45686.44710648148</v>
       </c>
       <c r="G8" s="2">
-        <v>82009.0</v>
+        <v>43009.0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
@@ -4204,10 +4154,10 @@
         <v>1.0</v>
       </c>
       <c r="K8" s="2">
-        <v>22009.0</v>
+        <v>82009.0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2">
         <v>12101.0</v>
@@ -4216,30 +4166,30 @@
         <v>21</v>
       </c>
       <c r="O8" s="2">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
-        <v>154.0</v>
+        <v>151.0</v>
       </c>
       <c r="C9" s="2">
-        <v>22009.0</v>
+        <v>64009.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>45685.92665509259</v>
+        <v>45686.44655092592</v>
       </c>
       <c r="G9" s="2">
-        <v>22009.0</v>
+        <v>64009.0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
@@ -4248,45 +4198,45 @@
         <v>19</v>
       </c>
       <c r="J9" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" s="2">
-        <v>82009.0</v>
+        <v>16009.0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2">
-        <v>12109.0</v>
+        <v>12101.0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O9" s="2">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
-        <v>61.0</v>
+        <v>74.0</v>
       </c>
       <c r="C10" s="2">
-        <v>43009.0</v>
+        <v>64009.0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
-        <v>45685.92450231482</v>
+        <v>45686.44119212963</v>
       </c>
       <c r="G10" s="2">
-        <v>43009.0</v>
+        <v>64009.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
@@ -4295,13 +4245,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" s="2">
-        <v>82009.0</v>
+        <v>11379.0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" s="2">
         <v>12101.0</v>
@@ -4310,18 +4260,18 @@
         <v>21</v>
       </c>
       <c r="O10" s="2">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
-        <v>74.0</v>
+        <v>52.0</v>
       </c>
       <c r="C11" s="2">
-        <v>64009.0</v>
+        <v>28009.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -4330,10 +4280,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="3">
-        <v>45685.91886574074</v>
+        <v>45686.44675925926</v>
       </c>
       <c r="G11" s="2">
-        <v>64009.0</v>
+        <v>28009.0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
@@ -4342,45 +4292,45 @@
         <v>19</v>
       </c>
       <c r="J11" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" s="2">
-        <v>11379.0</v>
+        <v>53009.0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2">
-        <v>12101.0</v>
+        <v>12109.0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O11" s="2">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
-        <v>52.0</v>
+        <v>75.0</v>
       </c>
       <c r="C12" s="2">
-        <v>28009.0</v>
+        <v>10009.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3">
-        <v>45685.92618055556</v>
+        <v>45686.4502199074</v>
       </c>
       <c r="G12" s="2">
-        <v>28009.0</v>
+        <v>10009.0</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
@@ -4389,69 +4339,22 @@
         <v>19</v>
       </c>
       <c r="J12" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" s="2">
-        <v>53009.0</v>
+        <v>44989.0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2">
         <v>12109.0</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O12" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10009.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45685.92592592593</v>
-      </c>
-      <c r="G13" s="2">
-        <v>10009.0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>44989.0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="2">
-        <v>12109.0</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="2">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.38381944445</v>
+        <v>45688.39193287037</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" s="0" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.39113425926</v>
+        <v>45688.39123842592</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.3869212963</v>
+        <v>45688.38809027777</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.38354166667</v>
+        <v>45688.39040509259</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.38341435185</v>
+        <v>45688.39842592592</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.38473379629</v>
+        <v>45688.39006944445</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.39488425926</v>
+        <v>45688.39489583333</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.38366898148</v>
+        <v>45688.39636574074</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -871,7 +871,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.38962962963</v>
+        <v>45688.39023148148</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.39287037037</v>
+        <v>45688.39292824074</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.38783564815</v>
+        <v>45688.38905092593</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.38699074074</v>
+        <v>45688.39908564815</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.39011574074</v>
+        <v>45688.39046296296</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.38458333333</v>
+        <v>45688.39512731481</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.39131944445</v>
+        <v>45688.4024074074</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.39844907408</v>
+        <v>45688.39899305555</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.39228009259</v>
+        <v>45688.39193287037</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.38988425926</v>
+        <v>45688.39825231482</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.38605324074</v>
+        <v>45688.40359953704</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.39122685185</v>
+        <v>45688.39987268519</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.39762731481</v>
+        <v>45688.39704861111</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.3962962963</v>
+        <v>45688.40331018518</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.39192129629</v>
+        <v>45688.39284722223</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.39003472222</v>
+        <v>45688.39483796297</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.39836805555</v>
+        <v>45688.40502314815</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.39295138889</v>
+        <v>45688.39288194444</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.39512731481</v>
+        <v>45688.39634259259</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.4034375</v>
+        <v>45688.40834490741</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>28009</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.40385416667</v>
+        <v>45688.40403935185</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.40608796296</v>
+        <v>45688.39429398148</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.39836805555</v>
+        <v>45688.40501157408</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.39826388889</v>
+        <v>45688.41496527778</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.39606481481</v>
+        <v>45688.40578703704</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.40600694445</v>
+        <v>45688.40618055555</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.40475694444</v>
+        <v>45688.41425925926</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.40729166667</v>
+        <v>45688.40679398148</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.39554398148</v>
+        <v>45688.40255787037</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.40524305555</v>
+        <v>45688.41442129629</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.39563657407</v>
+        <v>45688.40453703704</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,736 +454,736 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.39193287037</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.40085648148</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.39832175926</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.39217592592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.39813657408</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.3975</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.39123842592</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="F7" s="5" t="n">
+        <v>45688.40092592593</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.39491898148</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.39620370371</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.38809027777</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="F10" s="5" t="n">
+        <v>45688.39171296296</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.39258101852</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.39496527778</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.39894675926</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.39167824074</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>41011</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.39040509259</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="C15" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.39842592592</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.39006944445</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.39489583333</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.39636574074</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.39023148148</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.39292824074</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.38905092593</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.39908564815</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.39046296296</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1191,36 +1191,36 @@
       <c r="F15" s="5" t="n">
         <v>45688.39512731481</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>11</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,54 +2208,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.40834490741</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2263,54 +2263,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40403935185</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2318,54 +2318,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.39429398148</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2373,54 +2373,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.40501157408</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2428,54 +2428,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.41496527778</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,54 +2483,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.40578703704</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2538,54 +2538,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.40618055555</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2593,54 +2593,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.41425925926</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2648,54 +2648,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.40679398148</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,54 +2703,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2758,54 +2758,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40255787037</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2813,54 +2813,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.41442129629</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2868,54 +2868,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40113425926</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>41011</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2923,35 +2923,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.40453703704</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>25</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,21 +454,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -476,54 +476,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.40085648148</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -531,54 +531,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.39832175926</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -586,54 +586,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.39217592592</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -641,54 +641,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.39813657408</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -696,54 +696,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.3975</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -751,54 +751,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.40092592593</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -806,54 +806,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.39491898148</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -861,54 +861,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.39620370371</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -916,54 +916,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.39171296296</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -971,54 +971,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.39258101852</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1026,54 +1026,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.39496527778</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1081,54 +1081,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.39894675926</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1136,54 +1136,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.39167824074</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>41011</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1191,35 +1191,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.39512731481</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.4024074074</v>
+        <v>45688.41019675926</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.39899305555</v>
+        <v>45688.40451388889</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.39193287037</v>
+        <v>45688.3946412037</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.39825231482</v>
+        <v>45688.40418981481</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.40359953704</v>
+        <v>45688.40362268518</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.39987268519</v>
+        <v>45688.40578703704</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1631,14 +1631,14 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.39704861111</v>
+        <v>45688.39761574074</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.40331018518</v>
+        <v>45688.40212962963</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.39284722223</v>
+        <v>45688.40633101852</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.40309027778</v>
+        <v>45688.40447916667</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.39483796297</v>
+        <v>45688.40119212963</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.40502314815</v>
+        <v>45688.40512731481</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.39288194444</v>
+        <v>45688.40113425926</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2016,14 +2016,14 @@
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>41011</v>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M14" s="0" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.39634259259</v>
+        <v>45688.39628472222</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2186,516 +2186,516 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.40834490741</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.41876157407</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.40799768519</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.40603009259</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.41546296296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.41629629629</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.41481481482</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.40438657408</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.41291666667</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.40403935185</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="F10" s="5" t="n">
+        <v>45688.41050925926</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.39429398148</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.40501157408</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.41496527778</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.40578703704</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.40618055555</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.41425925926</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.40679398148</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,256 +2703,256 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>38</v>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.40255787037</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>45688.40557870371</v>
+      </c>
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>22</v>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.41442129629</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45688.41501157408</v>
+      </c>
+      <c r="G13" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>39</v>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.40113425926</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>45688.40401620371</v>
+      </c>
+      <c r="G14" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>41011</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>20</v>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.40453703704</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>45688.40439814814</v>
+      </c>
+      <c r="G15" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>25</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.40085648148</v>
+        <v>45688.40118055556</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.39832175926</v>
+        <v>45688.39836805555</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.39217592592</v>
+        <v>45688.39456018519</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.39813657408</v>
+        <v>45688.39797453704</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.3975</v>
+        <v>45688.39731481481</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.40092592593</v>
+        <v>45688.40035879629</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.39491898148</v>
+        <v>45688.3949537037</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.39620370371</v>
+        <v>45688.39600694444</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.39171296296</v>
+        <v>45688.40650462963</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.39258101852</v>
+        <v>45688.393125</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.39496527778</v>
+        <v>45688.39471064815</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.39894675926</v>
+        <v>45688.39871527778</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.39167824074</v>
+        <v>45688.40275462963</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1150,14 +1150,14 @@
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>41011</v>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M14" s="0" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1320,296 +1320,296 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.41019675926</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.41002314815</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>26</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.40451388889</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.40559027778</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>17</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.3946412037</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.40565972222</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>3</v>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.40418981481</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.40424768518</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>17</v>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.40362268518</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.40359953704</v>
+      </c>
+      <c r="G6" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>16</v>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1617,476 +1617,476 @@
       <c r="F7" s="5" t="n">
         <v>45688.40578703704</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>19</v>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.39761574074</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.39748842592</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>8</v>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.40212962963</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45688.40243055556</v>
+      </c>
+      <c r="G9" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.41138888889</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.40424768518</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.40112268519</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.40358796297</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.40375</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.40633101852</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="F15" s="5" t="n">
+        <v>45688.39637731481</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.40447916667</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.40119212963</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.40512731481</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.40113425926</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>41011</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.39628472222</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>6</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,54 +2208,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.41876157407</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2263,54 +2263,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40799768519</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2318,54 +2318,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.40603009259</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2373,54 +2373,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.41546296296</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2428,54 +2428,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.41629629629</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,54 +2483,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2538,54 +2538,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.40438657408</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2593,54 +2593,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.41291666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2648,54 +2648,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.41050925926</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,54 +2703,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2758,54 +2758,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40557870371</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2813,54 +2813,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.41501157408</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2868,54 +2868,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40401620371</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2923,35 +2923,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.40439814814</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>17</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -1320,21 +1320,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1342,54 +1342,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.41002314815</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1397,54 +1397,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40559027778</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1452,54 +1452,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.40565972222</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1507,54 +1507,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.40424768518</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1562,54 +1562,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.40359953704</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1617,54 +1617,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.40578703704</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1672,54 +1672,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.39748842592</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1727,54 +1727,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.40243055556</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1782,54 +1782,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.41138888889</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1837,54 +1837,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.40424768518</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1892,54 +1892,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40112268519</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1947,54 +1947,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.40358796297</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2002,54 +2002,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40375</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2057,35 +2057,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.39637731481</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,274 +2208,274 @@
       <c r="F2" s="5" t="n">
         <v>45688.41876157407</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>38</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.40799768519</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.40792824074</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>23</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.40603009259</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.41332175926</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>20</v>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.41546296296</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.41592592592</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>33</v>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.41629629629</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.41636574074</v>
+      </c>
+      <c r="G6" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>34</v>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,219 +2483,219 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>32</v>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.40438657408</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.40391203704</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>17</v>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.41291666667</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45688.41226851852</v>
+      </c>
+      <c r="G9" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>30</v>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.41050925926</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>45688.42020833334</v>
+      </c>
+      <c r="G10" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>26</v>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,256 +2703,256 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>30</v>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.40557870371</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>45688.40537037037</v>
+      </c>
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>19</v>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.41501157408</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45688.41554398148</v>
+      </c>
+      <c r="G13" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>33</v>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.40401620371</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>45688.40701388889</v>
+      </c>
+      <c r="G14" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.40403935185</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.40439814814</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>17</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.40118055556</v>
+        <v>45688.40137731482</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -486,7 +486,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J2" s="0" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.39836805555</v>
+        <v>45688.39908564815</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.39456018519</v>
+        <v>45688.40569444445</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.39797453704</v>
+        <v>45688.39825231482</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.39731481481</v>
+        <v>45688.39659722222</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.40035879629</v>
+        <v>45688.39966435185</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.3949537037</v>
+        <v>45688.39711805555</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.39600694444</v>
+        <v>45688.4022337963</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.40650462963</v>
+        <v>45688.40679398148</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.393125</v>
+        <v>45688.40440972222</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.39471064815</v>
+        <v>45688.39998842592</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.39871527778</v>
+        <v>45688.39842592592</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.40275462963</v>
+        <v>45688.40320601852</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>41011</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.39512731481</v>
+        <v>45688.39714120371</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,773 +1320,773 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.41002314815</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.410625</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.40563657408</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.41403935185</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.40400462963</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.40311342593</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.40923611111</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.4031712963</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.41215277778</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.4125</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.41350694445</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.40524305555</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.40390046296</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.40431712963</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.40315972222</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.40559027778</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.40565972222</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.40424768518</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.40359953704</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.40578703704</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.39748842592</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.40243055556</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.41138888889</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.40424768518</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.40112268519</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.40358796297</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.40375</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.39637731481</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>3</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,54 +2208,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.41876157407</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2263,54 +2263,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40792824074</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2318,54 +2318,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.41332175926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2373,54 +2373,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.41592592592</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2428,54 +2428,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.41636574074</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,54 +2483,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2538,54 +2538,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.40391203704</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2593,54 +2593,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.41226851852</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2648,54 +2648,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.42020833334</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,54 +2703,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2758,54 +2758,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40537037037</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2813,54 +2813,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.41554398148</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2868,54 +2868,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40701388889</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2923,35 +2923,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.40403935185</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>14</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -1320,21 +1320,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1342,54 +1342,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.410625</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1397,54 +1397,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40563657408</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1452,54 +1452,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.41403935185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1507,54 +1507,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.40400462963</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1562,54 +1562,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.40311342593</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1617,54 +1617,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.40923611111</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1672,54 +1672,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.4031712963</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1727,54 +1727,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.41215277778</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1782,54 +1782,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.4125</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1837,54 +1837,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1892,54 +1892,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40524305555</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1947,54 +1947,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.40390046296</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2002,54 +2002,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40431712963</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2057,35 +2057,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.40315972222</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,274 +2208,274 @@
       <c r="F2" s="5" t="n">
         <v>45688.41876157407</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>35</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.40792824074</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.408125</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>20</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.41332175926</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.42059027778</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.41460648148</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.41619212963</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.41592592592</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.41636574074</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,476 +2483,476 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>29</v>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.40391203704</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.40631944445</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.42225694445</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.42084490741</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.41975694444</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.40947916666</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.41226851852</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="F13" s="5" t="n">
+        <v>45688.415625</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.40606481482</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.42020833334</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="F15" s="5" t="n">
+        <v>45688.41122685185</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.41350694445</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.40537037037</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.41554398148</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.40701388889</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.40403935185</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>14</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.40137731482</v>
+        <v>45688.40173611111</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.39908564815</v>
+        <v>45688.39887731482</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.40569444445</v>
+        <v>45688.40506944444</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.39825231482</v>
+        <v>45688.39793981481</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.39659722222</v>
+        <v>45688.40365740741</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.39966435185</v>
+        <v>45688.40069444444</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.39711805555</v>
+        <v>45688.39745370371</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.4022337963</v>
+        <v>45688.40178240741</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.40679398148</v>
+        <v>45688.4068287037</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.40440972222</v>
+        <v>45688.40386574074</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.39998842592</v>
+        <v>45688.39958333333</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.39842592592</v>
+        <v>45688.39871527778</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.40320601852</v>
+        <v>45688.40366898148</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.39714120371</v>
+        <v>45688.40321759259</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1320,516 +1320,516 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.410625</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.4097800926</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>19</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.40563657408</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.40594907408</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>12</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.41403935185</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.41383101852</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.40359953704</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.41503472222</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.40400462963</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="F7" s="5" t="n">
+        <v>45688.40927083333</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.40267361111</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.4122337963</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.41256944444</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.40311342593</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.40923611111</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.4031712963</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.41215277778</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.4125</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1837,256 +1837,256 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>23</v>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.40524305555</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>45688.40431712963</v>
+      </c>
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>12</v>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.40390046296</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45688.40364583334</v>
+      </c>
+      <c r="G13" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>10</v>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.40431712963</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>45688.40427083334</v>
+      </c>
+      <c r="G14" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>10</v>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.40315972222</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>45688.41111111111</v>
+      </c>
+      <c r="G15" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>9</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,54 +2208,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.41876157407</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2263,54 +2263,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.408125</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2318,54 +2318,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.42059027778</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2373,54 +2373,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.41460648148</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2428,54 +2428,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.41619212963</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,54 +2483,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2538,54 +2538,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.40631944445</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2593,54 +2593,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.42225694445</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2648,54 +2648,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.42084490741</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,54 +2703,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41975694444</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2758,54 +2758,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40947916666</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2813,54 +2813,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.415625</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2868,54 +2868,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40606481482</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2923,35 +2923,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.41122685185</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>20</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -1320,21 +1320,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1342,54 +1342,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.4097800926</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1397,54 +1397,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40594907408</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1452,54 +1452,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.41383101852</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1507,54 +1507,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.40359953704</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1562,54 +1562,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.41503472222</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1617,54 +1617,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.40927083333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1672,54 +1672,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.40267361111</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1727,54 +1727,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.4122337963</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1782,54 +1782,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.41256944444</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1837,54 +1837,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41350694445</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1892,54 +1892,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40431712963</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1947,54 +1947,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.40364583334</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2002,54 +2002,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40427083334</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2057,35 +2057,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.41111111111</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2186,296 +2186,296 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.41876157407</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.41922453704</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>31</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.408125</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.40869212963</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>16</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.42059027778</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.42090277778</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>34</v>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.41460648148</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.41523148148</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>25</v>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.41619212963</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.42253472222</v>
+      </c>
+      <c r="G6" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>27</v>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,219 +2483,219 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>25</v>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.40631944445</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.40662037037</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>13</v>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.42225694445</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45688.42228009259</v>
+      </c>
+      <c r="G9" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>36</v>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.42084490741</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>45688.42047453704</v>
+      </c>
+      <c r="G10" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>34</v>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,256 +2703,256 @@
       <c r="F11" s="5" t="n">
         <v>45688.41975694444</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>32</v>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.40947916666</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>45688.40918981482</v>
+      </c>
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>18</v>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.415625</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45688.41556712963</v>
+      </c>
+      <c r="G13" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>26</v>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.40606481482</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>45688.40692129629</v>
+      </c>
+      <c r="G14" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>13</v>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.41122685185</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>45688.42381944445</v>
+      </c>
+      <c r="G15" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>20</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,773 +454,773 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.40173611111</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.42149305555</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28009</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.41540509259</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.4175925926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.41339120371</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.41548611111</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.42063657408</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.41151620371</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.413125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.4206712963</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.4131712963</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.41524305556</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.413125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.41232638889</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>SDA</t>
         </is>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.42518518519</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.39887731482</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.40506944444</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.39793981481</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.40365740741</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.40069444444</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.39745370371</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.40178240741</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.4068287037</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.40386574074</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.39958333333</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.39871527778</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.40366898148</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>41011</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.40321759259</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>7</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,54 +2208,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.41922453704</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2263,54 +2263,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.40869212963</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2318,54 +2318,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.42090277778</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2373,54 +2373,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.41523148148</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2428,54 +2428,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.42253472222</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,54 +2483,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.41481481482</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2538,54 +2538,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.40662037037</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2593,54 +2593,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.42228009259</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2648,54 +2648,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.42047453704</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,54 +2703,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.41975694444</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2758,54 +2758,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.40918981482</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2813,54 +2813,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.41556712963</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2868,54 +2868,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.40692129629</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2923,35 +2923,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.42381944445</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>36</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.42094907408</v>
+        <v>45688.43523148148</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" s="0" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.41890046297</v>
+        <v>45688.42366898148</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.41737268519</v>
+        <v>45688.42335648148</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.42083333333</v>
+        <v>45688.43210648148</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.41575231482</v>
+        <v>45688.42430555556</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.41960648148</v>
+        <v>45688.4255787037</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.41863425926</v>
+        <v>45688.42376157407</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.41991898148</v>
+        <v>45688.42681712963</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.42024305555</v>
+        <v>45688.43042824074</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.41954861111</v>
+        <v>45688.42674768518</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.41541666666</v>
+        <v>45688.42503472222</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.42046296296</v>
+        <v>45688.43229166666</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.41622685185</v>
+        <v>45688.42729166667</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.42532407407</v>
+        <v>45688.42604166667</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.4343287037</v>
+        <v>45688.44280092593</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.42452546296</v>
+        <v>45688.43153935186</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.42458333333</v>
+        <v>45688.42685185185</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.4318287037</v>
+        <v>45688.44219907407</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.42317129629</v>
+        <v>45688.43131944445</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.4264699074</v>
+        <v>45688.43327546296</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43009</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.4254050926</v>
+        <v>45688.43040509259</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.42613425926</v>
+        <v>45688.43753472222</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.43116898148</v>
+        <v>45688.43879629629</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.42686342593</v>
+        <v>45688.43148148148</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.41858796297</v>
+        <v>45688.43129629629</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.43269675926</v>
+        <v>45688.4419212963</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.42650462963</v>
+        <v>45688.43563657408</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.43909722222</v>
+        <v>45688.44493055555</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>44989</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.43787037037</v>
+        <v>45688.44759259259</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.43232638889</v>
+        <v>45688.43679398148</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.42908564815</v>
+        <v>45688.435</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.44267361111</v>
+        <v>45688.44892361111</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>10009</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.43103009259</v>
+        <v>45688.43817129629</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.43304398148</v>
+        <v>45688.44276620371</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.43111111111</v>
+        <v>45688.4337037037</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.43675925926</v>
+        <v>45688.44430555555</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.43931712963</v>
+        <v>45688.4502662037</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.43123842592</v>
+        <v>45688.43748842592</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.42569444444</v>
+        <v>45688.43689814815</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.44203703704</v>
+        <v>45688.44927083333</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.43523148148</v>
+        <v>45688.43916666666</v>
       </c>
       <c r="G14" t="n">
         <v>16009</v>
@@ -2882,10 +2882,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>64009</v>
+        <v>41011</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.44340277778</v>
+        <v>45688.453125</v>
       </c>
       <c r="G15" t="n">
         <v>10009</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.43523148148</v>
+        <v>45688.43534722222</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.42366898148</v>
+        <v>45688.43188657407</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.42335648148</v>
+        <v>45688.42649305556</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.43210648148</v>
+        <v>45688.43152777778</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.42430555556</v>
+        <v>45688.42457175926</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.4255787037</v>
+        <v>45688.42671296297</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.42376157407</v>
+        <v>45688.43047453704</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.42681712963</v>
+        <v>45688.42724537037</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.43042824074</v>
+        <v>45688.43097222222</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.42674768518</v>
+        <v>45688.42685185185</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.42503472222</v>
+        <v>45688.4240625</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.43229166666</v>
+        <v>45688.43243055556</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.42729166667</v>
+        <v>45688.42769675926</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.42604166667</v>
+        <v>45688.42576388889</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.44280092593</v>
+        <v>45688.44231481481</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.43153935186</v>
+        <v>45688.43688657408</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.42685185185</v>
+        <v>45688.4350462963</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.44219907407</v>
+        <v>45688.44203703704</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.43131944445</v>
+        <v>45688.43158564815</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.43327546296</v>
+        <v>45688.43606481481</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43009</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.43040509259</v>
+        <v>45688.43347222222</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.43753472222</v>
+        <v>45688.43751157408</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.43879629629</v>
+        <v>45688.43893518519</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.43148148148</v>
+        <v>45688.43164351852</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.43129629629</v>
+        <v>45688.43100694445</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.4419212963</v>
+        <v>45688.44256944444</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.43563657408</v>
+        <v>45688.43516203704</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.44493055555</v>
+        <v>45688.44451388889</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.43679398148</v>
+        <v>45688.44222222222</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.435</v>
+        <v>45688.43768518518</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.44892361111</v>
+        <v>45688.45008101852</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.43817129629</v>
+        <v>45688.4377662037</v>
       </c>
       <c r="G6" t="n">
         <v>11379</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.4337037037</v>
+        <v>45688.43837962963</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.44430555555</v>
+        <v>45688.44399305555</v>
       </c>
       <c r="G9" t="n">
         <v>22009</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.4502662037</v>
+        <v>45688.45055555556</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.43689814815</v>
+        <v>45688.43612268518</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.44927083333</v>
+        <v>45688.44969907407</v>
       </c>
       <c r="G13" t="n">
         <v>28009</v>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,773 +454,773 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.43534722222</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.43483796297</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>15</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.43188657407</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.43162037037</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>184,184</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.43542824074</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.43164351852</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.43162037037</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.43655092592</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.43091435185</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.43790509259</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.43122685186</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.42940972222</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.43085648148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.43215277778</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.42839120371</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.44385416667</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.42649305556</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.43152777778</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.42457175926</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.42671296297</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.43047453704</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.42724537037</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.43097222222</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.42685185185</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.4240625</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.43243055556</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.42769675926</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.42576388889</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>1</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2186,21 +2186,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2208,54 +2208,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.44759259259</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2263,54 +2263,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.44222222222</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2318,54 +2318,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.43768518518</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2373,54 +2373,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.45008101852</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2428,54 +2428,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.4377662037</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2483,54 +2483,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.44276620371</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2538,54 +2538,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.43837962963</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2593,54 +2593,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.44399305555</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2648,54 +2648,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.45055555556</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2703,54 +2703,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.43748842592</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2758,54 +2758,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.43612268518</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2813,54 +2813,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.44969907407</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2868,54 +2868,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.43916666666</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>41011</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2923,35 +2923,35 @@
       <c r="F15" s="5" t="n">
         <v>45688.453125</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>41</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.4494212963</v>
+        <v>45688.4496412037</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr"/>
       <c r="O2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.4494212963</v>
+        <v>45688.4496412037</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>53009</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.44780092593</v>
+        <v>45688.45335648148</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="N4" s="0" t="inlineStr"/>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.45125</v>
+        <v>45688.45131944444</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.45145833334</v>
+        <v>45688.45194444444</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>44989</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.45125</v>
+        <v>45688.45131944444</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>44989</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.45145833334</v>
+        <v>45688.45194444444</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>44989</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.4481712963</v>
+        <v>45688.45902777778</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>11379</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.45471064815</v>
+        <v>45688.45453703704</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>82009</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.44815972223</v>
+        <v>45688.45568287037</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>82009</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.44815972223</v>
+        <v>45688.45568287037</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>82009</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.44717592592</v>
+        <v>45688.44938657407</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>22009</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.45486111111</v>
+        <v>45688.45452546296</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>43009</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.45486111111</v>
+        <v>45688.45452546296</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>43009</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45688.4516087963</v>
+        <v>45688.4515625</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>64009</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="N16" s="0" t="inlineStr"/>
       <c r="O16" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45688.44944444444</v>
+        <v>45688.44943287037</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>64009</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="N17" s="0" t="inlineStr"/>
       <c r="O17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45688.4516087963</v>
+        <v>45688.4515625</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>64009</v>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="N18" s="0" t="inlineStr"/>
       <c r="O18" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45688.44944444444</v>
+        <v>45688.44943287037</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>64009</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="N19" s="0" t="inlineStr"/>
       <c r="O19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45688.4496875</v>
+        <v>45688.45990740741</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>28009</v>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="N20" s="0" t="inlineStr"/>
       <c r="O20" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45688.45142361111</v>
+        <v>45688.45099537037</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>16009</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="N21" s="0" t="inlineStr"/>
       <c r="O21" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45688.4543287037</v>
+        <v>45688.45403935185</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>10009</v>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="N22" s="0" t="inlineStr"/>
       <c r="O22" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1705,461 +1705,461 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.46233796296</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.46184027778</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>21</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>53009</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.46233796296</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.46184027778</v>
+      </c>
+      <c r="G3" t="n">
         <v>53009</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>28009</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>21</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.4537037037</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.45863425926</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12109</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>8</v>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.45800925926</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.45851851852</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>44989</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>15</v>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>44989</v>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.46203703704</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.46208333333</v>
+      </c>
+      <c r="G6" t="n">
         <v>44989</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>10009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>20</v>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>44989</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.45800925926</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>45688.45851851852</v>
+      </c>
+      <c r="G7" t="n">
         <v>44989</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>44989</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>15</v>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>44989</v>
       </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.46203703704</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.46208333333</v>
+      </c>
+      <c r="G8" t="n">
         <v>44989</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>10009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>20</v>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>11379</v>
       </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.45883101852</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45688.4666087963</v>
+      </c>
+      <c r="G9" t="n">
         <v>11379</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>64009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>16</v>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2167,696 +2167,696 @@
       <c r="F10" s="5" t="n">
         <v>45688.46082175926</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" t="n">
         <v>82009</v>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" t="n">
         <v>43009</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" t="n">
         <v>12109</v>
       </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>19</v>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>82009</v>
       </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.45614583333</v>
-      </c>
-      <c r="G11" s="0" t="n">
+        <v>45688.4643287037</v>
+      </c>
+      <c r="G11" t="n">
         <v>82009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>22009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.4643287037</v>
+      </c>
+      <c r="G12" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>154,154</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.45964120371</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>61,61</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SMRT,SMRT</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.46378472223</v>
+      </c>
+      <c r="G14" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.46378472223</v>
+      </c>
+      <c r="G15" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>82009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>45688.4560300926</v>
+      </c>
+      <c r="G16" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>45688.45399305555</v>
+      </c>
+      <c r="G17" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.45614583333</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="F18" s="5" t="n">
+        <v>45688.4560300926</v>
+      </c>
+      <c r="G18" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M18" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>45688.45399305555</v>
+      </c>
+      <c r="G19" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>45688.44949074074</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="F20" s="5" t="n">
+        <v>45688.47072916666</v>
+      </c>
+      <c r="G20" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>151,151</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SBST,SBST</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>45688.46019675926</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M21" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>75,75</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>45688.46398148148</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="F22" s="5" t="n">
+        <v>45688.4655324074</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
+      <c r="M22" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
         <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>45688.46398148148</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D16" s="0" t="inlineStr"/>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>45688.45658564815</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr"/>
-      <c r="O16" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D17" s="0" t="inlineStr"/>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>45688.45430555556</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr"/>
-      <c r="O17" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D18" s="0" t="inlineStr"/>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>45688.45658564815</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr"/>
-      <c r="O18" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D19" s="0" t="inlineStr"/>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>45688.45430555556</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr"/>
-      <c r="O19" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr"/>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>45688.45974537037</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr"/>
-      <c r="O20" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D21" s="0" t="inlineStr"/>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>45688.46034722222</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr"/>
-      <c r="O21" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D22" s="0" t="inlineStr"/>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>45688.4650462963</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr"/>
-      <c r="O22" s="0" t="n">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2956,21 +2956,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2978,54 +2978,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.4696875</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3033,54 +3033,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.4696875</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -3088,54 +3088,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.45822916667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -3143,54 +3143,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.46233796296</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -3198,54 +3198,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.47052083333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -3253,54 +3253,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.46233796296</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -3308,54 +3308,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.47052083333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3363,54 +3363,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.46546296297</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -3418,54 +3418,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.46966435185</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3473,54 +3473,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.46417824074</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3528,54 +3528,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.46417824074</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3583,54 +3583,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.45995370371</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -3638,54 +3638,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.46907407408</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -3693,54 +3693,54 @@
       <c r="F15" s="5" t="n">
         <v>45688.46907407408</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3748,54 +3748,54 @@
       <c r="F16" s="5" t="n">
         <v>45688.46248842592</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
+      <c r="N16" s="0" t="inlineStr"/>
+      <c r="O16" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3803,54 +3803,54 @@
       <c r="F17" s="5" t="n">
         <v>45688.46293981482</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
+      <c r="N17" s="0" t="inlineStr"/>
+      <c r="O17" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3858,54 +3858,54 @@
       <c r="F18" s="5" t="n">
         <v>45688.46248842592</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
+      <c r="N18" s="0" t="inlineStr"/>
+      <c r="O18" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3913,54 +3913,54 @@
       <c r="F19" s="5" t="n">
         <v>45688.46293981482</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
+      <c r="N19" s="0" t="inlineStr"/>
+      <c r="O19" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3968,54 +3968,54 @@
       <c r="F20" s="5" t="n">
         <v>45688.47090277778</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
+      <c r="N20" s="0" t="inlineStr"/>
+      <c r="O20" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr"/>
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -4023,54 +4023,54 @@
       <c r="F21" s="5" t="n">
         <v>45688.46770833333</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
+      <c r="N21" s="0" t="inlineStr"/>
+      <c r="O21" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr"/>
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -4078,35 +4078,35 @@
       <c r="F22" s="5" t="n">
         <v>45688.471875</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
+      <c r="N22" s="0" t="inlineStr"/>
+      <c r="O22" s="0" t="n">
         <v>35</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -1705,21 +1705,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -1727,54 +1727,54 @@
       <c r="F2" s="5" t="n">
         <v>45688.46184027778</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="N2" s="0" t="inlineStr"/>
+      <c r="O2" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1782,54 +1782,54 @@
       <c r="F3" s="5" t="n">
         <v>45688.46184027778</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1837,54 +1837,54 @@
       <c r="F4" s="5" t="n">
         <v>45688.45863425926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" s="0" t="inlineStr"/>
+      <c r="O4" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1892,54 +1892,54 @@
       <c r="F5" s="5" t="n">
         <v>45688.45851851852</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" s="0" t="inlineStr"/>
+      <c r="O5" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -1947,54 +1947,54 @@
       <c r="F6" s="5" t="n">
         <v>45688.46208333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2002,54 +2002,54 @@
       <c r="F7" s="5" t="n">
         <v>45688.45851851852</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2057,54 +2057,54 @@
       <c r="F8" s="5" t="n">
         <v>45688.46208333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2112,54 +2112,54 @@
       <c r="F9" s="5" t="n">
         <v>45688.4666087963</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2167,54 +2167,54 @@
       <c r="F10" s="5" t="n">
         <v>45688.46082175926</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" s="0" t="inlineStr"/>
+      <c r="O10" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2222,54 +2222,54 @@
       <c r="F11" s="5" t="n">
         <v>45688.4643287037</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" s="0" t="inlineStr"/>
+      <c r="O11" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2277,54 +2277,54 @@
       <c r="F12" s="5" t="n">
         <v>45688.4643287037</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" s="0" t="inlineStr"/>
+      <c r="O12" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2332,54 +2332,54 @@
       <c r="F13" s="5" t="n">
         <v>45688.45964120371</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2387,54 +2387,54 @@
       <c r="F14" s="5" t="n">
         <v>45688.46378472223</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2442,54 +2442,54 @@
       <c r="F15" s="5" t="n">
         <v>45688.46378472223</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2497,54 +2497,54 @@
       <c r="F16" s="5" t="n">
         <v>45688.4560300926</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
+      <c r="N16" s="0" t="inlineStr"/>
+      <c r="O16" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2552,54 +2552,54 @@
       <c r="F17" s="5" t="n">
         <v>45688.45399305555</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
+      <c r="N17" s="0" t="inlineStr"/>
+      <c r="O17" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2607,54 +2607,54 @@
       <c r="F18" s="5" t="n">
         <v>45688.4560300926</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
+      <c r="N18" s="0" t="inlineStr"/>
+      <c r="O18" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2662,54 +2662,54 @@
       <c r="F19" s="5" t="n">
         <v>45688.45399305555</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
+      <c r="N19" s="0" t="inlineStr"/>
+      <c r="O19" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2717,54 +2717,54 @@
       <c r="F20" s="5" t="n">
         <v>45688.47072916666</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
+      <c r="N20" s="0" t="inlineStr"/>
+      <c r="O20" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr"/>
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -2772,54 +2772,54 @@
       <c r="F21" s="5" t="n">
         <v>45688.46019675926</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
+      <c r="N21" s="0" t="inlineStr"/>
+      <c r="O21" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr"/>
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -2827,35 +2827,35 @@
       <c r="F22" s="5" t="n">
         <v>45688.4655324074</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
+      <c r="N22" s="0" t="inlineStr"/>
+      <c r="O22" s="0" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2956,461 +2956,461 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.4696875</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.47033564815</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="n">
-        <v>31</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>53009</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.4696875</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.47033564815</v>
+      </c>
+      <c r="G3" t="n">
         <v>53009</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>28009</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr"/>
-      <c r="O3" s="0" t="n">
-        <v>31</v>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.45822916667</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.46233796296</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12109</v>
       </c>
-      <c r="N4" s="0" t="inlineStr"/>
-      <c r="O4" s="0" t="n">
-        <v>15</v>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>184,184</t>
         </is>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.46233796296</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.46302083333</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>44989</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="n">
-        <v>21</v>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>44989</v>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.47052083333</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.47065972222</v>
+      </c>
+      <c r="G6" t="n">
         <v>44989</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>10009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr"/>
-      <c r="O6" s="0" t="n">
-        <v>33</v>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>44989</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.46233796296</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>45688.46302083333</v>
+      </c>
+      <c r="G7" t="n">
         <v>44989</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>44989</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="n">
-        <v>21</v>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>44989</v>
       </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.47052083333</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.47065972222</v>
+      </c>
+      <c r="G8" t="n">
         <v>44989</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>10009</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
-      <c r="O8" s="0" t="n">
-        <v>33</v>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>11379</v>
       </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.46546296297</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>45688.47686342592</v>
+      </c>
+      <c r="G9" t="n">
         <v>11379</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>64009</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="n">
-        <v>25</v>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -3418,329 +3418,329 @@
       <c r="F10" s="5" t="n">
         <v>45688.46966435185</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" t="n">
         <v>82009</v>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" t="n">
         <v>43009</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" t="n">
         <v>12109</v>
       </c>
-      <c r="N10" s="0" t="inlineStr"/>
-      <c r="O10" s="0" t="n">
-        <v>31</v>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>82009</v>
       </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.46417824074</v>
-      </c>
-      <c r="G11" s="0" t="n">
+        <v>45688.47101851852</v>
+      </c>
+      <c r="G11" t="n">
         <v>82009</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>22009</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="n">
-        <v>23</v>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>82009</v>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.46417824074</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>45688.47101851852</v>
+      </c>
+      <c r="G12" t="n">
         <v>82009</v>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>22009</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
-      <c r="O12" s="0" t="n">
-        <v>23</v>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>154,154</t>
         </is>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>22009</v>
       </c>
-      <c r="D13" s="0" t="inlineStr"/>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.45995370371</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>45688.46445601852</v>
+      </c>
+      <c r="G13" t="n">
         <v>22009</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>82009</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="n">
-        <v>17</v>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>61,61</t>
         </is>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" t="n">
         <v>43009</v>
       </c>
-      <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.46907407408</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>45688.46873842592</v>
+      </c>
+      <c r="G14" t="n">
         <v>43009</v>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>82009</v>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" t="n">
         <v>12101</v>
       </c>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="n">
-        <v>31</v>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" t="n">
         <v>43009</v>
       </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.46907407408</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>45688.46873842592</v>
+      </c>
+      <c r="G15" t="n">
         <v>43009</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>82009</v>
       </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" t="n">
         <v>12101</v>
       </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="n">
-        <v>31</v>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" t="n">
         <v>64009</v>
       </c>
-      <c r="D16" s="0" t="inlineStr"/>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
@@ -3748,109 +3748,109 @@
       <c r="F16" s="5" t="n">
         <v>45688.46248842592</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" t="n">
         <v>64009</v>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" t="n">
         <v>16009</v>
       </c>
-      <c r="L16" s="0" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" t="n">
         <v>12101</v>
       </c>
-      <c r="N16" s="0" t="inlineStr"/>
-      <c r="O16" s="0" t="n">
-        <v>21</v>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>74,74</t>
         </is>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" t="n">
         <v>64009</v>
       </c>
-      <c r="D17" s="0" t="inlineStr"/>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45688.46293981482</v>
-      </c>
-      <c r="G17" s="0" t="n">
+        <v>45688.46373842593</v>
+      </c>
+      <c r="G17" t="n">
         <v>64009</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>11379</v>
       </c>
-      <c r="L17" s="0" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" t="n">
         <v>12101</v>
       </c>
-      <c r="N17" s="0" t="inlineStr"/>
-      <c r="O17" s="0" t="n">
-        <v>22</v>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" t="n">
         <v>64009</v>
       </c>
-      <c r="D18" s="0" t="inlineStr"/>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -3858,219 +3858,219 @@
       <c r="F18" s="5" t="n">
         <v>45688.46248842592</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" t="n">
         <v>64009</v>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" t="n">
         <v>16009</v>
       </c>
-      <c r="L18" s="0" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" t="n">
         <v>12101</v>
       </c>
-      <c r="N18" s="0" t="inlineStr"/>
-      <c r="O18" s="0" t="n">
-        <v>21</v>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" t="n">
         <v>64009</v>
       </c>
-      <c r="D19" s="0" t="inlineStr"/>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45688.46293981482</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v>45688.46373842593</v>
+      </c>
+      <c r="G19" t="n">
         <v>64009</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
         <v>11379</v>
       </c>
-      <c r="L19" s="0" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" t="n">
         <v>12101</v>
       </c>
-      <c r="N19" s="0" t="inlineStr"/>
-      <c r="O19" s="0" t="n">
-        <v>22</v>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>52,52</t>
         </is>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" t="n">
         <v>28009</v>
       </c>
-      <c r="D20" s="0" t="inlineStr"/>
-      <c r="E20" s="0" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45688.47090277778</v>
-      </c>
-      <c r="G20" s="0" t="n">
+        <v>45688.47725694445</v>
+      </c>
+      <c r="G20" t="n">
         <v>28009</v>
       </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>53009</v>
       </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>12109</v>
       </c>
-      <c r="N20" s="0" t="inlineStr"/>
-      <c r="O20" s="0" t="n">
-        <v>33</v>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>151,151</t>
         </is>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" t="n">
         <v>16009</v>
       </c>
-      <c r="D21" s="0" t="inlineStr"/>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>SBST,SBST</t>
         </is>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45688.46770833333</v>
-      </c>
-      <c r="G21" s="0" t="n">
+        <v>45688.46767361111</v>
+      </c>
+      <c r="G21" t="n">
         <v>16009</v>
       </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
         <v>64009</v>
       </c>
-      <c r="L21" s="0" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" t="n">
         <v>12109</v>
       </c>
-      <c r="N21" s="0" t="inlineStr"/>
-      <c r="O21" s="0" t="n">
-        <v>29</v>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>75,75</t>
         </is>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" t="n">
         <v>10009</v>
       </c>
-      <c r="D22" s="0" t="inlineStr"/>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>SMRT,SMRT</t>
         </is>
@@ -4078,36 +4078,36 @@
       <c r="F22" s="5" t="n">
         <v>45688.471875</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" t="n">
         <v>10009</v>
       </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" t="n">
         <v>44989</v>
       </c>
-      <c r="L22" s="0" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" t="n">
         <v>12109</v>
       </c>
-      <c r="N22" s="0" t="inlineStr"/>
-      <c r="O22" s="0" t="n">
-        <v>35</v>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,24 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Bishan Int</t>
+        </is>
+      </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.4496412037</v>
+        <v>45688.46130787037</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -503,7 +505,11 @@
       <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O2" s="0" t="n">
         <v>0</v>
       </c>
@@ -514,25 +520,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
+        <v>44989</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.4496412037</v>
+        <v>45688.46288194445</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>53009</v>
+        <v>44989</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
@@ -548,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>28009</v>
+        <v>44989</v>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
@@ -556,11 +564,15 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N3" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -569,22 +581,24 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.45335648148</v>
+        <v>45688.46192129629</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -607,15 +621,19 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
+        <v>12101</v>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O4" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -624,22 +642,24 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.45131944444</v>
+        <v>45688.46247685186</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -658,19 +678,23 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>44989</v>
+        <v>10009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -679,25 +703,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
+        <v>11379</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.45194444444</v>
+        <v>45688.46646990741</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -713,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>10009</v>
+        <v>64009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
@@ -721,11 +747,15 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -734,25 +764,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
+        <v>82009</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.45131944444</v>
+        <v>45688.46251157407</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -768,19 +800,23 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>44989</v>
+        <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -789,25 +825,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
+        <v>82009</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.45194444444</v>
+        <v>45688.46359953703</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -823,19 +861,23 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>10009</v>
+        <v>22009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -844,25 +886,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>154</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
+        <v>22009</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.45902777778</v>
+        <v>45688.46416666666</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -878,19 +922,23 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O9" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -899,53 +947,59 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.46226851852</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.45453703704</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>43009</v>
-      </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
       <c r="M10" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
+        <v>12101</v>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O10" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -954,25 +1008,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>151</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
+        <v>64009</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.45568287037</v>
+        <v>45688.46346064815</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
@@ -988,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>22009</v>
+        <v>16009</v>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
@@ -998,9 +1054,13 @@
       <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O11" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1009,25 +1069,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
+        <v>64009</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.45568287037</v>
+        <v>45688.46346064815</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
@@ -1043,19 +1105,23 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>22009</v>
+        <v>11379</v>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O12" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1064,25 +1130,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
+        <v>28009</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.44938657407</v>
+        <v>45688.47076388889</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>22009</v>
+        <v>28009</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -1098,19 +1166,23 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>82009</v>
+        <v>53009</v>
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O13" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1119,25 +1191,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
+        <v>16009</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.45452546296</v>
+        <v>45688.46579861111</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>43009</v>
+        <v>16009</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -1153,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
@@ -1161,11 +1235,15 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O14" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1174,25 +1252,27 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.45452546296</v>
+        <v>45688.46513888889</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>43009</v>
+        <v>10009</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -1208,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
@@ -1216,396 +1296,15 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O15" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D16" s="0" t="inlineStr"/>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>45688.4515625</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr"/>
-      <c r="O16" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D17" s="0" t="inlineStr"/>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>45688.44943287037</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr"/>
-      <c r="O17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D18" s="0" t="inlineStr"/>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>45688.4515625</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr"/>
-      <c r="O18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D19" s="0" t="inlineStr"/>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>45688.44943287037</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr"/>
-      <c r="O19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr"/>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>45688.45990740741</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr"/>
-      <c r="O20" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D21" s="0" t="inlineStr"/>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>45688.45099537037</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr"/>
-      <c r="O21" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D22" s="0" t="inlineStr"/>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>45688.45403935185</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr"/>
-      <c r="O22" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,22 +1409,24 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Bishan Int</t>
+        </is>
+      </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.46184027778</v>
+        <v>45688.470625</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1748,15 +1449,19 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr"/>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O2" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1765,25 +1470,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
+        <v>44989</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.46184027778</v>
+        <v>45688.47074074074</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>53009</v>
+        <v>44989</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
@@ -1799,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>28009</v>
+        <v>44989</v>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
@@ -1807,11 +1514,15 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N3" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O3" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1820,22 +1531,24 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.45863425926</v>
+        <v>45688.46851851852</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1862,11 +1575,15 @@
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr"/>
+        <v>12101</v>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O4" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1875,22 +1592,24 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.45851851852</v>
+        <v>45688.47167824074</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1909,19 +1628,23 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>44989</v>
+        <v>10009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr"/>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O5" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1930,25 +1653,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
+        <v>11379</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.46208333333</v>
+        <v>45688.47679398148</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1964,19 +1689,23 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>10009</v>
+        <v>64009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O6" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1985,25 +1714,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
+        <v>82009</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.45851851852</v>
+        <v>45688.47287037037</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -2019,19 +1750,23 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>44989</v>
+        <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O7" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -2040,25 +1775,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
+        <v>82009</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.46208333333</v>
+        <v>45688.46923611111</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -2074,19 +1811,23 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>10009</v>
+        <v>22009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr"/>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O8" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2095,25 +1836,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>154</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
+        <v>22009</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.4666087963</v>
+        <v>45688.47512731481</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -2129,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
@@ -2139,9 +1882,13 @@
       <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" s="0" t="inlineStr"/>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O9" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -2150,53 +1897,59 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.46993055556</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.46082175926</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>43009</v>
-      </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
       <c r="M10" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr"/>
+        <v>12101</v>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O10" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -2205,25 +1958,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>151</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
+        <v>64009</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.4643287037</v>
+        <v>45688.47363425926</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
@@ -2236,22 +1991,26 @@
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>22009</v>
+        <v>16009</v>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" s="0" t="inlineStr"/>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O11" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2260,25 +2019,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
+        <v>64009</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.4643287037</v>
+        <v>45688.47266203703</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
@@ -2294,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>22009</v>
+        <v>11379</v>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
@@ -2304,9 +2065,13 @@
       <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" s="0" t="inlineStr"/>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O12" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -2315,25 +2080,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
+        <v>28009</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.45964120371</v>
+        <v>45688.47923611111</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>22009</v>
+        <v>28009</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -2349,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>82009</v>
+        <v>53009</v>
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
@@ -2359,9 +2126,13 @@
       <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" s="0" t="inlineStr"/>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O13" s="0" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2370,25 +2141,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
+        <v>16009</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.46378472223</v>
+        <v>45688.47277777778</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>43009</v>
+        <v>16009</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -2404,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
@@ -2412,11 +2185,15 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O14" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2425,25 +2202,27 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.46378472223</v>
+        <v>45688.47116898148</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>43009</v>
+        <v>10009</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -2459,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
@@ -2467,396 +2246,15 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O15" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D16" s="0" t="inlineStr"/>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>45688.4560300926</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr"/>
-      <c r="O16" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D17" s="0" t="inlineStr"/>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>45688.45399305555</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr"/>
-      <c r="O17" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D18" s="0" t="inlineStr"/>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>45688.4560300926</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr"/>
-      <c r="O18" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D19" s="0" t="inlineStr"/>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>45688.45399305555</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr"/>
-      <c r="O19" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr"/>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>45688.47072916666</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr"/>
-      <c r="O20" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D21" s="0" t="inlineStr"/>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>45688.46019675926</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr"/>
-      <c r="O21" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D22" s="0" t="inlineStr"/>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>45688.4655324074</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr"/>
-      <c r="O22" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,22 +2359,24 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
+      <c r="B2" t="n">
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bishan Int</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.47033564815</v>
+        <v>45688.47989583333</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -3005,9 +2405,13 @@
       <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -3016,25 +2420,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="B3" t="n">
+        <v>184</v>
       </c>
       <c r="C3" t="n">
-        <v>53009</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.47033564815</v>
+        <v>45688.47313657407</v>
       </c>
       <c r="G3" t="n">
-        <v>53009</v>
+        <v>44989</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3050,19 +2456,23 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>28009</v>
+        <v>44989</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O3" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -3071,22 +2481,24 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B4" t="n">
+        <v>184</v>
       </c>
       <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.46233796296</v>
+        <v>45688.473125</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -3113,11 +2525,15 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -3126,22 +2542,24 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B5" t="n">
+        <v>75</v>
       </c>
       <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.46302083333</v>
+        <v>45688.48277777778</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -3160,19 +2578,23 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>44989</v>
+        <v>10009</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -3181,25 +2603,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
+      <c r="B6" t="n">
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.47065972222</v>
+        <v>45688.48474537037</v>
       </c>
       <c r="G6" t="n">
-        <v>44989</v>
+        <v>11379</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3215,19 +2639,23 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>10009</v>
+        <v>64009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -3236,25 +2664,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="B7" t="n">
+        <v>61</v>
       </c>
       <c r="C7" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.46302083333</v>
+        <v>45688.47799768519</v>
       </c>
       <c r="G7" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3267,22 +2697,26 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>44989</v>
+        <v>43009</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -3291,25 +2725,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="B8" t="n">
+        <v>154</v>
       </c>
       <c r="C8" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.47065972222</v>
+        <v>45688.48197916667</v>
       </c>
       <c r="G8" t="n">
-        <v>44989</v>
+        <v>82009</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3325,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>10009</v>
+        <v>22009</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -3335,9 +2771,13 @@
       <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -3346,25 +2786,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
+      <c r="B9" t="n">
+        <v>154</v>
       </c>
       <c r="C9" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.47686342592</v>
+        <v>45688.4886574074</v>
       </c>
       <c r="G9" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3380,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -3390,9 +2832,13 @@
       <c r="M9" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -3401,53 +2847,59 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B10" t="n">
+        <v>61</v>
       </c>
       <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.48436342592</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>82009</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.46966435185</v>
-      </c>
-      <c r="G10" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>43009</v>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -3456,25 +2908,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B11" t="n">
+        <v>151</v>
       </c>
       <c r="C11" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.47101851852</v>
+        <v>45688.48104166667</v>
       </c>
       <c r="G11" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3487,22 +2941,26 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>22009</v>
+        <v>16009</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -3511,25 +2969,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
+      <c r="B12" t="n">
+        <v>74</v>
       </c>
       <c r="C12" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.47101851852</v>
+        <v>45688.47774305556</v>
       </c>
       <c r="G12" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3542,10 +3002,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>22009</v>
+        <v>11379</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -3555,9 +3015,13 @@
       <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O12" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -3566,25 +3030,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B13" t="n">
+        <v>52</v>
       </c>
       <c r="C13" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.46445601852</v>
+        <v>45688.48891203704</v>
       </c>
       <c r="G13" t="n">
-        <v>22009</v>
+        <v>28009</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3597,10 +3063,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>82009</v>
+        <v>53009</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -3610,9 +3076,13 @@
       <c r="M13" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -3621,25 +3091,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B14" t="n">
+        <v>151</v>
       </c>
       <c r="C14" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.46873842592</v>
+        <v>45688.4834837963</v>
       </c>
       <c r="G14" t="n">
-        <v>43009</v>
+        <v>16009</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3655,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -3663,11 +3135,15 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O14" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -3676,25 +3152,27 @@
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="B15" t="n">
+        <v>75</v>
       </c>
       <c r="C15" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.46873842592</v>
+        <v>45688.48101851852</v>
       </c>
       <c r="G15" t="n">
-        <v>43009</v>
+        <v>10009</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3710,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -3718,396 +3196,15 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>12109</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
       <c r="O15" t="n">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>45688.46248842592</v>
-      </c>
-      <c r="G16" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>45688.46373842593</v>
-      </c>
-      <c r="G17" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>45688.46248842592</v>
-      </c>
-      <c r="G18" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>45688.46373842593</v>
-      </c>
-      <c r="G19" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>45688.47725694445</v>
-      </c>
-      <c r="G20" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SBST,SBST</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>45688.46767361111</v>
-      </c>
-      <c r="G21" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SMRT,SMRT</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>45688.471875</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,430 +454,430 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.60650462963</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.60668981481</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O2" s="0" t="n">
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.60585648148</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.6140162037</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.60435185185</v>
+      </c>
+      <c r="G5" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.62104166667</v>
+      </c>
+      <c r="G6" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>151</v>
+      </c>
+      <c r="C7" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.61545138889</v>
+      </c>
+      <c r="G7" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.60767361111</v>
+      </c>
+      <c r="G8" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.60550925926</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N3" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.61478009259</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.6046412037</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.60287037037</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.60436342593</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.60605324074</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1500,23 +1500,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1524,60 +1524,60 @@
       <c r="F2" s="5" t="n">
         <v>45688.61589120371</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
+      <c r="M2" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1585,60 +1585,60 @@
       <c r="F3" s="5" t="n">
         <v>45688.61184027778</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
+      <c r="M3" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1646,60 +1646,60 @@
       <c r="F4" s="5" t="n">
         <v>45688.62353009259</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
+      <c r="M4" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1707,60 +1707,60 @@
       <c r="F5" s="5" t="n">
         <v>45688.61850694445</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
+      <c r="M5" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1768,60 +1768,60 @@
       <c r="F6" s="5" t="n">
         <v>45688.6209837963</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
+      <c r="M6" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1829,60 +1829,60 @@
       <c r="F7" s="5" t="n">
         <v>45688.61545138889</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
+      <c r="M7" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1890,39 +1890,39 @@
       <c r="F8" s="5" t="n">
         <v>45688.60833333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
+      <c r="M8" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>18</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,23 +454,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -478,60 +478,60 @@
       <c r="F2" s="5" t="n">
         <v>45688.60668981481</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -539,60 +539,60 @@
       <c r="F3" s="5" t="n">
         <v>45688.60585648148</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -600,60 +600,60 @@
       <c r="F4" s="5" t="n">
         <v>45688.6140162037</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -661,60 +661,60 @@
       <c r="F5" s="5" t="n">
         <v>45688.60435185185</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -722,60 +722,60 @@
       <c r="F6" s="5" t="n">
         <v>45688.62104166667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -783,60 +783,60 @@
       <c r="F7" s="5" t="n">
         <v>45688.61545138889</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -844,39 +844,39 @@
       <c r="F8" s="5" t="n">
         <v>45688.60767361111</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61589120371</v>
+        <v>45688.6156712963</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61184027778</v>
+        <v>45688.6112037037</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62353009259</v>
+        <v>45688.62405092592</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61850694445</v>
+        <v>45688.61787037037</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1227,26 +1227,26 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Hougang Ctrl Int</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.6209837963</v>
+        <v>45688.62586805555</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1259,14 +1259,14 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>82009</v>
+        <v>16009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>64009</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.61545138889</v>
+        <v>45688.61518518518</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>64009</v>
@@ -1323,11 +1323,11 @@
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>16009</v>
+        <v>11379</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -1339,68 +1339,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.60833333333</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1500,430 +1439,369 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61589120371</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.6156712963</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>29</v>
+      <c r="O2" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61184027778</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.6112037037</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>23</v>
+      <c r="O3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62353009259</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.62405092592</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>40</v>
+      <c r="O4" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61850694445</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.61787037037</v>
+      </c>
+      <c r="G5" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>33</v>
+      <c r="O5" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
+      <c r="B6" t="n">
+        <v>151</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.6209837963</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
+        <v>45688.62586805555</v>
+      </c>
+      <c r="G6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>36</v>
+      <c r="O6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" t="n">
+        <v>74</v>
+      </c>
+      <c r="C7" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.61545138889</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>45688.61518518518</v>
+      </c>
+      <c r="G7" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="K7" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.60833333333</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>18</v>
+      <c r="O7" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,145 +454,145 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.60668981481</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.60689814815</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>14</v>
+      <c r="O2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.60585648148</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.6058449074</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>13</v>
+      <c r="O3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -600,284 +600,284 @@
       <c r="F4" s="5" t="n">
         <v>45688.6140162037</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>25</v>
+      <c r="O4" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.60435185185</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.60388888889</v>
+      </c>
+      <c r="G5" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>11</v>
+      <c r="O5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" t="n">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62104166667</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.62048611111</v>
+      </c>
+      <c r="G6" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>35</v>
+      <c r="O6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" t="n">
         <v>151</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.61545138889</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>45688.62586805555</v>
+      </c>
+      <c r="G7" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>27</v>
+      <c r="O7" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" t="n">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.60767361111</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>45688.60770833334</v>
+      </c>
+      <c r="G8" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>16</v>
+      <c r="O8" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1439,23 +1439,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1463,60 +1463,60 @@
       <c r="F2" s="5" t="n">
         <v>45688.6156712963</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1524,60 +1524,60 @@
       <c r="F3" s="5" t="n">
         <v>45688.6112037037</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1585,60 +1585,60 @@
       <c r="F4" s="5" t="n">
         <v>45688.62405092592</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1646,60 +1646,60 @@
       <c r="F5" s="5" t="n">
         <v>45688.61787037037</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1707,60 +1707,60 @@
       <c r="F6" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1768,39 +1768,39 @@
       <c r="F7" s="5" t="n">
         <v>45688.61518518518</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>26</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,23 +454,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -478,60 +478,60 @@
       <c r="F2" s="5" t="n">
         <v>45688.60689814815</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -539,60 +539,60 @@
       <c r="F3" s="5" t="n">
         <v>45688.6058449074</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -600,60 +600,60 @@
       <c r="F4" s="5" t="n">
         <v>45688.6140162037</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -661,60 +661,60 @@
       <c r="F5" s="5" t="n">
         <v>45688.60388888889</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -722,60 +722,60 @@
       <c r="F6" s="5" t="n">
         <v>45688.62048611111</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -783,60 +783,60 @@
       <c r="F7" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -844,39 +844,39 @@
       <c r="F8" s="5" t="n">
         <v>45688.60770833334</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.6156712963</v>
+        <v>45688.61592592593</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.6112037037</v>
+        <v>45688.61098379629</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62405092592</v>
+        <v>45688.62466435185</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61787037037</v>
+        <v>45688.61802083333</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>64009</v>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62586805555</v>
+        <v>45688.61518518518</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>64009</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>16009</v>
+        <v>11379</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
@@ -1278,68 +1278,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.61518518518</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,369 +1378,308 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.6156712963</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.61592592593</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>27</v>
+      <c r="O2" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.6112037037</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>45688.61098379629</v>
+      </c>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>21</v>
+      <c r="O3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62405092592</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.62466435185</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>39</v>
+      <c r="O4" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61787037037</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.61802083333</v>
+      </c>
+      <c r="G5" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>30</v>
+      <c r="O5" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
         <v>64009</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62586805555</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>45688.61518518518</v>
+      </c>
+      <c r="G6" t="n">
         <v>64009</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SEA</t>
         </is>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="K6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.61518518518</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>26</v>
+      <c r="O6" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.60689814815</v>
+        <v>45688.60628472222</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.6058449074</v>
+        <v>45688.61091435186</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.6140162037</v>
+        <v>45688.61371527778</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.60388888889</v>
+        <v>45688.61773148148</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62048611111</v>
+        <v>45688.62018518519</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>43009</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.62586805555</v>
+        <v>45688.61545138889</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>64009</v>
@@ -804,7 +804,7 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.60770833334</v>
+        <v>45688.60774305555</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>64009</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61592592593</v>
+        <v>45688.61583333334</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61098379629</v>
+        <v>45688.61922453704</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62466435185</v>
+        <v>45688.62368055555</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61802083333</v>
+        <v>45688.62696759259</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>64009</v>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.61518518518</v>
+        <v>45688.62586805555</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>64009</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>11379</v>
+        <v>16009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
@@ -1278,7 +1278,68 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>25</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.61568287037</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1400,7 +1461,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61592592593</v>
+        <v>45688.61583333334</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -1435,7 +1496,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1461,7 +1522,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61098379629</v>
+        <v>45688.61922453704</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1496,7 +1557,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1522,7 +1583,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62466435185</v>
+        <v>45688.62368055555</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -1557,7 +1618,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1583,7 +1644,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61802083333</v>
+        <v>45688.62696759259</v>
       </c>
       <c r="G5" t="n">
         <v>82009</v>
@@ -1618,7 +1679,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1628,7 +1689,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n">
         <v>64009</v>
@@ -1644,7 +1705,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.61518518518</v>
+        <v>45688.62586805555</v>
       </c>
       <c r="G6" t="n">
         <v>64009</v>
@@ -1663,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11379</v>
+        <v>16009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1679,7 +1740,68 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>25</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.61568287037</v>
+      </c>
+      <c r="G7" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.60628472222</v>
+        <v>45688.60606481481</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61091435186</v>
+        <v>45688.61067129629</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.61371527778</v>
+        <v>45688.62363425926</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61773148148</v>
+        <v>45688.61738425926</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62018518519</v>
+        <v>45688.6203125</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>43009</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.60774305555</v>
+        <v>45688.60832175926</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>64009</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="O8" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61583333334</v>
+        <v>45688.61621527778</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="O2" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61922453704</v>
+        <v>45688.61872685186</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62368055555</v>
+        <v>45688.62981481481</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>10009</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.62696759259</v>
+        <v>45688.6275</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>82009</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1227,26 +1227,26 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Bt Batok Int</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62586805555</v>
+        <v>45688.63138888889</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1259,14 +1259,14 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>16009</v>
+        <v>82009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>64009</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.61568287037</v>
+        <v>45688.62586805555</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>64009</v>
@@ -1320,26 +1320,87 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.61626157408</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>24</v>
+      <c r="M8" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1522,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61583333334</v>
+        <v>45688.61621527778</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -1496,7 +1557,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1522,7 +1583,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.61922453704</v>
+        <v>45688.61872685186</v>
       </c>
       <c r="G3" t="n">
         <v>44989</v>
@@ -1557,7 +1618,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1583,7 +1644,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62368055555</v>
+        <v>45688.62981481481</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -1599,7 +1660,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>10009</v>
@@ -1618,7 +1679,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1644,7 +1705,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.62696759259</v>
+        <v>45688.6275</v>
       </c>
       <c r="G5" t="n">
         <v>82009</v>
@@ -1679,7 +1740,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1689,26 +1750,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Bt Batok Int</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.62586805555</v>
+        <v>45688.63138888889</v>
       </c>
       <c r="G6" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1721,14 +1782,14 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>16009</v>
+        <v>82009</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -1740,7 +1801,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1750,7 +1811,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n">
         <v>64009</v>
@@ -1766,7 +1827,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.61568287037</v>
+        <v>45688.62586805555</v>
       </c>
       <c r="G7" t="n">
         <v>64009</v>
@@ -1782,26 +1843,87 @@
         </is>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.61626157408</v>
+      </c>
+      <c r="G8" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>11379</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>24</v>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.60606481481</v>
+        <v>45688.60634259259</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -510,8 +510,10 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>7</v>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -536,9 +538,7 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.61067129629</v>
-      </c>
+      <c r="F3" s="0" t="inlineStr"/>
       <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
@@ -564,16 +564,14 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N3" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>14</v>
-      </c>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -582,7 +580,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
@@ -598,7 +596,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.62363425926</v>
+        <v>45688.61100694445</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -617,11 +615,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10009</v>
+        <v>44989</v>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -632,8 +630,10 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>32</v>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -643,26 +643,26 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.61738425926</v>
+        <v>45688.62333333334</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>82009</v>
+        <v>44989</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -678,11 +678,11 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>22009</v>
+        <v>10009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
@@ -693,8 +693,10 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>23</v>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -704,26 +706,24 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.6203125</v>
-      </c>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr"/>
       <c r="G6" s="0" t="n">
-        <v>43009</v>
+        <v>11379</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -739,24 +739,22 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>82009</v>
+        <v>64009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>28</v>
-      </c>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -765,26 +763,24 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.61545138889</v>
-      </c>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr"/>
       <c r="G7" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -800,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>16009</v>
+        <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
@@ -808,16 +804,14 @@
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>21</v>
-      </c>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -826,14 +820,14 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Eunos Int</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -842,10 +836,10 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.60832175926</v>
+        <v>45688.61747685185</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>64009</v>
+        <v>82009</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -861,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>11379</v>
+        <v>22009</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
@@ -876,9 +870,428 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>10</v>
-      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.62033564815</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.61545138889</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.60851851852</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -891,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,431 +1390,787 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61621527778</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.61649305555</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>22</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.61872685186</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.61891203704</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F5" s="5" t="n">
         <v>45688.62981481481</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K5" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.6275</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F8" s="5" t="n">
+        <v>45688.6271412037</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C10" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.63138888889</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F10" s="5" t="n">
+        <v>45688.63123842593</v>
+      </c>
+      <c r="G10" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K10" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M10" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B11" t="n">
         <v>151</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F11" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K11" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B12" t="n">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.61626157408</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F12" s="5" t="n">
+        <v>45688.61599537037</v>
+      </c>
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>22</v>
-      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1500,23 +2269,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1524,60 +2293,60 @@
       <c r="F2" s="5" t="n">
         <v>45688.61621527778</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1585,60 +2354,60 @@
       <c r="F3" s="5" t="n">
         <v>45688.61872685186</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1646,60 +2415,60 @@
       <c r="F4" s="5" t="n">
         <v>45688.62981481481</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1707,60 +2476,60 @@
       <c r="F5" s="5" t="n">
         <v>45688.6275</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1768,60 +2537,60 @@
       <c r="F6" s="5" t="n">
         <v>45688.63138888889</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1829,60 +2598,60 @@
       <c r="F7" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1890,39 +2659,39 @@
       <c r="F8" s="5" t="n">
         <v>45688.61626157408</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>22</v>
       </c>
     </row>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -1390,23 +1390,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1414,119 +1414,119 @@
       <c r="F2" s="5" t="n">
         <v>45688.61649305555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1534,62 +1534,62 @@
       <c r="F4" s="5" t="n">
         <v>45688.61891203704</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="0" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1597,176 +1597,176 @@
       <c r="F5" s="5" t="n">
         <v>45688.62981481481</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1774,119 +1774,119 @@
       <c r="F8" s="5" t="n">
         <v>45688.6271412037</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1894,62 +1894,62 @@
       <c r="F10" s="5" t="n">
         <v>45688.63123842593</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="0" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1957,62 +1957,62 @@
       <c r="F11" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2020,157 +2020,157 @@
       <c r="F12" s="5" t="n">
         <v>45688.61599537037</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="0" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2183,7 +2183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,431 +2269,787 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61621527778</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.61649305555</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>22</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>45688.61872685186</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.61891203704</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F5" s="5" t="n">
         <v>45688.62981481481</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K5" t="n">
         <v>10009</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M5" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C8" t="n">
         <v>82009</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.6275</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F8" s="5" t="n">
+        <v>45688.6271412037</v>
+      </c>
+      <c r="G8" t="n">
         <v>82009</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K8" t="n">
         <v>22009</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C10" t="n">
         <v>43009</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>45688.63138888889</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F10" s="5" t="n">
+        <v>45688.63123842593</v>
+      </c>
+      <c r="G10" t="n">
         <v>43009</v>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K10" t="n">
         <v>82009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M10" t="n">
         <v>12101</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B11" t="n">
         <v>151</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C11" t="n">
         <v>64009</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F11" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G11" t="n">
         <v>64009</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K11" t="n">
         <v>16009</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M11" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B12" t="n">
         <v>74</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C12" t="n">
         <v>64009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.61626157408</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F12" s="5" t="n">
+        <v>45688.61599537037</v>
+      </c>
+      <c r="G12" t="n">
         <v>64009</v>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M12" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>22</v>
-      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,844 +454,844 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.60634259259</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.68456018518</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.67709490741</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
-      <c r="G3" s="0" t="n">
+      <c r="F5" s="5" t="n">
+        <v>45688.69072916666</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.68402777778</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.68505787037</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.68204861111</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.68616898148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.61100694445</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.62333333334</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr"/>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr"/>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.61747685185</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr"/>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.62033564815</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.61545138889</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.60851851852</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O13" s="0" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr"/>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus2</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr"/>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O15" s="0" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2269,23 +2269,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2293,119 +2293,119 @@
       <c r="F2" s="5" t="n">
         <v>45688.61649305555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2413,62 +2413,62 @@
       <c r="F4" s="5" t="n">
         <v>45688.61891203704</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="0" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2476,176 +2476,176 @@
       <c r="F5" s="5" t="n">
         <v>45688.62981481481</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2653,119 +2653,119 @@
       <c r="F8" s="5" t="n">
         <v>45688.6271412037</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2773,62 +2773,62 @@
       <c r="F10" s="5" t="n">
         <v>45688.63123842593</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="0" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2836,62 +2836,62 @@
       <c r="F11" s="5" t="n">
         <v>45688.62586805555</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2899,157 +2899,157 @@
       <c r="F12" s="5" t="n">
         <v>45688.61599537037</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="0" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,23 +454,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -478,119 +478,119 @@
       <c r="F2" s="5" t="n">
         <v>45688.68456018518</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -598,62 +598,62 @@
       <c r="F4" s="5" t="n">
         <v>45688.67709490741</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="0" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -661,176 +661,176 @@
       <c r="F5" s="5" t="n">
         <v>45688.69072916666</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -838,119 +838,119 @@
       <c r="F8" s="5" t="n">
         <v>45688.68402777778</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -958,62 +958,62 @@
       <c r="F10" s="5" t="n">
         <v>45688.68505787037</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="0" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1021,62 +1021,62 @@
       <c r="F11" s="5" t="n">
         <v>45688.68204861111</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1084,214 +1084,214 @@
       <c r="F12" s="5" t="n">
         <v>45688.68616898148</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="0" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61649305555</v>
+        <v>45688.69273148148</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.61891203704</v>
+        <v>45688.6842824074</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.62981481481</v>
+        <v>45688.69748842593</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>10009</v>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.6271412037</v>
+        <v>45688.6962037037</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O8" s="0" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.63123842593</v>
+        <v>45688.6997337963</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.62586805555</v>
+        <v>45688.68703703704</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.61599537037</v>
+        <v>45688.69039351852</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -2034,14 +2034,14 @@
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="O12" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -2122,24 +2122,24 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>10009</v>
+        <v>16009</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Bt Merah Int</t>
+          <t>Kent Ridge Ter</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr"/>
       <c r="G14" s="0" t="n">
-        <v>10009</v>
+        <v>16009</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>44989</v>
+        <v>64009</v>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
@@ -2269,787 +2269,787 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.61649305555</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.69273148148</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>21</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
-      <c r="G3" s="0" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>184</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.61891203704</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>45688.6842824074</v>
+      </c>
+      <c r="G4" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t>24</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.62981481481</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>45688.69748842593</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.6962037037</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.6997337963</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.68703703704</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>74</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.69039351852</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr"/>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr"/>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.6271412037</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr"/>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.63123842593</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.62586805555</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.61599537037</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O13" s="0" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr"/>
-      <c r="G14" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.68456018518</v>
+        <v>45688.68462962963</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -512,7 +512,7 @@
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.67709490741</v>
+        <v>45688.68417824074</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -632,7 +632,7 @@
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.69072916666</v>
+        <v>45688.69063657407</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43009</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.68402777778</v>
+        <v>45688.68344907407</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="O8" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.68505787037</v>
+        <v>45688.685</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.68204861111</v>
+        <v>45688.68221064815</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.68616898148</v>
+        <v>45688.68560185185</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="O12" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>44989</v>
@@ -1304,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.69273148148</v>
+        <v>45688.69228009259</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.6842824074</v>
+        <v>45688.68792824074</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.69748842593</v>
+        <v>45688.6971875</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.6962037037</v>
+        <v>45688.69637731482</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O8" s="0" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.6997337963</v>
+        <v>45688.69920138889</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.68703703704</v>
+        <v>45688.68884259259</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>16009</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.69039351852</v>
+        <v>45688.69226851852</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>11379</v>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="O12" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2171,6 +2171,63 @@
         </is>
       </c>
       <c r="O14" s="0" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2183,7 +2240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,7 +2348,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.69273148148</v>
+        <v>45688.69228009259</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2327,7 +2384,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2468,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.6842824074</v>
+        <v>45688.68792824074</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2447,7 +2504,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2531,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.69748842593</v>
+        <v>45688.6971875</v>
       </c>
       <c r="G5" t="n">
         <v>44989</v>
@@ -2510,7 +2567,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2615,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -2651,7 +2708,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.6962037037</v>
+        <v>45688.69637731482</v>
       </c>
       <c r="G8" t="n">
         <v>82009</v>
@@ -2687,7 +2744,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2828,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.6997337963</v>
+        <v>45688.69920138889</v>
       </c>
       <c r="G10" t="n">
         <v>43009</v>
@@ -2807,7 +2864,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2891,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.68703703704</v>
+        <v>45688.68884259259</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2850,7 +2907,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>16009</v>
@@ -2870,7 +2927,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2954,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.69039351852</v>
+        <v>45688.69226851852</v>
       </c>
       <c r="G12" t="n">
         <v>64009</v>
@@ -2913,7 +2970,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>11379</v>
@@ -2933,7 +2990,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3050,6 +3107,63 @@
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.90326388889</v>
+        <v>45688.9016550926</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -512,14 +512,14 @@
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="M3" s="0" t="n">
@@ -576,7 +576,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.90146990741</v>
+        <v>45688.90100694444</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -632,14 +632,14 @@
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B5" s="0" t="n">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.92548611111</v>
+        <v>45688.90493055555</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>10009</v>
@@ -695,14 +695,14 @@
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B6" s="0" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -759,7 +759,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B7" s="0" t="n">
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B8" s="0" t="n">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.91126157407</v>
+        <v>45688.90121527778</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -872,14 +872,14 @@
       </c>
       <c r="O8" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B9" s="0" t="n">
@@ -936,7 +936,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B10" s="0" t="n">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.90896990741</v>
+        <v>45688.9025925926</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -992,14 +992,14 @@
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.90613425926</v>
+        <v>45688.89938657408</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B12" s="0" t="n">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.90466435185</v>
+        <v>45688.90148148148</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1118,14 +1118,14 @@
       </c>
       <c r="O12" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
@@ -1182,7 +1182,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B14" s="0" t="n">
@@ -1239,7 +1239,7 @@
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NextBus2</t>
+          <t>NextBus</t>
         </is>
       </c>
       <c r="B15" s="0" t="n">
@@ -1304,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,7 +1392,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.91449074074</v>
+        <v>45688.91561342592</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1448,14 +1448,14 @@
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
@@ -1512,7 +1512,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.91078703704</v>
+        <v>45688.91175925926</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1568,35 +1568,37 @@
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11379</v>
+        <v>44989</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Buona Vista Ter</t>
+          <t>Gali Batu Ter</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr"/>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45688.92548611111</v>
+      </c>
       <c r="G5" s="0" t="n">
-        <v>11379</v>
+        <v>44989</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -1609,51 +1611,55 @@
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>64009</v>
+        <v>10009</v>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M5" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="inlineStr"/>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>82009</v>
+        <v>11379</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Eunos Int</t>
+          <t>Buona Vista Ter</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr"/>
       <c r="G6" s="0" t="n">
-        <v>82009</v>
+        <v>11379</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1666,14 +1672,14 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>43009</v>
+        <v>64009</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -1689,11 +1695,11 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>82009</v>
@@ -1705,12 +1711,10 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.92148148148</v>
-      </c>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr"/>
       <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
@@ -1728,111 +1732,111 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>22009</v>
+        <v>43009</v>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.91119212963</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr"/>
-      <c r="G8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>82009</v>
-      </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr"/>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>43009</v>
+        <v>22009</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Bt Batok Int</t>
+          <t>Boon Lay Int</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.91956018518</v>
-      </c>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr"/>
       <c r="G9" s="0" t="n">
-        <v>43009</v>
+        <v>22009</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -1852,50 +1856,46 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>12101</v>
+        <v>12109</v>
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Hougang Ctrl Int</t>
+          <t>Bt Batok Int</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>SBST</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.91350694445</v>
+        <v>45688.90997685185</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>64009</v>
+        <v>43009</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>16009</v>
+        <v>82009</v>
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
@@ -1928,18 +1928,18 @@
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>64009</v>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.91096064815</v>
+        <v>45688.90660879629</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1971,14 +1971,14 @@
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>11379</v>
+        <v>16009</v>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -1991,25 +1991,25 @@
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>28009</v>
+        <v>64009</v>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Jurong East Int</t>
+          <t>Hougang Ctrl Int</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -2017,9 +2017,11 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>45688.90459490741</v>
+      </c>
       <c r="G12" s="0" t="n">
-        <v>28009</v>
+        <v>64009</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
@@ -2035,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>53009</v>
+        <v>11379</v>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
@@ -2043,30 +2045,34 @@
         </is>
       </c>
       <c r="M12" s="0" t="n">
-        <v>12109</v>
+        <v>12101</v>
       </c>
       <c r="N12" s="0" t="inlineStr">
         <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="inlineStr"/>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>16009</v>
+        <v>28009</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Kent Ridge Ter</t>
+          <t>Jurong East Int</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -2076,7 +2082,7 @@
       </c>
       <c r="F13" s="0" t="inlineStr"/>
       <c r="G13" s="0" t="n">
-        <v>16009</v>
+        <v>28009</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -2092,11 +2098,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>64009</v>
+        <v>53009</v>
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -2112,28 +2118,28 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NextBus3</t>
+          <t>NextBus2</t>
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>10009</v>
+        <v>16009</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Bt Merah Int</t>
+          <t>Kent Ridge Ter</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>SMRT</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr"/>
       <c r="G14" s="0" t="n">
-        <v>10009</v>
+        <v>16009</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -2146,10 +2152,10 @@
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>44989</v>
+        <v>64009</v>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
@@ -2165,6 +2171,63 @@
         </is>
       </c>
       <c r="O14" s="0" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>NextBus2</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2285,7 +2348,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.91449074074</v>
+        <v>45688.92114583333</v>
       </c>
       <c r="G2" t="n">
         <v>53009</v>
@@ -2301,7 +2364,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>28009</v>
@@ -2321,7 +2384,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2468,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.91078703704</v>
+        <v>45688.91707175926</v>
       </c>
       <c r="G4" t="n">
         <v>44989</v>
@@ -2428,7 +2491,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -2441,7 +2504,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2645,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.92148148148</v>
+        <v>45688.92052083334</v>
       </c>
       <c r="G7" t="n">
         <v>82009</v>
@@ -2618,7 +2681,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2765,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.91956018518</v>
+        <v>45688.91924768518</v>
       </c>
       <c r="G9" t="n">
         <v>43009</v>
@@ -2738,7 +2801,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2864,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2891,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.91096064815</v>
+        <v>45688.91200231481</v>
       </c>
       <c r="G11" t="n">
         <v>64009</v>
@@ -2844,7 +2907,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>11379</v>
@@ -2864,7 +2927,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2905,14 +2968,14 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>53009</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M12" t="n">

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,844 +454,858 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.9016550926</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.94545138889</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.9412962963</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.94381944444</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
-      <c r="G3" s="0" t="n">
+      <c r="F5" s="5" t="n">
+        <v>45688.9452662037</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.94545138889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.94005787037</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.94960648148</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.94491898148</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.94346064814</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.94004629629</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.94778935185</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.94658564815</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.94039351852</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.9494675926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.90100694444</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>45688.90493055555</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr"/>
-      <c r="G6" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr"/>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45688.90121527778</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr"/>
-      <c r="G9" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.9025925926</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.89938657408</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45688.90148148148</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
-      <c r="G13" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O13" s="0" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr"/>
-      <c r="G14" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>NextBus</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr"/>
-      <c r="G15" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O15" s="0" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2326,23 +2340,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2350,119 +2364,119 @@
       <c r="F2" s="5" t="n">
         <v>45688.92114583333</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2470,176 +2484,176 @@
       <c r="F4" s="5" t="n">
         <v>45688.91707175926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="0" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2647,119 +2661,119 @@
       <c r="F7" s="5" t="n">
         <v>45688.92052083334</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="0" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="F8" s="0" t="inlineStr"/>
+      <c r="G8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" s="0" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -2767,62 +2781,62 @@
       <c r="F9" s="5" t="n">
         <v>45688.91924768518</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="0" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2830,62 +2844,62 @@
       <c r="F10" s="5" t="n">
         <v>45688.91350694445</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="0" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -2893,214 +2907,214 @@
       <c r="F11" s="5" t="n">
         <v>45688.91200231481</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="G12" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -454,23 +454,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -478,60 +478,60 @@
       <c r="F2" s="5" t="n">
         <v>45688.94545138889</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -539,60 +539,60 @@
       <c r="F3" s="5" t="n">
         <v>45688.9412962963</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -600,60 +600,60 @@
       <c r="F4" s="5" t="n">
         <v>45688.94381944444</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -661,60 +661,60 @@
       <c r="F5" s="5" t="n">
         <v>45688.9452662037</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Buona Vista Ter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -722,60 +722,60 @@
       <c r="F6" s="5" t="n">
         <v>45688.94545138889</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -783,60 +783,60 @@
       <c r="F7" s="5" t="n">
         <v>45688.94005787037</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Eunos Int</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -844,60 +844,60 @@
       <c r="F8" s="5" t="n">
         <v>45688.94960648148</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Boon Lay Int</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -905,60 +905,60 @@
       <c r="F9" s="5" t="n">
         <v>45688.94491898148</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Bt Batok Int</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -966,60 +966,60 @@
       <c r="F10" s="5" t="n">
         <v>45688.94346064814</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>43009</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>82009</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1027,60 +1027,60 @@
       <c r="F11" s="5" t="n">
         <v>45688.94004629629</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Hougang Ctrl Int</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1088,60 +1088,60 @@
       <c r="F12" s="5" t="n">
         <v>45688.94778935185</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>11379</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>12101</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Jurong East Int</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1149,60 +1149,60 @@
       <c r="F13" s="5" t="n">
         <v>45688.94658564815</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>53009</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Kent Ridge Ter</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
@@ -1210,60 +1210,60 @@
       <c r="F14" s="5" t="n">
         <v>45688.94039351852</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>64009</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Bt Merah Int</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
@@ -1271,39 +1271,39 @@
       <c r="F15" s="5" t="n">
         <v>45688.9494675926</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>44989</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>12109</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="0" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.91561342592</v>
+        <v>45688.9569212963</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M2" s="0" t="n">
@@ -1460,10 +1460,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="O2" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -1488,7 +1486,9 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
+      <c r="F3" s="5" t="n">
+        <v>45688.94960648148</v>
+      </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
       </c>
@@ -1521,7 +1521,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -1546,7 +1548,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.91175925926</v>
+        <v>45688.95326388889</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -1569,7 +1571,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
@@ -1580,10 +1582,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="O4" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.92548611111</v>
+        <v>45688.95872685185</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>10009</v>
@@ -1643,10 +1643,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O5" s="0" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="O5" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1671,7 +1669,9 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>45688.95087962963</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -1704,7 +1704,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -1728,7 +1730,9 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr"/>
+      <c r="F7" s="5" t="n">
+        <v>45688.94868055556</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
       </c>
@@ -1761,7 +1765,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O7" s="0" t="inlineStr"/>
+      <c r="O7" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1786,7 +1792,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.91119212963</v>
+        <v>45688.95939814814</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -1809,7 +1815,7 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -1820,10 +1826,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="O8" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1848,7 +1852,9 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>45688.95060185185</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
       </c>
@@ -1881,7 +1887,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O9" s="0" t="inlineStr"/>
+      <c r="O9" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1906,7 +1914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.90997685185</v>
+        <v>45688.9531712963</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1940,10 +1948,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="O10" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1969,7 +1975,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.90660879629</v>
+        <v>45688.95164351852</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1985,14 +1991,14 @@
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>16009</v>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -2003,10 +2009,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="O11" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2032,7 +2036,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.90459490741</v>
+        <v>45688.95373842592</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -2048,7 +2052,7 @@
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>11379</v>
@@ -2066,10 +2070,8 @@
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="O12" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2094,7 +2096,9 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F13" s="0" t="inlineStr"/>
+      <c r="F13" s="5" t="n">
+        <v>45688.95615740741</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
       </c>
@@ -2116,7 +2120,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -2127,7 +2131,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -2151,7 +2157,9 @@
           <t>SBST</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>45688.94936342593</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
       </c>
@@ -2184,7 +2192,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -2208,7 +2218,9 @@
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F15" s="0" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>45688.95935185185</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
       </c>
@@ -2223,7 +2235,7 @@
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>44989</v>
@@ -2241,7 +2253,9 @@
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2254,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,781 +2354,858 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>53009</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bishan Int</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.92114583333</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>45688.96571759259</v>
+      </c>
+      <c r="G2" t="n">
         <v>53009</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" t="n">
         <v>28009</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45688.95556712963</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M3" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gali Batu Ter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45688.96106481482</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44989</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>12101</v>
       </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="O4" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>NextBus3</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
         <v>44989</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gali Batu Ter</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>SMRT</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
-      <c r="G3" s="0" t="n">
+      <c r="F5" s="5" t="n">
+        <v>45688.9684375</v>
+      </c>
+      <c r="G5" t="n">
         <v>44989</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Buona Vista Ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45688.95711805556</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11379</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K6" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>45688.95689814815</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43009</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eunos Int</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>45688.9658912037</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82009</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22009</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Boon Lay Int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>45688.96127314815</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22009</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bt Batok Int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45688.95887731481</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82009</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45688.96090277778</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16009</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hougang Ctrl Int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45688.96160879629</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64009</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11379</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>12101</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jurong East Int</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45688.9649537037</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28009</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kent Ridge Ter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SBST</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>45688.9624537037</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64009</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12109</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Opp Ngee Ann Poly</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NextBus3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bt Merah Int</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SMRT</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>45688.96791666667</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>44989</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>12109</v>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Opp Ngee Ann Poly</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Gali Batu Ter</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45688.91707175926</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Buona Vista Ter</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr"/>
-      <c r="G5" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr"/>
-      <c r="G6" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Eunos Int</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>45688.92052083334</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Boon Lay Int</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr"/>
-      <c r="G8" s="0" t="n">
-        <v>22009</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Bt Batok Int</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>45688.91924768518</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>43009</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>82009</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>45688.91350694445</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Hougang Ctrl Int</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>45688.91200231481</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>11379</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>12101</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Jurong East Int</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr"/>
-      <c r="G12" s="0" t="n">
-        <v>28009</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>53009</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Kent Ridge Ter</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>SBST</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
-      <c r="G13" s="0" t="n">
-        <v>16009</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>64009</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O13" s="0" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>NextBus3</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Bt Merah Int</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>SMRT</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr"/>
-      <c r="G14" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>44989</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>12109</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>Opp Ngee Ann Poly</t>
-        </is>
-      </c>
-      <c r="O14" s="0" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/path/in/repo/DDP_OUTPUT.xlsx
+++ b/path/in/repo/DDP_OUTPUT.xlsx
@@ -459,10 +459,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>53009</v>
@@ -474,11 +472,11 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>45688.95648148148</v>
+        <v>45688.95711805556</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>53009</v>
@@ -522,10 +520,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>44989</v>
@@ -537,11 +533,11 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45688.94863425926</v>
+        <v>45688.94868055556</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>44989</v>
@@ -576,7 +572,7 @@
         </is>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -585,10 +581,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>184,184</t>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>44989</v>
@@ -600,11 +594,11 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45688.95094907407</v>
+        <v>45688.95074074074</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>44989</v>
@@ -639,7 +633,7 @@
         </is>
       </c>
       <c r="O4" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -648,10 +642,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>44989</v>
@@ -663,11 +655,11 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45688.95811342593</v>
+        <v>45688.95798611111</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>44989</v>
@@ -702,7 +694,7 @@
         </is>
       </c>
       <c r="O5" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -711,10 +703,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>11379</v>
@@ -726,11 +716,11 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45688.94623842592</v>
+        <v>45688.94996527778</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>11379</v>
@@ -753,7 +743,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M6" s="0" t="n">
@@ -765,7 +755,7 @@
         </is>
       </c>
       <c r="O6" s="0" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -774,10 +764,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>82009</v>
@@ -789,11 +777,11 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45688.94738425926</v>
+        <v>45688.95689814815</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>82009</v>
@@ -809,7 +797,7 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43009</v>
@@ -828,7 +816,7 @@
         </is>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -837,10 +825,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>82009</v>
@@ -852,11 +838,11 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45688.9494212963</v>
+        <v>45688.95008101852</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>82009</v>
@@ -900,10 +886,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>154,154</t>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>154</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>22009</v>
@@ -915,11 +899,11 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45688.95049768518</v>
+        <v>45688.95054398148</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22009</v>
@@ -954,7 +938,7 @@
         </is>
       </c>
       <c r="O9" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -963,10 +947,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>61,61</t>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>43009</v>
@@ -978,11 +960,11 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45688.95293981482</v>
+        <v>45688.95297453704</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>43009</v>
@@ -1017,7 +999,7 @@
         </is>
       </c>
       <c r="O10" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1026,10 +1008,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>151</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>64009</v>
@@ -1041,11 +1021,11 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45688.95087962963</v>
+        <v>45688.95115740741</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>64009</v>
@@ -1080,7 +1060,7 @@
         </is>
       </c>
       <c r="O11" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1089,10 +1069,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>64009</v>
@@ -1104,11 +1082,11 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45688.94863425926</v>
+        <v>45688.9484375</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>64009</v>
@@ -1143,7 +1121,7 @@
         </is>
       </c>
       <c r="O12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1152,10 +1130,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28009</v>
@@ -1167,11 +1143,11 @@
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45688.94697916666</v>
+        <v>45688.95583333333</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28009</v>
@@ -1194,7 +1170,7 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -1206,7 +1182,7 @@
         </is>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1215,10 +1191,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>151,151</t>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>16009</v>
@@ -1230,11 +1204,11 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>
+          <t>SBST</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45688.94914351852</v>
+        <v>45688.9494212963</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>16009</v>
@@ -1269,7 +1243,7 @@
         </is>
       </c>
       <c r="O14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1252,8 @@
           <t>NextBus</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>75,75</t>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10009</v>
@@ -1293,11 +1265,11 @@
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>SMRT,SMRT</t>
+          <t>SMRT</t>
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45688.94765046296</v>
+        <v>45688.94800925926</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10009</v>
@@ -1437,10 +1409,8 @@
           <t>NextBus2</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>52,52</t>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>53009</v>
@@ -1452,11 +1422,11 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>SBST,SBST</t>